--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>821000</v>
+        <v>828300</v>
       </c>
       <c r="E8" s="3">
-        <v>1534900</v>
+        <v>776900</v>
       </c>
       <c r="F8" s="3">
-        <v>788800</v>
+        <v>1452400</v>
       </c>
       <c r="G8" s="3">
-        <v>858300</v>
+        <v>746400</v>
       </c>
       <c r="H8" s="3">
-        <v>811600</v>
+        <v>812100</v>
       </c>
       <c r="I8" s="3">
-        <v>797700</v>
+        <v>768000</v>
       </c>
       <c r="J8" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K8" s="3">
         <v>784200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>383800</v>
+        <v>374800</v>
       </c>
       <c r="E9" s="3">
-        <v>1065800</v>
+        <v>363200</v>
       </c>
       <c r="F9" s="3">
-        <v>367000</v>
+        <v>1008500</v>
       </c>
       <c r="G9" s="3">
-        <v>311400</v>
+        <v>347300</v>
       </c>
       <c r="H9" s="3">
-        <v>365500</v>
+        <v>294700</v>
       </c>
       <c r="I9" s="3">
-        <v>347900</v>
+        <v>345800</v>
       </c>
       <c r="J9" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K9" s="3">
         <v>366300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>437200</v>
+        <v>453500</v>
       </c>
       <c r="E10" s="3">
-        <v>469100</v>
+        <v>413700</v>
       </c>
       <c r="F10" s="3">
-        <v>421800</v>
+        <v>443900</v>
       </c>
       <c r="G10" s="3">
-        <v>546900</v>
+        <v>399100</v>
       </c>
       <c r="H10" s="3">
-        <v>446100</v>
+        <v>517500</v>
       </c>
       <c r="I10" s="3">
-        <v>449800</v>
+        <v>422100</v>
       </c>
       <c r="J10" s="3">
+        <v>425600</v>
+      </c>
+      <c r="K10" s="3">
         <v>417900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>36500</v>
-      </c>
       <c r="F14" s="3">
-        <v>12400</v>
+        <v>34500</v>
       </c>
       <c r="G14" s="3">
-        <v>10800</v>
+        <v>11700</v>
       </c>
       <c r="H14" s="3">
-        <v>17400</v>
+        <v>10200</v>
       </c>
       <c r="I14" s="3">
-        <v>42600</v>
+        <v>16500</v>
       </c>
       <c r="J14" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K14" s="3">
         <v>16500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>46400</v>
-      </c>
       <c r="F15" s="3">
-        <v>46500</v>
+        <v>43900</v>
       </c>
       <c r="G15" s="3">
-        <v>44500</v>
+        <v>44000</v>
       </c>
       <c r="H15" s="3">
-        <v>48800</v>
+        <v>42100</v>
       </c>
       <c r="I15" s="3">
-        <v>47300</v>
+        <v>46200</v>
       </c>
       <c r="J15" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K15" s="3">
         <v>45900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>693200</v>
+        <v>655800</v>
       </c>
       <c r="E17" s="3">
-        <v>1318300</v>
+        <v>656000</v>
       </c>
       <c r="F17" s="3">
-        <v>692400</v>
+        <v>1247400</v>
       </c>
       <c r="G17" s="3">
-        <v>624300</v>
+        <v>655200</v>
       </c>
       <c r="H17" s="3">
-        <v>688500</v>
+        <v>590700</v>
       </c>
       <c r="I17" s="3">
-        <v>393900</v>
+        <v>651500</v>
       </c>
       <c r="J17" s="3">
+        <v>372700</v>
+      </c>
+      <c r="K17" s="3">
         <v>700300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>127800</v>
+        <v>172500</v>
       </c>
       <c r="E18" s="3">
-        <v>216600</v>
+        <v>120900</v>
       </c>
       <c r="F18" s="3">
-        <v>96400</v>
+        <v>205000</v>
       </c>
       <c r="G18" s="3">
-        <v>234000</v>
+        <v>91200</v>
       </c>
       <c r="H18" s="3">
-        <v>123100</v>
+        <v>221500</v>
       </c>
       <c r="I18" s="3">
-        <v>403800</v>
+        <v>116500</v>
       </c>
       <c r="J18" s="3">
+        <v>382100</v>
+      </c>
+      <c r="K18" s="3">
         <v>84000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45600</v>
+        <v>26700</v>
       </c>
       <c r="E20" s="3">
-        <v>-54000</v>
+        <v>-43200</v>
       </c>
       <c r="F20" s="3">
-        <v>-10200</v>
+        <v>-51100</v>
       </c>
       <c r="G20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4600</v>
-      </c>
       <c r="I20" s="3">
-        <v>189800</v>
+        <v>-4300</v>
       </c>
       <c r="J20" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>342300</v>
+        <v>443400</v>
       </c>
       <c r="E21" s="3">
-        <v>678700</v>
+        <v>323900</v>
       </c>
       <c r="F21" s="3">
-        <v>349800</v>
+        <v>642200</v>
       </c>
       <c r="G21" s="3">
-        <v>433100</v>
+        <v>331000</v>
       </c>
       <c r="H21" s="3">
-        <v>387400</v>
+        <v>409800</v>
       </c>
       <c r="I21" s="3">
-        <v>836500</v>
+        <v>366600</v>
       </c>
       <c r="J21" s="3">
+        <v>791500</v>
+      </c>
+      <c r="K21" s="3">
         <v>327300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>43200</v>
-      </c>
       <c r="F22" s="3">
-        <v>37500</v>
+        <v>40800</v>
       </c>
       <c r="G22" s="3">
-        <v>44700</v>
+        <v>35500</v>
       </c>
       <c r="H22" s="3">
-        <v>45400</v>
+        <v>42300</v>
       </c>
       <c r="I22" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="J22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K22" s="3">
         <v>42800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>82200</v>
+        <v>164700</v>
       </c>
       <c r="E23" s="3">
-        <v>119500</v>
+        <v>77800</v>
       </c>
       <c r="F23" s="3">
-        <v>48800</v>
+        <v>113000</v>
       </c>
       <c r="G23" s="3">
-        <v>189900</v>
+        <v>46100</v>
       </c>
       <c r="H23" s="3">
-        <v>73100</v>
+        <v>179700</v>
       </c>
       <c r="I23" s="3">
-        <v>551000</v>
+        <v>69200</v>
       </c>
       <c r="J23" s="3">
+        <v>521300</v>
+      </c>
+      <c r="K23" s="3">
         <v>34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9200</v>
+        <v>-14800</v>
       </c>
       <c r="E24" s="3">
-        <v>37100</v>
+        <v>8700</v>
       </c>
       <c r="F24" s="3">
-        <v>18500</v>
+        <v>35100</v>
       </c>
       <c r="G24" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="H24" s="3">
-        <v>-32000</v>
+        <v>17100</v>
       </c>
       <c r="I24" s="3">
-        <v>172600</v>
+        <v>-30300</v>
       </c>
       <c r="J24" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73000</v>
+        <v>179400</v>
       </c>
       <c r="E26" s="3">
-        <v>82400</v>
+        <v>69100</v>
       </c>
       <c r="F26" s="3">
-        <v>30300</v>
+        <v>78000</v>
       </c>
       <c r="G26" s="3">
-        <v>171800</v>
+        <v>28700</v>
       </c>
       <c r="H26" s="3">
-        <v>105100</v>
+        <v>162600</v>
       </c>
       <c r="I26" s="3">
-        <v>378400</v>
+        <v>99500</v>
       </c>
       <c r="J26" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K26" s="3">
         <v>22500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73000</v>
+        <v>179400</v>
       </c>
       <c r="E27" s="3">
-        <v>82400</v>
+        <v>69100</v>
       </c>
       <c r="F27" s="3">
-        <v>30300</v>
+        <v>78000</v>
       </c>
       <c r="G27" s="3">
-        <v>171800</v>
+        <v>28700</v>
       </c>
       <c r="H27" s="3">
-        <v>105100</v>
+        <v>162600</v>
       </c>
       <c r="I27" s="3">
-        <v>378400</v>
+        <v>99500</v>
       </c>
       <c r="J27" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K27" s="3">
         <v>22500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45600</v>
+        <v>-26700</v>
       </c>
       <c r="E32" s="3">
-        <v>54000</v>
+        <v>43200</v>
       </c>
       <c r="F32" s="3">
-        <v>10200</v>
+        <v>51100</v>
       </c>
       <c r="G32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>4600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-189800</v>
+        <v>4300</v>
       </c>
       <c r="J32" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73000</v>
+        <v>179400</v>
       </c>
       <c r="E33" s="3">
-        <v>82400</v>
+        <v>69100</v>
       </c>
       <c r="F33" s="3">
-        <v>30300</v>
+        <v>78000</v>
       </c>
       <c r="G33" s="3">
-        <v>171800</v>
+        <v>28700</v>
       </c>
       <c r="H33" s="3">
-        <v>105100</v>
+        <v>162600</v>
       </c>
       <c r="I33" s="3">
-        <v>378400</v>
+        <v>99500</v>
       </c>
       <c r="J33" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K33" s="3">
         <v>22500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73000</v>
+        <v>179400</v>
       </c>
       <c r="E35" s="3">
-        <v>82400</v>
+        <v>69100</v>
       </c>
       <c r="F35" s="3">
-        <v>30300</v>
+        <v>78000</v>
       </c>
       <c r="G35" s="3">
-        <v>171800</v>
+        <v>28700</v>
       </c>
       <c r="H35" s="3">
-        <v>105100</v>
+        <v>162600</v>
       </c>
       <c r="I35" s="3">
-        <v>378400</v>
+        <v>99500</v>
       </c>
       <c r="J35" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K35" s="3">
         <v>22500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>397600</v>
+        <v>456000</v>
       </c>
       <c r="E41" s="3">
-        <v>575300</v>
+        <v>376200</v>
       </c>
       <c r="F41" s="3">
-        <v>297700</v>
+        <v>544400</v>
       </c>
       <c r="G41" s="3">
-        <v>427600</v>
+        <v>281700</v>
       </c>
       <c r="H41" s="3">
-        <v>163900</v>
+        <v>404600</v>
       </c>
       <c r="I41" s="3">
-        <v>124800</v>
+        <v>155100</v>
       </c>
       <c r="J41" s="3">
+        <v>118100</v>
+      </c>
+      <c r="K41" s="3">
         <v>171200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>283100</v>
+        <v>366600</v>
       </c>
       <c r="E42" s="3">
-        <v>47800</v>
+        <v>267900</v>
       </c>
       <c r="F42" s="3">
-        <v>7400</v>
+        <v>45200</v>
       </c>
       <c r="G42" s="3">
-        <v>122500</v>
+        <v>7000</v>
       </c>
       <c r="H42" s="3">
-        <v>146300</v>
+        <v>115900</v>
       </c>
       <c r="I42" s="3">
-        <v>92300</v>
+        <v>138500</v>
       </c>
       <c r="J42" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K42" s="3">
         <v>140900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>918900</v>
+        <v>858300</v>
       </c>
       <c r="E43" s="3">
-        <v>806800</v>
+        <v>869500</v>
       </c>
       <c r="F43" s="3">
-        <v>875800</v>
+        <v>763500</v>
       </c>
       <c r="G43" s="3">
-        <v>935700</v>
+        <v>828700</v>
       </c>
       <c r="H43" s="3">
-        <v>783900</v>
+        <v>885400</v>
       </c>
       <c r="I43" s="3">
-        <v>698800</v>
+        <v>741800</v>
       </c>
       <c r="J43" s="3">
+        <v>661200</v>
+      </c>
+      <c r="K43" s="3">
         <v>670700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38700</v>
+        <v>43700</v>
       </c>
       <c r="E44" s="3">
-        <v>38100</v>
+        <v>36600</v>
       </c>
       <c r="F44" s="3">
-        <v>50300</v>
+        <v>36100</v>
       </c>
       <c r="G44" s="3">
-        <v>38000</v>
+        <v>47600</v>
       </c>
       <c r="H44" s="3">
-        <v>39500</v>
+        <v>36000</v>
       </c>
       <c r="I44" s="3">
-        <v>40000</v>
+        <v>37400</v>
       </c>
       <c r="J44" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K44" s="3">
         <v>40200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>158400</v>
+        <v>119000</v>
       </c>
       <c r="E45" s="3">
-        <v>96200</v>
+        <v>149900</v>
       </c>
       <c r="F45" s="3">
-        <v>113800</v>
+        <v>91000</v>
       </c>
       <c r="G45" s="3">
-        <v>58300</v>
+        <v>107600</v>
       </c>
       <c r="H45" s="3">
-        <v>121500</v>
+        <v>55100</v>
       </c>
       <c r="I45" s="3">
-        <v>160600</v>
+        <v>115000</v>
       </c>
       <c r="J45" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K45" s="3">
         <v>206800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1796700</v>
+        <v>1843600</v>
       </c>
       <c r="E46" s="3">
-        <v>1564200</v>
+        <v>1700100</v>
       </c>
       <c r="F46" s="3">
-        <v>1344900</v>
+        <v>1480100</v>
       </c>
       <c r="G46" s="3">
-        <v>1582000</v>
+        <v>1272600</v>
       </c>
       <c r="H46" s="3">
-        <v>1255100</v>
+        <v>1497000</v>
       </c>
       <c r="I46" s="3">
-        <v>1116500</v>
+        <v>1187700</v>
       </c>
       <c r="J46" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1229800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>394300</v>
+        <v>401900</v>
       </c>
       <c r="E47" s="3">
-        <v>631500</v>
+        <v>373100</v>
       </c>
       <c r="F47" s="3">
-        <v>632900</v>
+        <v>597600</v>
       </c>
       <c r="G47" s="3">
-        <v>617100</v>
+        <v>598800</v>
       </c>
       <c r="H47" s="3">
-        <v>784200</v>
+        <v>584000</v>
       </c>
       <c r="I47" s="3">
-        <v>810400</v>
+        <v>742100</v>
       </c>
       <c r="J47" s="3">
+        <v>766800</v>
+      </c>
+      <c r="K47" s="3">
         <v>294700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3248100</v>
+        <v>3205100</v>
       </c>
       <c r="E48" s="3">
-        <v>3243100</v>
+        <v>3073500</v>
       </c>
       <c r="F48" s="3">
-        <v>3344800</v>
+        <v>3068800</v>
       </c>
       <c r="G48" s="3">
-        <v>3295800</v>
+        <v>3165000</v>
       </c>
       <c r="H48" s="3">
-        <v>3122100</v>
+        <v>3118600</v>
       </c>
       <c r="I48" s="3">
-        <v>3073000</v>
+        <v>2954200</v>
       </c>
       <c r="J48" s="3">
+        <v>2907800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2970000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1686500</v>
+        <v>1598400</v>
       </c>
       <c r="E49" s="3">
-        <v>1734000</v>
+        <v>1595800</v>
       </c>
       <c r="F49" s="3">
-        <v>1785100</v>
+        <v>1640800</v>
       </c>
       <c r="G49" s="3">
-        <v>1809200</v>
+        <v>1689100</v>
       </c>
       <c r="H49" s="3">
-        <v>1842000</v>
+        <v>1712000</v>
       </c>
       <c r="I49" s="3">
-        <v>1893400</v>
+        <v>1743000</v>
       </c>
       <c r="J49" s="3">
+        <v>1791600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1947200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>320400</v>
+        <v>326700</v>
       </c>
       <c r="E52" s="3">
-        <v>280700</v>
+        <v>303200</v>
       </c>
       <c r="F52" s="3">
-        <v>283900</v>
+        <v>265600</v>
       </c>
       <c r="G52" s="3">
-        <v>246300</v>
+        <v>268700</v>
       </c>
       <c r="H52" s="3">
-        <v>277800</v>
+        <v>233100</v>
       </c>
       <c r="I52" s="3">
-        <v>291900</v>
+        <v>262900</v>
       </c>
       <c r="J52" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K52" s="3">
         <v>448900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7445900</v>
+        <v>7375700</v>
       </c>
       <c r="E54" s="3">
-        <v>7453600</v>
+        <v>7045600</v>
       </c>
       <c r="F54" s="3">
-        <v>7391600</v>
+        <v>7052900</v>
       </c>
       <c r="G54" s="3">
-        <v>7550500</v>
+        <v>6994200</v>
       </c>
       <c r="H54" s="3">
-        <v>7281300</v>
+        <v>7144600</v>
       </c>
       <c r="I54" s="3">
-        <v>7185200</v>
+        <v>6889900</v>
       </c>
       <c r="J54" s="3">
+        <v>6798900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6890500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>407200</v>
+        <v>554000</v>
       </c>
       <c r="E57" s="3">
-        <v>387100</v>
+        <v>385300</v>
       </c>
       <c r="F57" s="3">
-        <v>493100</v>
+        <v>366300</v>
       </c>
       <c r="G57" s="3">
-        <v>734100</v>
+        <v>466500</v>
       </c>
       <c r="H57" s="3">
-        <v>547000</v>
+        <v>694700</v>
       </c>
       <c r="I57" s="3">
-        <v>541000</v>
+        <v>517600</v>
       </c>
       <c r="J57" s="3">
+        <v>512000</v>
+      </c>
+      <c r="K57" s="3">
         <v>707700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>521800</v>
+        <v>485900</v>
       </c>
       <c r="E58" s="3">
-        <v>488000</v>
+        <v>493800</v>
       </c>
       <c r="F58" s="3">
-        <v>380900</v>
+        <v>461800</v>
       </c>
       <c r="G58" s="3">
-        <v>422400</v>
+        <v>360400</v>
       </c>
       <c r="H58" s="3">
-        <v>431400</v>
+        <v>399700</v>
       </c>
       <c r="I58" s="3">
-        <v>246300</v>
+        <v>408200</v>
       </c>
       <c r="J58" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K58" s="3">
         <v>249900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>319200</v>
+        <v>430100</v>
       </c>
       <c r="E59" s="3">
-        <v>292300</v>
+        <v>302000</v>
       </c>
       <c r="F59" s="3">
-        <v>240800</v>
+        <v>276600</v>
       </c>
       <c r="G59" s="3">
-        <v>362500</v>
+        <v>227900</v>
       </c>
       <c r="H59" s="3">
-        <v>382400</v>
+        <v>343000</v>
       </c>
       <c r="I59" s="3">
-        <v>270700</v>
+        <v>361900</v>
       </c>
       <c r="J59" s="3">
+        <v>256100</v>
+      </c>
+      <c r="K59" s="3">
         <v>261700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1248200</v>
+        <v>1470000</v>
       </c>
       <c r="E60" s="3">
-        <v>1167400</v>
+        <v>1181100</v>
       </c>
       <c r="F60" s="3">
-        <v>1114800</v>
+        <v>1104700</v>
       </c>
       <c r="G60" s="3">
-        <v>1519000</v>
+        <v>1054800</v>
       </c>
       <c r="H60" s="3">
-        <v>1360800</v>
+        <v>1437400</v>
       </c>
       <c r="I60" s="3">
-        <v>1058000</v>
+        <v>1287600</v>
       </c>
       <c r="J60" s="3">
+        <v>1001100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1219300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1436100</v>
+        <v>1413000</v>
       </c>
       <c r="E61" s="3">
-        <v>1555500</v>
+        <v>1358900</v>
       </c>
       <c r="F61" s="3">
-        <v>1608300</v>
+        <v>1471900</v>
       </c>
       <c r="G61" s="3">
-        <v>1413300</v>
+        <v>1521800</v>
       </c>
       <c r="H61" s="3">
-        <v>1390200</v>
+        <v>1337400</v>
       </c>
       <c r="I61" s="3">
-        <v>1544300</v>
+        <v>1315400</v>
       </c>
       <c r="J61" s="3">
+        <v>1461300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1503800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>410900</v>
+        <v>387800</v>
       </c>
       <c r="E62" s="3">
-        <v>455200</v>
+        <v>388800</v>
       </c>
       <c r="F62" s="3">
-        <v>441700</v>
+        <v>430700</v>
       </c>
       <c r="G62" s="3">
-        <v>420500</v>
+        <v>418000</v>
       </c>
       <c r="H62" s="3">
-        <v>457900</v>
+        <v>397900</v>
       </c>
       <c r="I62" s="3">
-        <v>477300</v>
+        <v>433300</v>
       </c>
       <c r="J62" s="3">
+        <v>451600</v>
+      </c>
+      <c r="K62" s="3">
         <v>440000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3095300</v>
+        <v>3270800</v>
       </c>
       <c r="E66" s="3">
-        <v>3178100</v>
+        <v>2928900</v>
       </c>
       <c r="F66" s="3">
-        <v>3164800</v>
+        <v>3007300</v>
       </c>
       <c r="G66" s="3">
-        <v>3352800</v>
+        <v>2994700</v>
       </c>
       <c r="H66" s="3">
-        <v>3208900</v>
+        <v>3172600</v>
       </c>
       <c r="I66" s="3">
-        <v>3079600</v>
+        <v>3036400</v>
       </c>
       <c r="J66" s="3">
+        <v>2914000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3163100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1763100</v>
+        <v>1657500</v>
       </c>
       <c r="E72" s="3">
-        <v>2052300</v>
+        <v>1668300</v>
       </c>
       <c r="F72" s="3">
-        <v>2311300</v>
+        <v>1942000</v>
       </c>
       <c r="G72" s="3">
-        <v>2281000</v>
+        <v>2187000</v>
       </c>
       <c r="H72" s="3">
-        <v>2155700</v>
+        <v>2158400</v>
       </c>
       <c r="I72" s="3">
-        <v>2189300</v>
+        <v>2039800</v>
       </c>
       <c r="J72" s="3">
+        <v>2071600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1811200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4350600</v>
+        <v>4105000</v>
       </c>
       <c r="E76" s="3">
-        <v>4275500</v>
+        <v>4116700</v>
       </c>
       <c r="F76" s="3">
-        <v>4226800</v>
+        <v>4045700</v>
       </c>
       <c r="G76" s="3">
-        <v>4197700</v>
+        <v>3999600</v>
       </c>
       <c r="H76" s="3">
-        <v>4072400</v>
+        <v>3972000</v>
       </c>
       <c r="I76" s="3">
-        <v>4105600</v>
+        <v>3853500</v>
       </c>
       <c r="J76" s="3">
+        <v>3884900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3727500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73000</v>
+        <v>179400</v>
       </c>
       <c r="E81" s="3">
-        <v>82400</v>
+        <v>69100</v>
       </c>
       <c r="F81" s="3">
-        <v>30300</v>
+        <v>78000</v>
       </c>
       <c r="G81" s="3">
-        <v>171800</v>
+        <v>28700</v>
       </c>
       <c r="H81" s="3">
-        <v>105100</v>
+        <v>162600</v>
       </c>
       <c r="I81" s="3">
-        <v>378400</v>
+        <v>99500</v>
       </c>
       <c r="J81" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K81" s="3">
         <v>22500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>260200</v>
+        <v>244100</v>
       </c>
       <c r="E83" s="3">
-        <v>516100</v>
+        <v>246200</v>
       </c>
       <c r="F83" s="3">
-        <v>263600</v>
+        <v>488400</v>
       </c>
       <c r="G83" s="3">
-        <v>198400</v>
+        <v>249400</v>
       </c>
       <c r="H83" s="3">
-        <v>268900</v>
+        <v>187700</v>
       </c>
       <c r="I83" s="3">
-        <v>242900</v>
+        <v>254400</v>
       </c>
       <c r="J83" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K83" s="3">
         <v>249700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>409600</v>
+        <v>654900</v>
       </c>
       <c r="E89" s="3">
-        <v>521500</v>
+        <v>387500</v>
       </c>
       <c r="F89" s="3">
-        <v>91200</v>
+        <v>493400</v>
       </c>
       <c r="G89" s="3">
-        <v>674900</v>
+        <v>86300</v>
       </c>
       <c r="H89" s="3">
-        <v>393700</v>
+        <v>638600</v>
       </c>
       <c r="I89" s="3">
-        <v>198200</v>
+        <v>372500</v>
       </c>
       <c r="J89" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K89" s="3">
         <v>55400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159100</v>
+        <v>-259200</v>
       </c>
       <c r="E91" s="3">
-        <v>-295200</v>
+        <v>-150500</v>
       </c>
       <c r="F91" s="3">
-        <v>-169200</v>
+        <v>-279300</v>
       </c>
       <c r="G91" s="3">
-        <v>-249700</v>
+        <v>-160100</v>
       </c>
       <c r="H91" s="3">
-        <v>-172900</v>
+        <v>-236300</v>
       </c>
       <c r="I91" s="3">
-        <v>-176800</v>
+        <v>-163600</v>
       </c>
       <c r="J91" s="3">
+        <v>-167300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-121700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-392400</v>
+        <v>-357800</v>
       </c>
       <c r="E94" s="3">
-        <v>-220000</v>
+        <v>-371300</v>
       </c>
       <c r="F94" s="3">
-        <v>-53000</v>
+        <v>-208200</v>
       </c>
       <c r="G94" s="3">
-        <v>-225800</v>
+        <v>-50200</v>
       </c>
       <c r="H94" s="3">
-        <v>-225800</v>
+        <v>-213700</v>
       </c>
       <c r="I94" s="3">
-        <v>-128500</v>
+        <v>-213700</v>
       </c>
       <c r="J94" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-114600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5500</v>
+        <v>-98400</v>
       </c>
       <c r="E96" s="3">
-        <v>-106300</v>
+        <v>-5200</v>
       </c>
       <c r="F96" s="3">
-        <v>-106100</v>
+        <v>-100600</v>
       </c>
       <c r="G96" s="3">
-        <v>-68200</v>
+        <v>-100400</v>
       </c>
       <c r="H96" s="3">
-        <v>-11700</v>
+        <v>-64500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-11100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-64200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-194700</v>
+        <v>-217400</v>
       </c>
       <c r="E100" s="3">
-        <v>-153700</v>
+        <v>-184200</v>
       </c>
       <c r="F100" s="3">
-        <v>-168100</v>
+        <v>-145400</v>
       </c>
       <c r="G100" s="3">
-        <v>-185400</v>
+        <v>-159000</v>
       </c>
       <c r="H100" s="3">
-        <v>-128700</v>
+        <v>-175400</v>
       </c>
       <c r="I100" s="3">
-        <v>-116000</v>
+        <v>-121800</v>
       </c>
       <c r="J100" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="K100" s="3">
         <v>29200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-177600</v>
+        <v>79800</v>
       </c>
       <c r="E102" s="3">
-        <v>147800</v>
+        <v>-168000</v>
       </c>
       <c r="F102" s="3">
-        <v>-129800</v>
+        <v>139800</v>
       </c>
       <c r="G102" s="3">
-        <v>263700</v>
+        <v>-122900</v>
       </c>
       <c r="H102" s="3">
-        <v>39100</v>
+        <v>249500</v>
       </c>
       <c r="I102" s="3">
-        <v>-46400</v>
+        <v>37000</v>
       </c>
       <c r="J102" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-30000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>828300</v>
+        <v>814100</v>
       </c>
       <c r="E8" s="3">
-        <v>776900</v>
+        <v>877500</v>
       </c>
       <c r="F8" s="3">
-        <v>1452400</v>
+        <v>823000</v>
       </c>
       <c r="G8" s="3">
-        <v>746400</v>
+        <v>1538600</v>
       </c>
       <c r="H8" s="3">
-        <v>812100</v>
+        <v>790700</v>
       </c>
       <c r="I8" s="3">
-        <v>768000</v>
+        <v>860400</v>
       </c>
       <c r="J8" s="3">
+        <v>813600</v>
+      </c>
+      <c r="K8" s="3">
         <v>754800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>784200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>374800</v>
+        <v>392600</v>
       </c>
       <c r="E9" s="3">
-        <v>363200</v>
+        <v>397100</v>
       </c>
       <c r="F9" s="3">
-        <v>1008500</v>
+        <v>384800</v>
       </c>
       <c r="G9" s="3">
-        <v>347300</v>
+        <v>1068400</v>
       </c>
       <c r="H9" s="3">
-        <v>294700</v>
+        <v>367900</v>
       </c>
       <c r="I9" s="3">
-        <v>345800</v>
+        <v>312200</v>
       </c>
       <c r="J9" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K9" s="3">
         <v>329200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>366300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>453500</v>
+        <v>421500</v>
       </c>
       <c r="E10" s="3">
-        <v>413700</v>
+        <v>480400</v>
       </c>
       <c r="F10" s="3">
-        <v>443900</v>
+        <v>438200</v>
       </c>
       <c r="G10" s="3">
-        <v>399100</v>
+        <v>470200</v>
       </c>
       <c r="H10" s="3">
-        <v>517500</v>
+        <v>422800</v>
       </c>
       <c r="I10" s="3">
-        <v>422100</v>
+        <v>548200</v>
       </c>
       <c r="J10" s="3">
+        <v>447200</v>
+      </c>
+      <c r="K10" s="3">
         <v>425600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>417900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10600</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>9400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>34500</v>
-      </c>
       <c r="G14" s="3">
-        <v>11700</v>
+        <v>36600</v>
       </c>
       <c r="H14" s="3">
-        <v>10200</v>
+        <v>12400</v>
       </c>
       <c r="I14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>40300</v>
+      </c>
+      <c r="L14" s="3">
         <v>16500</v>
       </c>
-      <c r="J14" s="3">
-        <v>40300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>16500</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39600</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>41500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>43900</v>
-      </c>
       <c r="G15" s="3">
-        <v>44000</v>
+        <v>46500</v>
       </c>
       <c r="H15" s="3">
-        <v>42100</v>
+        <v>46600</v>
       </c>
       <c r="I15" s="3">
-        <v>46200</v>
+        <v>44600</v>
       </c>
       <c r="J15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K15" s="3">
         <v>44800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>45900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>655800</v>
+        <v>702900</v>
       </c>
       <c r="E17" s="3">
-        <v>656000</v>
+        <v>694700</v>
       </c>
       <c r="F17" s="3">
-        <v>1247400</v>
+        <v>694900</v>
       </c>
       <c r="G17" s="3">
-        <v>655200</v>
+        <v>1321500</v>
       </c>
       <c r="H17" s="3">
-        <v>590700</v>
+        <v>694100</v>
       </c>
       <c r="I17" s="3">
-        <v>651500</v>
+        <v>625800</v>
       </c>
       <c r="J17" s="3">
+        <v>690200</v>
+      </c>
+      <c r="K17" s="3">
         <v>372700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>172500</v>
+        <v>111100</v>
       </c>
       <c r="E18" s="3">
-        <v>120900</v>
+        <v>182800</v>
       </c>
       <c r="F18" s="3">
-        <v>205000</v>
+        <v>128100</v>
       </c>
       <c r="G18" s="3">
-        <v>91200</v>
+        <v>217100</v>
       </c>
       <c r="H18" s="3">
-        <v>221500</v>
+        <v>96600</v>
       </c>
       <c r="I18" s="3">
-        <v>116500</v>
+        <v>234600</v>
       </c>
       <c r="J18" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K18" s="3">
         <v>382100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1076,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26700</v>
+        <v>-4600</v>
       </c>
       <c r="E20" s="3">
-        <v>-43200</v>
+        <v>28300</v>
       </c>
       <c r="F20" s="3">
-        <v>-51100</v>
+        <v>-45700</v>
       </c>
       <c r="G20" s="3">
-        <v>-9600</v>
+        <v>-54100</v>
       </c>
       <c r="H20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>179600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>443400</v>
+        <v>374400</v>
       </c>
       <c r="E21" s="3">
-        <v>323900</v>
+        <v>469700</v>
       </c>
       <c r="F21" s="3">
-        <v>642200</v>
+        <v>343200</v>
       </c>
       <c r="G21" s="3">
-        <v>331000</v>
+        <v>680300</v>
       </c>
       <c r="H21" s="3">
-        <v>409800</v>
+        <v>350700</v>
       </c>
       <c r="I21" s="3">
-        <v>366600</v>
+        <v>434100</v>
       </c>
       <c r="J21" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K21" s="3">
         <v>791500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>327300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34600</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>37700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>40800</v>
-      </c>
       <c r="G22" s="3">
-        <v>35500</v>
+        <v>43300</v>
       </c>
       <c r="H22" s="3">
-        <v>42300</v>
+        <v>37600</v>
       </c>
       <c r="I22" s="3">
-        <v>43000</v>
+        <v>44800</v>
       </c>
       <c r="J22" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K22" s="3">
         <v>40300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>164700</v>
+        <v>68900</v>
       </c>
       <c r="E23" s="3">
-        <v>77800</v>
+        <v>174500</v>
       </c>
       <c r="F23" s="3">
-        <v>113000</v>
+        <v>82400</v>
       </c>
       <c r="G23" s="3">
-        <v>46100</v>
+        <v>119700</v>
       </c>
       <c r="H23" s="3">
-        <v>179700</v>
+        <v>48900</v>
       </c>
       <c r="I23" s="3">
-        <v>69200</v>
+        <v>190400</v>
       </c>
       <c r="J23" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K23" s="3">
         <v>521300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-14800</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>-15600</v>
       </c>
       <c r="F24" s="3">
-        <v>35100</v>
+        <v>9200</v>
       </c>
       <c r="G24" s="3">
-        <v>17500</v>
+        <v>37200</v>
       </c>
       <c r="H24" s="3">
-        <v>17100</v>
+        <v>18500</v>
       </c>
       <c r="I24" s="3">
-        <v>-30300</v>
+        <v>18100</v>
       </c>
       <c r="J24" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K24" s="3">
         <v>163300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>179400</v>
+        <v>51900</v>
       </c>
       <c r="E26" s="3">
-        <v>69100</v>
+        <v>190100</v>
       </c>
       <c r="F26" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="G26" s="3">
-        <v>28700</v>
+        <v>82600</v>
       </c>
       <c r="H26" s="3">
-        <v>162600</v>
+        <v>30400</v>
       </c>
       <c r="I26" s="3">
-        <v>99500</v>
+        <v>172300</v>
       </c>
       <c r="J26" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K26" s="3">
         <v>358100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>179400</v>
+        <v>51900</v>
       </c>
       <c r="E27" s="3">
-        <v>69100</v>
+        <v>190100</v>
       </c>
       <c r="F27" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="G27" s="3">
-        <v>28700</v>
+        <v>82600</v>
       </c>
       <c r="H27" s="3">
-        <v>162600</v>
+        <v>30400</v>
       </c>
       <c r="I27" s="3">
-        <v>99500</v>
+        <v>172300</v>
       </c>
       <c r="J27" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K27" s="3">
         <v>358100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26700</v>
+        <v>4600</v>
       </c>
       <c r="E32" s="3">
-        <v>43200</v>
+        <v>-28300</v>
       </c>
       <c r="F32" s="3">
-        <v>51100</v>
+        <v>45700</v>
       </c>
       <c r="G32" s="3">
-        <v>9600</v>
+        <v>54100</v>
       </c>
       <c r="H32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>4300</v>
-      </c>
       <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-179600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>179400</v>
+        <v>51900</v>
       </c>
       <c r="E33" s="3">
-        <v>69100</v>
+        <v>190100</v>
       </c>
       <c r="F33" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="G33" s="3">
-        <v>28700</v>
+        <v>82600</v>
       </c>
       <c r="H33" s="3">
-        <v>162600</v>
+        <v>30400</v>
       </c>
       <c r="I33" s="3">
-        <v>99500</v>
+        <v>172300</v>
       </c>
       <c r="J33" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K33" s="3">
         <v>358100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>179400</v>
+        <v>51900</v>
       </c>
       <c r="E35" s="3">
-        <v>69100</v>
+        <v>190100</v>
       </c>
       <c r="F35" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="G35" s="3">
-        <v>28700</v>
+        <v>82600</v>
       </c>
       <c r="H35" s="3">
-        <v>162600</v>
+        <v>30400</v>
       </c>
       <c r="I35" s="3">
-        <v>99500</v>
+        <v>172300</v>
       </c>
       <c r="J35" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K35" s="3">
         <v>358100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1706,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>456000</v>
+        <v>509600</v>
       </c>
       <c r="E41" s="3">
-        <v>376200</v>
+        <v>483100</v>
       </c>
       <c r="F41" s="3">
-        <v>544400</v>
+        <v>398600</v>
       </c>
       <c r="G41" s="3">
-        <v>281700</v>
+        <v>576700</v>
       </c>
       <c r="H41" s="3">
-        <v>404600</v>
+        <v>298400</v>
       </c>
       <c r="I41" s="3">
-        <v>155100</v>
+        <v>428600</v>
       </c>
       <c r="J41" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K41" s="3">
         <v>118100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>366600</v>
+        <v>300500</v>
       </c>
       <c r="E42" s="3">
-        <v>267900</v>
+        <v>388400</v>
       </c>
       <c r="F42" s="3">
-        <v>45200</v>
+        <v>283800</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
+        <v>47900</v>
       </c>
       <c r="H42" s="3">
-        <v>115900</v>
+        <v>7400</v>
       </c>
       <c r="I42" s="3">
-        <v>138500</v>
+        <v>122800</v>
       </c>
       <c r="J42" s="3">
+        <v>146700</v>
+      </c>
+      <c r="K42" s="3">
         <v>87400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>140900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>858300</v>
+        <v>845600</v>
       </c>
       <c r="E43" s="3">
-        <v>869500</v>
+        <v>909200</v>
       </c>
       <c r="F43" s="3">
-        <v>763500</v>
+        <v>921100</v>
       </c>
       <c r="G43" s="3">
-        <v>828700</v>
+        <v>808800</v>
       </c>
       <c r="H43" s="3">
-        <v>885400</v>
+        <v>877900</v>
       </c>
       <c r="I43" s="3">
-        <v>741800</v>
+        <v>937900</v>
       </c>
       <c r="J43" s="3">
+        <v>785800</v>
+      </c>
+      <c r="K43" s="3">
         <v>661200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>670700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43700</v>
+        <v>56500</v>
       </c>
       <c r="E44" s="3">
-        <v>36600</v>
+        <v>46300</v>
       </c>
       <c r="F44" s="3">
-        <v>36100</v>
+        <v>38800</v>
       </c>
       <c r="G44" s="3">
-        <v>47600</v>
+        <v>38200</v>
       </c>
       <c r="H44" s="3">
-        <v>36000</v>
+        <v>50400</v>
       </c>
       <c r="I44" s="3">
-        <v>37400</v>
+        <v>38100</v>
       </c>
       <c r="J44" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K44" s="3">
         <v>37800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>119000</v>
+        <v>172600</v>
       </c>
       <c r="E45" s="3">
-        <v>149900</v>
+        <v>126100</v>
       </c>
       <c r="F45" s="3">
-        <v>91000</v>
+        <v>158800</v>
       </c>
       <c r="G45" s="3">
-        <v>107600</v>
+        <v>96400</v>
       </c>
       <c r="H45" s="3">
-        <v>55100</v>
+        <v>114000</v>
       </c>
       <c r="I45" s="3">
-        <v>115000</v>
+        <v>58400</v>
       </c>
       <c r="J45" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K45" s="3">
         <v>152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>206800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1843600</v>
+        <v>1884700</v>
       </c>
       <c r="E46" s="3">
-        <v>1700100</v>
+        <v>1953000</v>
       </c>
       <c r="F46" s="3">
-        <v>1480100</v>
+        <v>1801000</v>
       </c>
       <c r="G46" s="3">
-        <v>1272600</v>
+        <v>1568000</v>
       </c>
       <c r="H46" s="3">
-        <v>1497000</v>
+        <v>1348100</v>
       </c>
       <c r="I46" s="3">
-        <v>1187700</v>
+        <v>1585800</v>
       </c>
       <c r="J46" s="3">
+        <v>1258200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1056500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1229800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>401900</v>
+        <v>368500</v>
       </c>
       <c r="E47" s="3">
-        <v>373100</v>
+        <v>425800</v>
       </c>
       <c r="F47" s="3">
-        <v>597600</v>
+        <v>395200</v>
       </c>
       <c r="G47" s="3">
-        <v>598800</v>
+        <v>633000</v>
       </c>
       <c r="H47" s="3">
-        <v>584000</v>
+        <v>634400</v>
       </c>
       <c r="I47" s="3">
-        <v>742100</v>
+        <v>618600</v>
       </c>
       <c r="J47" s="3">
+        <v>786100</v>
+      </c>
+      <c r="K47" s="3">
         <v>766800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>294700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3205100</v>
+        <v>3459500</v>
       </c>
       <c r="E48" s="3">
-        <v>3073500</v>
+        <v>3395300</v>
       </c>
       <c r="F48" s="3">
-        <v>3068800</v>
+        <v>3255900</v>
       </c>
       <c r="G48" s="3">
-        <v>3165000</v>
+        <v>3250900</v>
       </c>
       <c r="H48" s="3">
-        <v>3118600</v>
+        <v>3352800</v>
       </c>
       <c r="I48" s="3">
-        <v>2954200</v>
+        <v>3303700</v>
       </c>
       <c r="J48" s="3">
+        <v>3129600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2907800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2970000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1598400</v>
+        <v>1654700</v>
       </c>
       <c r="E49" s="3">
-        <v>1595800</v>
+        <v>1693300</v>
       </c>
       <c r="F49" s="3">
-        <v>1640800</v>
+        <v>1690500</v>
       </c>
       <c r="G49" s="3">
-        <v>1689100</v>
+        <v>1738200</v>
       </c>
       <c r="H49" s="3">
-        <v>1712000</v>
+        <v>1789400</v>
       </c>
       <c r="I49" s="3">
-        <v>1743000</v>
+        <v>1813600</v>
       </c>
       <c r="J49" s="3">
+        <v>1846400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1791600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1947200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>326700</v>
+        <v>345400</v>
       </c>
       <c r="E52" s="3">
-        <v>303200</v>
+        <v>346100</v>
       </c>
       <c r="F52" s="3">
-        <v>265600</v>
+        <v>321200</v>
       </c>
       <c r="G52" s="3">
-        <v>268700</v>
+        <v>281400</v>
       </c>
       <c r="H52" s="3">
-        <v>233100</v>
+        <v>284600</v>
       </c>
       <c r="I52" s="3">
-        <v>262900</v>
+        <v>246900</v>
       </c>
       <c r="J52" s="3">
+        <v>278500</v>
+      </c>
+      <c r="K52" s="3">
         <v>276200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>448900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7375700</v>
+        <v>7712700</v>
       </c>
       <c r="E54" s="3">
-        <v>7045600</v>
+        <v>7813500</v>
       </c>
       <c r="F54" s="3">
-        <v>7052900</v>
+        <v>7463800</v>
       </c>
       <c r="G54" s="3">
-        <v>6994200</v>
+        <v>7471500</v>
       </c>
       <c r="H54" s="3">
-        <v>7144600</v>
+        <v>7409400</v>
       </c>
       <c r="I54" s="3">
-        <v>6889900</v>
+        <v>7568700</v>
       </c>
       <c r="J54" s="3">
+        <v>7298800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6798900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6890500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>554000</v>
+        <v>499200</v>
       </c>
       <c r="E57" s="3">
-        <v>385300</v>
+        <v>586900</v>
       </c>
       <c r="F57" s="3">
-        <v>366300</v>
+        <v>408200</v>
       </c>
       <c r="G57" s="3">
-        <v>466500</v>
+        <v>388100</v>
       </c>
       <c r="H57" s="3">
-        <v>694700</v>
+        <v>494200</v>
       </c>
       <c r="I57" s="3">
-        <v>517600</v>
+        <v>735900</v>
       </c>
       <c r="J57" s="3">
+        <v>548300</v>
+      </c>
+      <c r="K57" s="3">
         <v>512000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>707700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>485900</v>
+        <v>631800</v>
       </c>
       <c r="E58" s="3">
-        <v>493800</v>
+        <v>514700</v>
       </c>
       <c r="F58" s="3">
-        <v>461800</v>
+        <v>523100</v>
       </c>
       <c r="G58" s="3">
-        <v>360400</v>
+        <v>489200</v>
       </c>
       <c r="H58" s="3">
-        <v>399700</v>
+        <v>381800</v>
       </c>
       <c r="I58" s="3">
-        <v>408200</v>
+        <v>423400</v>
       </c>
       <c r="J58" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K58" s="3">
         <v>233000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>249900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>430100</v>
+        <v>351400</v>
       </c>
       <c r="E59" s="3">
-        <v>302000</v>
+        <v>455700</v>
       </c>
       <c r="F59" s="3">
-        <v>276600</v>
+        <v>319900</v>
       </c>
       <c r="G59" s="3">
-        <v>227900</v>
+        <v>293000</v>
       </c>
       <c r="H59" s="3">
-        <v>343000</v>
+        <v>241400</v>
       </c>
       <c r="I59" s="3">
-        <v>361900</v>
+        <v>363400</v>
       </c>
       <c r="J59" s="3">
+        <v>383300</v>
+      </c>
+      <c r="K59" s="3">
         <v>256100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>261700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1470000</v>
+        <v>1482500</v>
       </c>
       <c r="E60" s="3">
-        <v>1181100</v>
+        <v>1557300</v>
       </c>
       <c r="F60" s="3">
-        <v>1104700</v>
+        <v>1251200</v>
       </c>
       <c r="G60" s="3">
-        <v>1054800</v>
+        <v>1170200</v>
       </c>
       <c r="H60" s="3">
-        <v>1437400</v>
+        <v>1117400</v>
       </c>
       <c r="I60" s="3">
-        <v>1287600</v>
+        <v>1522700</v>
       </c>
       <c r="J60" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1001100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1219300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1413000</v>
+        <v>1420800</v>
       </c>
       <c r="E61" s="3">
-        <v>1358900</v>
+        <v>1496800</v>
       </c>
       <c r="F61" s="3">
-        <v>1471900</v>
+        <v>1439600</v>
       </c>
       <c r="G61" s="3">
-        <v>1521800</v>
+        <v>1559200</v>
       </c>
       <c r="H61" s="3">
-        <v>1337400</v>
+        <v>1612200</v>
       </c>
       <c r="I61" s="3">
-        <v>1315400</v>
+        <v>1416700</v>
       </c>
       <c r="J61" s="3">
+        <v>1393500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1461300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1503800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>387800</v>
+        <v>408200</v>
       </c>
       <c r="E62" s="3">
-        <v>388800</v>
+        <v>410800</v>
       </c>
       <c r="F62" s="3">
-        <v>430700</v>
+        <v>411900</v>
       </c>
       <c r="G62" s="3">
-        <v>418000</v>
+        <v>456300</v>
       </c>
       <c r="H62" s="3">
-        <v>397900</v>
+        <v>442800</v>
       </c>
       <c r="I62" s="3">
-        <v>433300</v>
+        <v>421500</v>
       </c>
       <c r="J62" s="3">
+        <v>459000</v>
+      </c>
+      <c r="K62" s="3">
         <v>451600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>440000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3270800</v>
+        <v>3311400</v>
       </c>
       <c r="E66" s="3">
-        <v>2928900</v>
+        <v>3464900</v>
       </c>
       <c r="F66" s="3">
-        <v>3007300</v>
+        <v>3102700</v>
       </c>
       <c r="G66" s="3">
-        <v>2994700</v>
+        <v>3185700</v>
       </c>
       <c r="H66" s="3">
-        <v>3172600</v>
+        <v>3172400</v>
       </c>
       <c r="I66" s="3">
-        <v>3036400</v>
+        <v>3360900</v>
       </c>
       <c r="J66" s="3">
+        <v>3216600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2914000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3163100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1657500</v>
+        <v>1808200</v>
       </c>
       <c r="E72" s="3">
-        <v>1668300</v>
+        <v>1755900</v>
       </c>
       <c r="F72" s="3">
-        <v>1942000</v>
+        <v>1767300</v>
       </c>
       <c r="G72" s="3">
-        <v>2187000</v>
+        <v>2057300</v>
       </c>
       <c r="H72" s="3">
-        <v>2158400</v>
+        <v>2316800</v>
       </c>
       <c r="I72" s="3">
-        <v>2039800</v>
+        <v>2286500</v>
       </c>
       <c r="J72" s="3">
+        <v>2160900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2071600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1811200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4105000</v>
+        <v>4401300</v>
       </c>
       <c r="E76" s="3">
-        <v>4116700</v>
+        <v>4348600</v>
       </c>
       <c r="F76" s="3">
-        <v>4045700</v>
+        <v>4361100</v>
       </c>
       <c r="G76" s="3">
-        <v>3999600</v>
+        <v>4285800</v>
       </c>
       <c r="H76" s="3">
-        <v>3972000</v>
+        <v>4237000</v>
       </c>
       <c r="I76" s="3">
-        <v>3853500</v>
+        <v>4207800</v>
       </c>
       <c r="J76" s="3">
+        <v>4082200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3884900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3727500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>179400</v>
+        <v>51900</v>
       </c>
       <c r="E81" s="3">
-        <v>69100</v>
+        <v>190100</v>
       </c>
       <c r="F81" s="3">
-        <v>78000</v>
+        <v>73200</v>
       </c>
       <c r="G81" s="3">
-        <v>28700</v>
+        <v>82600</v>
       </c>
       <c r="H81" s="3">
-        <v>162600</v>
+        <v>30400</v>
       </c>
       <c r="I81" s="3">
-        <v>99500</v>
+        <v>172300</v>
       </c>
       <c r="J81" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K81" s="3">
         <v>358100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>244100</v>
+        <v>267800</v>
       </c>
       <c r="E83" s="3">
-        <v>246200</v>
+        <v>258600</v>
       </c>
       <c r="F83" s="3">
-        <v>488400</v>
+        <v>260800</v>
       </c>
       <c r="G83" s="3">
-        <v>249400</v>
+        <v>517300</v>
       </c>
       <c r="H83" s="3">
-        <v>187700</v>
+        <v>264200</v>
       </c>
       <c r="I83" s="3">
-        <v>254400</v>
+        <v>198900</v>
       </c>
       <c r="J83" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K83" s="3">
         <v>229800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>249700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>654900</v>
+        <v>365700</v>
       </c>
       <c r="E89" s="3">
-        <v>387500</v>
+        <v>693800</v>
       </c>
       <c r="F89" s="3">
-        <v>493400</v>
+        <v>410500</v>
       </c>
       <c r="G89" s="3">
-        <v>86300</v>
+        <v>522700</v>
       </c>
       <c r="H89" s="3">
-        <v>638600</v>
+        <v>91500</v>
       </c>
       <c r="I89" s="3">
-        <v>372500</v>
+        <v>676500</v>
       </c>
       <c r="J89" s="3">
+        <v>394600</v>
+      </c>
+      <c r="K89" s="3">
         <v>187500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-259200</v>
+        <v>-248400</v>
       </c>
       <c r="E91" s="3">
-        <v>-150500</v>
+        <v>-274600</v>
       </c>
       <c r="F91" s="3">
-        <v>-279300</v>
+        <v>-159500</v>
       </c>
       <c r="G91" s="3">
-        <v>-160100</v>
+        <v>-295900</v>
       </c>
       <c r="H91" s="3">
-        <v>-236300</v>
+        <v>-169600</v>
       </c>
       <c r="I91" s="3">
-        <v>-163600</v>
+        <v>-250300</v>
       </c>
       <c r="J91" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-167300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-357800</v>
+        <v>-160300</v>
       </c>
       <c r="E94" s="3">
-        <v>-371300</v>
+        <v>-379000</v>
       </c>
       <c r="F94" s="3">
-        <v>-208200</v>
+        <v>-393400</v>
       </c>
       <c r="G94" s="3">
-        <v>-50200</v>
+        <v>-220600</v>
       </c>
       <c r="H94" s="3">
-        <v>-213700</v>
+        <v>-53200</v>
       </c>
       <c r="I94" s="3">
-        <v>-213700</v>
+        <v>-226300</v>
       </c>
       <c r="J94" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-121600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-114600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3446,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98400</v>
+        <v>-91300</v>
       </c>
       <c r="E96" s="3">
-        <v>-5200</v>
+        <v>-104200</v>
       </c>
       <c r="F96" s="3">
-        <v>-100600</v>
+        <v>-5500</v>
       </c>
       <c r="G96" s="3">
-        <v>-100400</v>
+        <v>-106600</v>
       </c>
       <c r="H96" s="3">
-        <v>-64500</v>
+        <v>-106400</v>
       </c>
       <c r="I96" s="3">
-        <v>-11100</v>
+        <v>-68300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-11800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-64200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-217400</v>
+        <v>-178900</v>
       </c>
       <c r="E100" s="3">
-        <v>-184200</v>
+        <v>-230300</v>
       </c>
       <c r="F100" s="3">
-        <v>-145400</v>
+        <v>-195200</v>
       </c>
       <c r="G100" s="3">
-        <v>-159000</v>
+        <v>-154000</v>
       </c>
       <c r="H100" s="3">
-        <v>-175400</v>
+        <v>-168500</v>
       </c>
       <c r="I100" s="3">
-        <v>-121800</v>
+        <v>-185900</v>
       </c>
       <c r="J100" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-109800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79800</v>
+        <v>26500</v>
       </c>
       <c r="E102" s="3">
-        <v>-168000</v>
+        <v>84500</v>
       </c>
       <c r="F102" s="3">
-        <v>139800</v>
+        <v>-178000</v>
       </c>
       <c r="G102" s="3">
-        <v>-122900</v>
+        <v>148100</v>
       </c>
       <c r="H102" s="3">
-        <v>249500</v>
+        <v>-130200</v>
       </c>
       <c r="I102" s="3">
-        <v>37000</v>
+        <v>264300</v>
       </c>
       <c r="J102" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-43900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>814100</v>
+        <v>814000</v>
       </c>
       <c r="E8" s="3">
-        <v>877500</v>
+        <v>801600</v>
       </c>
       <c r="F8" s="3">
-        <v>823000</v>
+        <v>864000</v>
       </c>
       <c r="G8" s="3">
-        <v>1538600</v>
+        <v>810400</v>
       </c>
       <c r="H8" s="3">
-        <v>790700</v>
+        <v>1515000</v>
       </c>
       <c r="I8" s="3">
-        <v>860400</v>
+        <v>778600</v>
       </c>
       <c r="J8" s="3">
+        <v>847100</v>
+      </c>
+      <c r="K8" s="3">
         <v>813600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>754800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>784200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>392600</v>
+        <v>498300</v>
       </c>
       <c r="E9" s="3">
-        <v>397100</v>
+        <v>493400</v>
       </c>
       <c r="F9" s="3">
-        <v>384800</v>
+        <v>391000</v>
       </c>
       <c r="G9" s="3">
-        <v>1068400</v>
+        <v>378800</v>
       </c>
       <c r="H9" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>362300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>307400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>366300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>329200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>366300</v>
+      </c>
+      <c r="N9" s="3">
         <v>367900</v>
       </c>
-      <c r="I9" s="3">
-        <v>312200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>366300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>329200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>366300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>367900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>421500</v>
+        <v>315700</v>
       </c>
       <c r="E10" s="3">
-        <v>480400</v>
+        <v>308100</v>
       </c>
       <c r="F10" s="3">
-        <v>438200</v>
+        <v>473000</v>
       </c>
       <c r="G10" s="3">
-        <v>470200</v>
+        <v>431500</v>
       </c>
       <c r="H10" s="3">
-        <v>422800</v>
+        <v>463000</v>
       </c>
       <c r="I10" s="3">
-        <v>548200</v>
+        <v>416300</v>
       </c>
       <c r="J10" s="3">
+        <v>539800</v>
+      </c>
+      <c r="K10" s="3">
         <v>447200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>425600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>417900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9400</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>9300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>36600</v>
-      </c>
       <c r="H14" s="3">
-        <v>12400</v>
+        <v>36000</v>
       </c>
       <c r="I14" s="3">
-        <v>10800</v>
+        <v>12200</v>
       </c>
       <c r="J14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41500</v>
+        <v>38800</v>
       </c>
       <c r="E15" s="3">
-        <v>42000</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>40800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>41300</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>46500</v>
-      </c>
       <c r="H15" s="3">
-        <v>46600</v>
+        <v>45800</v>
       </c>
       <c r="I15" s="3">
-        <v>44600</v>
+        <v>45800</v>
       </c>
       <c r="J15" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K15" s="3">
         <v>48900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>702900</v>
+        <v>691500</v>
       </c>
       <c r="E17" s="3">
-        <v>694700</v>
+        <v>692100</v>
       </c>
       <c r="F17" s="3">
-        <v>694900</v>
+        <v>684100</v>
       </c>
       <c r="G17" s="3">
-        <v>1321500</v>
+        <v>684200</v>
       </c>
       <c r="H17" s="3">
-        <v>694100</v>
+        <v>1301200</v>
       </c>
       <c r="I17" s="3">
-        <v>625800</v>
+        <v>683400</v>
       </c>
       <c r="J17" s="3">
+        <v>616100</v>
+      </c>
+      <c r="K17" s="3">
         <v>690200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>372700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111100</v>
+        <v>122500</v>
       </c>
       <c r="E18" s="3">
-        <v>182800</v>
+        <v>109400</v>
       </c>
       <c r="F18" s="3">
-        <v>128100</v>
+        <v>180000</v>
       </c>
       <c r="G18" s="3">
-        <v>217100</v>
+        <v>126100</v>
       </c>
       <c r="H18" s="3">
-        <v>96600</v>
+        <v>213800</v>
       </c>
       <c r="I18" s="3">
-        <v>234600</v>
+        <v>95100</v>
       </c>
       <c r="J18" s="3">
+        <v>231000</v>
+      </c>
+      <c r="K18" s="3">
         <v>123400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>382100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-45700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>179600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>374400</v>
+        <v>420300</v>
       </c>
       <c r="E21" s="3">
-        <v>469700</v>
+        <v>368600</v>
       </c>
       <c r="F21" s="3">
-        <v>343200</v>
+        <v>462500</v>
       </c>
       <c r="G21" s="3">
-        <v>680300</v>
+        <v>337900</v>
       </c>
       <c r="H21" s="3">
-        <v>350700</v>
+        <v>669900</v>
       </c>
       <c r="I21" s="3">
-        <v>434100</v>
+        <v>345300</v>
       </c>
       <c r="J21" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K21" s="3">
         <v>388300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>791500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>327300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37700</v>
+        <v>41500</v>
       </c>
       <c r="E22" s="3">
-        <v>36600</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>37100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>43300</v>
-      </c>
       <c r="H22" s="3">
-        <v>37600</v>
+        <v>42600</v>
       </c>
       <c r="I22" s="3">
-        <v>44800</v>
+        <v>37000</v>
       </c>
       <c r="J22" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K22" s="3">
         <v>45500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68900</v>
+        <v>115800</v>
       </c>
       <c r="E23" s="3">
-        <v>174500</v>
+        <v>67800</v>
       </c>
       <c r="F23" s="3">
-        <v>82400</v>
+        <v>171800</v>
       </c>
       <c r="G23" s="3">
-        <v>119700</v>
+        <v>81100</v>
       </c>
       <c r="H23" s="3">
-        <v>48900</v>
+        <v>117900</v>
       </c>
       <c r="I23" s="3">
-        <v>190400</v>
+        <v>48100</v>
       </c>
       <c r="J23" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K23" s="3">
         <v>73300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>521300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17000</v>
+        <v>-8300</v>
       </c>
       <c r="E24" s="3">
-        <v>-15600</v>
+        <v>16700</v>
       </c>
       <c r="F24" s="3">
-        <v>9200</v>
+        <v>-15400</v>
       </c>
       <c r="G24" s="3">
-        <v>37200</v>
+        <v>9100</v>
       </c>
       <c r="H24" s="3">
-        <v>18500</v>
+        <v>36600</v>
       </c>
       <c r="I24" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="J24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-32100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>163300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51900</v>
+        <v>124200</v>
       </c>
       <c r="E26" s="3">
-        <v>190100</v>
+        <v>51100</v>
       </c>
       <c r="F26" s="3">
-        <v>73200</v>
+        <v>187200</v>
       </c>
       <c r="G26" s="3">
-        <v>82600</v>
+        <v>72000</v>
       </c>
       <c r="H26" s="3">
-        <v>30400</v>
+        <v>81300</v>
       </c>
       <c r="I26" s="3">
-        <v>172300</v>
+        <v>29900</v>
       </c>
       <c r="J26" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K26" s="3">
         <v>105400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>358100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51900</v>
+        <v>124200</v>
       </c>
       <c r="E27" s="3">
-        <v>190100</v>
+        <v>51100</v>
       </c>
       <c r="F27" s="3">
-        <v>73200</v>
+        <v>187200</v>
       </c>
       <c r="G27" s="3">
-        <v>82600</v>
+        <v>72000</v>
       </c>
       <c r="H27" s="3">
-        <v>30400</v>
+        <v>81300</v>
       </c>
       <c r="I27" s="3">
-        <v>172300</v>
+        <v>29900</v>
       </c>
       <c r="J27" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K27" s="3">
         <v>105400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>358100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>54100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-179600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51900</v>
+        <v>124200</v>
       </c>
       <c r="E33" s="3">
-        <v>190100</v>
+        <v>51100</v>
       </c>
       <c r="F33" s="3">
-        <v>73200</v>
+        <v>187200</v>
       </c>
       <c r="G33" s="3">
-        <v>82600</v>
+        <v>72000</v>
       </c>
       <c r="H33" s="3">
-        <v>30400</v>
+        <v>81300</v>
       </c>
       <c r="I33" s="3">
-        <v>172300</v>
+        <v>29900</v>
       </c>
       <c r="J33" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K33" s="3">
         <v>105400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>358100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51900</v>
+        <v>124200</v>
       </c>
       <c r="E35" s="3">
-        <v>190100</v>
+        <v>51100</v>
       </c>
       <c r="F35" s="3">
-        <v>73200</v>
+        <v>187200</v>
       </c>
       <c r="G35" s="3">
-        <v>82600</v>
+        <v>72000</v>
       </c>
       <c r="H35" s="3">
-        <v>30400</v>
+        <v>81300</v>
       </c>
       <c r="I35" s="3">
-        <v>172300</v>
+        <v>29900</v>
       </c>
       <c r="J35" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K35" s="3">
         <v>105400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>358100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,323 +1793,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>509600</v>
+        <v>692500</v>
       </c>
       <c r="E41" s="3">
-        <v>483100</v>
+        <v>501700</v>
       </c>
       <c r="F41" s="3">
-        <v>398600</v>
+        <v>475700</v>
       </c>
       <c r="G41" s="3">
-        <v>576700</v>
+        <v>392400</v>
       </c>
       <c r="H41" s="3">
-        <v>298400</v>
+        <v>567800</v>
       </c>
       <c r="I41" s="3">
-        <v>428600</v>
+        <v>293800</v>
       </c>
       <c r="J41" s="3">
+        <v>422000</v>
+      </c>
+      <c r="K41" s="3">
         <v>164300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300500</v>
+        <v>623500</v>
       </c>
       <c r="E42" s="3">
-        <v>388400</v>
+        <v>295900</v>
       </c>
       <c r="F42" s="3">
-        <v>283800</v>
+        <v>382400</v>
       </c>
       <c r="G42" s="3">
-        <v>47900</v>
+        <v>279500</v>
       </c>
       <c r="H42" s="3">
-        <v>7400</v>
+        <v>47100</v>
       </c>
       <c r="I42" s="3">
-        <v>122800</v>
+        <v>7300</v>
       </c>
       <c r="J42" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K42" s="3">
         <v>146700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>140900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>845600</v>
+        <v>827400</v>
       </c>
       <c r="E43" s="3">
-        <v>909200</v>
+        <v>832600</v>
       </c>
       <c r="F43" s="3">
-        <v>921100</v>
+        <v>895200</v>
       </c>
       <c r="G43" s="3">
-        <v>808800</v>
+        <v>906900</v>
       </c>
       <c r="H43" s="3">
-        <v>877900</v>
+        <v>796400</v>
       </c>
       <c r="I43" s="3">
-        <v>937900</v>
+        <v>864400</v>
       </c>
       <c r="J43" s="3">
+        <v>923500</v>
+      </c>
+      <c r="K43" s="3">
         <v>785800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>661200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>670700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56500</v>
+        <v>41700</v>
       </c>
       <c r="E44" s="3">
-        <v>46300</v>
+        <v>55600</v>
       </c>
       <c r="F44" s="3">
-        <v>38800</v>
+        <v>45500</v>
       </c>
       <c r="G44" s="3">
         <v>38200</v>
       </c>
       <c r="H44" s="3">
-        <v>50400</v>
+        <v>37600</v>
       </c>
       <c r="I44" s="3">
-        <v>38100</v>
+        <v>49600</v>
       </c>
       <c r="J44" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K44" s="3">
         <v>39600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172600</v>
+        <v>162400</v>
       </c>
       <c r="E45" s="3">
-        <v>126100</v>
+        <v>169900</v>
       </c>
       <c r="F45" s="3">
-        <v>158800</v>
+        <v>124200</v>
       </c>
       <c r="G45" s="3">
-        <v>96400</v>
+        <v>156300</v>
       </c>
       <c r="H45" s="3">
-        <v>114000</v>
+        <v>94900</v>
       </c>
       <c r="I45" s="3">
-        <v>58400</v>
+        <v>112300</v>
       </c>
       <c r="J45" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K45" s="3">
         <v>121800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>206800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1884700</v>
+        <v>2347400</v>
       </c>
       <c r="E46" s="3">
-        <v>1953000</v>
+        <v>1855800</v>
       </c>
       <c r="F46" s="3">
-        <v>1801000</v>
+        <v>1923000</v>
       </c>
       <c r="G46" s="3">
-        <v>1568000</v>
+        <v>1773300</v>
       </c>
       <c r="H46" s="3">
-        <v>1348100</v>
+        <v>1543900</v>
       </c>
       <c r="I46" s="3">
-        <v>1585800</v>
+        <v>1327400</v>
       </c>
       <c r="J46" s="3">
+        <v>1561500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1258200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1056500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1229800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>368500</v>
+        <v>318900</v>
       </c>
       <c r="E47" s="3">
-        <v>425800</v>
+        <v>362800</v>
       </c>
       <c r="F47" s="3">
-        <v>395200</v>
+        <v>419200</v>
       </c>
       <c r="G47" s="3">
-        <v>633000</v>
+        <v>389200</v>
       </c>
       <c r="H47" s="3">
-        <v>634400</v>
+        <v>623300</v>
       </c>
       <c r="I47" s="3">
-        <v>618600</v>
+        <v>624600</v>
       </c>
       <c r="J47" s="3">
+        <v>609100</v>
+      </c>
+      <c r="K47" s="3">
         <v>786100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>766800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>294700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3459500</v>
+        <v>3218000</v>
       </c>
       <c r="E48" s="3">
-        <v>3395300</v>
+        <v>3406400</v>
       </c>
       <c r="F48" s="3">
-        <v>3255900</v>
+        <v>3343200</v>
       </c>
       <c r="G48" s="3">
-        <v>3250900</v>
+        <v>3205900</v>
       </c>
       <c r="H48" s="3">
-        <v>3352800</v>
+        <v>3201000</v>
       </c>
       <c r="I48" s="3">
-        <v>3303700</v>
+        <v>3301400</v>
       </c>
       <c r="J48" s="3">
+        <v>3253000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3129600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2907800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2970000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1654700</v>
+        <v>1378200</v>
       </c>
       <c r="E49" s="3">
-        <v>1693300</v>
+        <v>1629300</v>
       </c>
       <c r="F49" s="3">
-        <v>1690500</v>
+        <v>1667300</v>
       </c>
       <c r="G49" s="3">
-        <v>1738200</v>
+        <v>1664600</v>
       </c>
       <c r="H49" s="3">
-        <v>1789400</v>
+        <v>1711500</v>
       </c>
       <c r="I49" s="3">
-        <v>1813600</v>
+        <v>1761900</v>
       </c>
       <c r="J49" s="3">
+        <v>1785700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1846400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1791600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1947200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>345400</v>
+        <v>838100</v>
       </c>
       <c r="E52" s="3">
-        <v>346100</v>
+        <v>340100</v>
       </c>
       <c r="F52" s="3">
-        <v>321200</v>
+        <v>340800</v>
       </c>
       <c r="G52" s="3">
-        <v>281400</v>
+        <v>316300</v>
       </c>
       <c r="H52" s="3">
-        <v>284600</v>
+        <v>277100</v>
       </c>
       <c r="I52" s="3">
-        <v>246900</v>
+        <v>280300</v>
       </c>
       <c r="J52" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K52" s="3">
         <v>278500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>276200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>448900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7712700</v>
+        <v>8100500</v>
       </c>
       <c r="E54" s="3">
-        <v>7813500</v>
+        <v>7594300</v>
       </c>
       <c r="F54" s="3">
-        <v>7463800</v>
+        <v>7693600</v>
       </c>
       <c r="G54" s="3">
-        <v>7471500</v>
+        <v>7349200</v>
       </c>
       <c r="H54" s="3">
-        <v>7409400</v>
+        <v>7356800</v>
       </c>
       <c r="I54" s="3">
-        <v>7568700</v>
+        <v>7295600</v>
       </c>
       <c r="J54" s="3">
+        <v>7452400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7298800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6798900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6890500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>499200</v>
+        <v>478400</v>
       </c>
       <c r="E57" s="3">
-        <v>586900</v>
+        <v>491500</v>
       </c>
       <c r="F57" s="3">
-        <v>408200</v>
+        <v>577900</v>
       </c>
       <c r="G57" s="3">
-        <v>388100</v>
+        <v>401900</v>
       </c>
       <c r="H57" s="3">
-        <v>494200</v>
+        <v>382100</v>
       </c>
       <c r="I57" s="3">
-        <v>735900</v>
+        <v>486600</v>
       </c>
       <c r="J57" s="3">
+        <v>724600</v>
+      </c>
+      <c r="K57" s="3">
         <v>548300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>512000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>707700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>631800</v>
+        <v>486100</v>
       </c>
       <c r="E58" s="3">
-        <v>514700</v>
+        <v>622100</v>
       </c>
       <c r="F58" s="3">
-        <v>523100</v>
+        <v>506800</v>
       </c>
       <c r="G58" s="3">
-        <v>489200</v>
+        <v>515100</v>
       </c>
       <c r="H58" s="3">
-        <v>381800</v>
+        <v>481700</v>
       </c>
       <c r="I58" s="3">
-        <v>423400</v>
+        <v>375900</v>
       </c>
       <c r="J58" s="3">
+        <v>416900</v>
+      </c>
+      <c r="K58" s="3">
         <v>432400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>233000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>249900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>351400</v>
+        <v>440800</v>
       </c>
       <c r="E59" s="3">
-        <v>455700</v>
+        <v>346000</v>
       </c>
       <c r="F59" s="3">
-        <v>319900</v>
+        <v>448700</v>
       </c>
       <c r="G59" s="3">
-        <v>293000</v>
+        <v>315000</v>
       </c>
       <c r="H59" s="3">
-        <v>241400</v>
+        <v>288500</v>
       </c>
       <c r="I59" s="3">
-        <v>363400</v>
+        <v>237700</v>
       </c>
       <c r="J59" s="3">
+        <v>357800</v>
+      </c>
+      <c r="K59" s="3">
         <v>383300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>256100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>261700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1482500</v>
+        <v>1405300</v>
       </c>
       <c r="E60" s="3">
-        <v>1557300</v>
+        <v>1459700</v>
       </c>
       <c r="F60" s="3">
-        <v>1251200</v>
+        <v>1533400</v>
       </c>
       <c r="G60" s="3">
-        <v>1170200</v>
+        <v>1232000</v>
       </c>
       <c r="H60" s="3">
-        <v>1117400</v>
+        <v>1152300</v>
       </c>
       <c r="I60" s="3">
-        <v>1522700</v>
+        <v>1100300</v>
       </c>
       <c r="J60" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1364000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1001100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1219300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1420800</v>
+        <v>1850400</v>
       </c>
       <c r="E61" s="3">
-        <v>1496800</v>
+        <v>1399000</v>
       </c>
       <c r="F61" s="3">
-        <v>1439600</v>
+        <v>1473900</v>
       </c>
       <c r="G61" s="3">
-        <v>1559200</v>
+        <v>1417500</v>
       </c>
       <c r="H61" s="3">
-        <v>1612200</v>
+        <v>1535300</v>
       </c>
       <c r="I61" s="3">
-        <v>1416700</v>
+        <v>1587400</v>
       </c>
       <c r="J61" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1393500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1461300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1503800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408200</v>
+        <v>453700</v>
       </c>
       <c r="E62" s="3">
-        <v>410800</v>
+        <v>401900</v>
       </c>
       <c r="F62" s="3">
-        <v>411900</v>
+        <v>404500</v>
       </c>
       <c r="G62" s="3">
-        <v>456300</v>
+        <v>405600</v>
       </c>
       <c r="H62" s="3">
-        <v>442800</v>
+        <v>449300</v>
       </c>
       <c r="I62" s="3">
-        <v>421500</v>
+        <v>436000</v>
       </c>
       <c r="J62" s="3">
+        <v>415000</v>
+      </c>
+      <c r="K62" s="3">
         <v>459000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>451600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>440000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3311400</v>
+        <v>3709400</v>
       </c>
       <c r="E66" s="3">
-        <v>3464900</v>
+        <v>3260600</v>
       </c>
       <c r="F66" s="3">
-        <v>3102700</v>
+        <v>3411700</v>
       </c>
       <c r="G66" s="3">
-        <v>3185700</v>
+        <v>3055100</v>
       </c>
       <c r="H66" s="3">
-        <v>3172400</v>
+        <v>3136800</v>
       </c>
       <c r="I66" s="3">
-        <v>3360900</v>
+        <v>3123700</v>
       </c>
       <c r="J66" s="3">
+        <v>3309300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3216600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2914000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3163100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1808200</v>
+        <v>1841100</v>
       </c>
       <c r="E72" s="3">
-        <v>1755900</v>
+        <v>1780400</v>
       </c>
       <c r="F72" s="3">
-        <v>1767300</v>
+        <v>1729000</v>
       </c>
       <c r="G72" s="3">
-        <v>2057300</v>
+        <v>1740200</v>
       </c>
       <c r="H72" s="3">
-        <v>2316800</v>
+        <v>2025700</v>
       </c>
       <c r="I72" s="3">
-        <v>2286500</v>
+        <v>2281300</v>
       </c>
       <c r="J72" s="3">
+        <v>2251400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2160900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2071600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1811200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4401300</v>
+        <v>4391100</v>
       </c>
       <c r="E76" s="3">
-        <v>4348600</v>
+        <v>4333700</v>
       </c>
       <c r="F76" s="3">
-        <v>4361100</v>
+        <v>4281900</v>
       </c>
       <c r="G76" s="3">
-        <v>4285800</v>
+        <v>4294100</v>
       </c>
       <c r="H76" s="3">
-        <v>4237000</v>
+        <v>4220000</v>
       </c>
       <c r="I76" s="3">
-        <v>4207800</v>
+        <v>4171900</v>
       </c>
       <c r="J76" s="3">
+        <v>4143200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4082200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3884900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3727500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51900</v>
+        <v>124200</v>
       </c>
       <c r="E81" s="3">
-        <v>190100</v>
+        <v>51100</v>
       </c>
       <c r="F81" s="3">
-        <v>73200</v>
+        <v>187200</v>
       </c>
       <c r="G81" s="3">
-        <v>82600</v>
+        <v>72000</v>
       </c>
       <c r="H81" s="3">
-        <v>30400</v>
+        <v>81300</v>
       </c>
       <c r="I81" s="3">
-        <v>172300</v>
+        <v>29900</v>
       </c>
       <c r="J81" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K81" s="3">
         <v>105400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>358100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>267800</v>
+        <v>263000</v>
       </c>
       <c r="E83" s="3">
-        <v>258600</v>
+        <v>263700</v>
       </c>
       <c r="F83" s="3">
-        <v>260800</v>
+        <v>254700</v>
       </c>
       <c r="G83" s="3">
-        <v>517300</v>
+        <v>256800</v>
       </c>
       <c r="H83" s="3">
-        <v>264200</v>
+        <v>509400</v>
       </c>
       <c r="I83" s="3">
-        <v>198900</v>
+        <v>260200</v>
       </c>
       <c r="J83" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K83" s="3">
         <v>269500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>229800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>249700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>365700</v>
+        <v>412300</v>
       </c>
       <c r="E89" s="3">
-        <v>693800</v>
+        <v>360100</v>
       </c>
       <c r="F89" s="3">
-        <v>410500</v>
+        <v>683100</v>
       </c>
       <c r="G89" s="3">
-        <v>522700</v>
+        <v>404200</v>
       </c>
       <c r="H89" s="3">
-        <v>91500</v>
+        <v>514700</v>
       </c>
       <c r="I89" s="3">
-        <v>676500</v>
+        <v>90100</v>
       </c>
       <c r="J89" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K89" s="3">
         <v>394600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>187500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248400</v>
+        <v>-167300</v>
       </c>
       <c r="E91" s="3">
-        <v>-274600</v>
+        <v>-244600</v>
       </c>
       <c r="F91" s="3">
-        <v>-159500</v>
+        <v>-270400</v>
       </c>
       <c r="G91" s="3">
-        <v>-295900</v>
+        <v>-157000</v>
       </c>
       <c r="H91" s="3">
-        <v>-169600</v>
+        <v>-291300</v>
       </c>
       <c r="I91" s="3">
-        <v>-250300</v>
+        <v>-167000</v>
       </c>
       <c r="J91" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-173300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-167300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-121700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-160300</v>
+        <v>-494600</v>
       </c>
       <c r="E94" s="3">
-        <v>-379000</v>
+        <v>-157800</v>
       </c>
       <c r="F94" s="3">
-        <v>-393400</v>
+        <v>-373200</v>
       </c>
       <c r="G94" s="3">
-        <v>-220600</v>
+        <v>-387300</v>
       </c>
       <c r="H94" s="3">
-        <v>-53200</v>
+        <v>-217200</v>
       </c>
       <c r="I94" s="3">
-        <v>-226300</v>
+        <v>-52300</v>
       </c>
       <c r="J94" s="3">
+        <v>-222900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-226400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-114600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-91300</v>
+        <v>-8800</v>
       </c>
       <c r="E96" s="3">
-        <v>-104200</v>
+        <v>-89900</v>
       </c>
       <c r="F96" s="3">
-        <v>-5500</v>
+        <v>-102600</v>
       </c>
       <c r="G96" s="3">
-        <v>-106600</v>
+        <v>-5400</v>
       </c>
       <c r="H96" s="3">
-        <v>-106400</v>
+        <v>-105000</v>
       </c>
       <c r="I96" s="3">
-        <v>-68300</v>
+        <v>-104800</v>
       </c>
       <c r="J96" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-64200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-178900</v>
+        <v>273000</v>
       </c>
       <c r="E100" s="3">
-        <v>-230300</v>
+        <v>-176200</v>
       </c>
       <c r="F100" s="3">
-        <v>-195200</v>
+        <v>-226700</v>
       </c>
       <c r="G100" s="3">
-        <v>-154000</v>
+        <v>-192200</v>
       </c>
       <c r="H100" s="3">
-        <v>-168500</v>
+        <v>-151700</v>
       </c>
       <c r="I100" s="3">
-        <v>-185900</v>
+        <v>-165900</v>
       </c>
       <c r="J100" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-129100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26500</v>
+        <v>190700</v>
       </c>
       <c r="E102" s="3">
-        <v>84500</v>
+        <v>26100</v>
       </c>
       <c r="F102" s="3">
-        <v>-178000</v>
+        <v>83200</v>
       </c>
       <c r="G102" s="3">
-        <v>148100</v>
+        <v>-175300</v>
       </c>
       <c r="H102" s="3">
-        <v>-130200</v>
+        <v>145800</v>
       </c>
       <c r="I102" s="3">
-        <v>264300</v>
+        <v>-128200</v>
       </c>
       <c r="J102" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K102" s="3">
         <v>39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>814000</v>
+        <v>805400</v>
       </c>
       <c r="E8" s="3">
-        <v>801600</v>
+        <v>786700</v>
       </c>
       <c r="F8" s="3">
-        <v>864000</v>
+        <v>774700</v>
       </c>
       <c r="G8" s="3">
-        <v>810400</v>
+        <v>835100</v>
       </c>
       <c r="H8" s="3">
-        <v>1515000</v>
+        <v>783200</v>
       </c>
       <c r="I8" s="3">
-        <v>778600</v>
+        <v>1464300</v>
       </c>
       <c r="J8" s="3">
+        <v>752500</v>
+      </c>
+      <c r="K8" s="3">
         <v>847100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>813600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>754800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>784200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>498300</v>
+        <v>484100</v>
       </c>
       <c r="E9" s="3">
-        <v>493400</v>
+        <v>481600</v>
       </c>
       <c r="F9" s="3">
-        <v>391000</v>
+        <v>476900</v>
       </c>
       <c r="G9" s="3">
-        <v>378800</v>
+        <v>377900</v>
       </c>
       <c r="H9" s="3">
-        <v>1052000</v>
+        <v>366200</v>
       </c>
       <c r="I9" s="3">
-        <v>362300</v>
+        <v>1016800</v>
       </c>
       <c r="J9" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K9" s="3">
         <v>307400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>366300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>329200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>366300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>315700</v>
+        <v>321300</v>
       </c>
       <c r="E10" s="3">
-        <v>308100</v>
+        <v>305100</v>
       </c>
       <c r="F10" s="3">
-        <v>473000</v>
+        <v>297800</v>
       </c>
       <c r="G10" s="3">
-        <v>431500</v>
+        <v>457200</v>
       </c>
       <c r="H10" s="3">
-        <v>463000</v>
+        <v>417100</v>
       </c>
       <c r="I10" s="3">
-        <v>416300</v>
+        <v>447500</v>
       </c>
       <c r="J10" s="3">
+        <v>402400</v>
+      </c>
+      <c r="K10" s="3">
         <v>539800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>447200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>425600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>417900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +947,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>12800</v>
       </c>
       <c r="F14" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>9000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>36000</v>
-      </c>
       <c r="I14" s="3">
-        <v>12200</v>
+        <v>34800</v>
       </c>
       <c r="J14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38800</v>
+        <v>37400</v>
       </c>
       <c r="E15" s="3">
-        <v>40800</v>
+        <v>37500</v>
       </c>
       <c r="F15" s="3">
-        <v>41300</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>39500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>39900</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>45800</v>
-      </c>
       <c r="I15" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="J15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K15" s="3">
         <v>43900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>44800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>691500</v>
+        <v>670600</v>
       </c>
       <c r="E17" s="3">
-        <v>692100</v>
+        <v>668300</v>
       </c>
       <c r="F17" s="3">
-        <v>684100</v>
+        <v>669000</v>
       </c>
       <c r="G17" s="3">
-        <v>684200</v>
+        <v>661200</v>
       </c>
       <c r="H17" s="3">
-        <v>1301200</v>
+        <v>661300</v>
       </c>
       <c r="I17" s="3">
-        <v>683400</v>
+        <v>1257600</v>
       </c>
       <c r="J17" s="3">
+        <v>660600</v>
+      </c>
+      <c r="K17" s="3">
         <v>616100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>690200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>372700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>122500</v>
+        <v>134800</v>
       </c>
       <c r="E18" s="3">
-        <v>109400</v>
+        <v>118400</v>
       </c>
       <c r="F18" s="3">
-        <v>180000</v>
+        <v>105800</v>
       </c>
       <c r="G18" s="3">
-        <v>126100</v>
+        <v>173900</v>
       </c>
       <c r="H18" s="3">
-        <v>213800</v>
+        <v>121900</v>
       </c>
       <c r="I18" s="3">
-        <v>95100</v>
+        <v>206700</v>
       </c>
       <c r="J18" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K18" s="3">
         <v>231000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>382100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34800</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>33600</v>
       </c>
       <c r="F20" s="3">
-        <v>27900</v>
+        <v>-4400</v>
       </c>
       <c r="G20" s="3">
-        <v>-45000</v>
+        <v>26900</v>
       </c>
       <c r="H20" s="3">
-        <v>-53300</v>
+        <v>-43500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10000</v>
+        <v>-51500</v>
       </c>
       <c r="J20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>179600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>420300</v>
+        <v>390200</v>
       </c>
       <c r="E21" s="3">
-        <v>368600</v>
+        <v>406300</v>
       </c>
       <c r="F21" s="3">
-        <v>462500</v>
+        <v>356300</v>
       </c>
       <c r="G21" s="3">
-        <v>337900</v>
+        <v>447000</v>
       </c>
       <c r="H21" s="3">
-        <v>669900</v>
+        <v>326600</v>
       </c>
       <c r="I21" s="3">
-        <v>345300</v>
+        <v>647500</v>
       </c>
       <c r="J21" s="3">
+        <v>333700</v>
+      </c>
+      <c r="K21" s="3">
         <v>427400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>388300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>791500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>327300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="E22" s="3">
-        <v>37100</v>
+        <v>40100</v>
       </c>
       <c r="F22" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>35800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>34800</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>42600</v>
-      </c>
       <c r="I22" s="3">
-        <v>37000</v>
+        <v>41200</v>
       </c>
       <c r="J22" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K22" s="3">
         <v>44100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>115800</v>
+        <v>97100</v>
       </c>
       <c r="E23" s="3">
-        <v>67800</v>
+        <v>111900</v>
       </c>
       <c r="F23" s="3">
-        <v>171800</v>
+        <v>65600</v>
       </c>
       <c r="G23" s="3">
-        <v>81100</v>
+        <v>166000</v>
       </c>
       <c r="H23" s="3">
-        <v>117900</v>
+        <v>78400</v>
       </c>
       <c r="I23" s="3">
-        <v>48100</v>
+        <v>114000</v>
       </c>
       <c r="J23" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K23" s="3">
         <v>187500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>521300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8300</v>
+        <v>-80100</v>
       </c>
       <c r="E24" s="3">
-        <v>16700</v>
+        <v>-8100</v>
       </c>
       <c r="F24" s="3">
-        <v>-15400</v>
+        <v>16100</v>
       </c>
       <c r="G24" s="3">
-        <v>9100</v>
+        <v>-14900</v>
       </c>
       <c r="H24" s="3">
-        <v>36600</v>
+        <v>8800</v>
       </c>
       <c r="I24" s="3">
-        <v>18200</v>
+        <v>35400</v>
       </c>
       <c r="J24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K24" s="3">
         <v>17800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>163300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124200</v>
+        <v>177200</v>
       </c>
       <c r="E26" s="3">
-        <v>51100</v>
+        <v>120000</v>
       </c>
       <c r="F26" s="3">
-        <v>187200</v>
+        <v>49400</v>
       </c>
       <c r="G26" s="3">
-        <v>72000</v>
+        <v>180900</v>
       </c>
       <c r="H26" s="3">
-        <v>81300</v>
+        <v>69600</v>
       </c>
       <c r="I26" s="3">
-        <v>29900</v>
+        <v>78600</v>
       </c>
       <c r="J26" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K26" s="3">
         <v>169600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>358100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>124200</v>
+        <v>177200</v>
       </c>
       <c r="E27" s="3">
-        <v>51100</v>
+        <v>120000</v>
       </c>
       <c r="F27" s="3">
-        <v>187200</v>
+        <v>49400</v>
       </c>
       <c r="G27" s="3">
-        <v>72000</v>
+        <v>180900</v>
       </c>
       <c r="H27" s="3">
-        <v>81300</v>
+        <v>69600</v>
       </c>
       <c r="I27" s="3">
-        <v>29900</v>
+        <v>78600</v>
       </c>
       <c r="J27" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K27" s="3">
         <v>169600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>105400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>358100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34800</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>-33600</v>
       </c>
       <c r="F32" s="3">
-        <v>-27900</v>
+        <v>4400</v>
       </c>
       <c r="G32" s="3">
-        <v>45000</v>
+        <v>-26900</v>
       </c>
       <c r="H32" s="3">
-        <v>53300</v>
+        <v>43500</v>
       </c>
       <c r="I32" s="3">
-        <v>10000</v>
+        <v>51500</v>
       </c>
       <c r="J32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-179600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>124200</v>
+        <v>177200</v>
       </c>
       <c r="E33" s="3">
-        <v>51100</v>
+        <v>120000</v>
       </c>
       <c r="F33" s="3">
-        <v>187200</v>
+        <v>49400</v>
       </c>
       <c r="G33" s="3">
-        <v>72000</v>
+        <v>180900</v>
       </c>
       <c r="H33" s="3">
-        <v>81300</v>
+        <v>69600</v>
       </c>
       <c r="I33" s="3">
-        <v>29900</v>
+        <v>78600</v>
       </c>
       <c r="J33" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K33" s="3">
         <v>169600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>105400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>358100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>124200</v>
+        <v>177200</v>
       </c>
       <c r="E35" s="3">
-        <v>51100</v>
+        <v>120000</v>
       </c>
       <c r="F35" s="3">
-        <v>187200</v>
+        <v>49400</v>
       </c>
       <c r="G35" s="3">
-        <v>72000</v>
+        <v>180900</v>
       </c>
       <c r="H35" s="3">
-        <v>81300</v>
+        <v>69600</v>
       </c>
       <c r="I35" s="3">
-        <v>29900</v>
+        <v>78600</v>
       </c>
       <c r="J35" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K35" s="3">
         <v>169600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>105400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>358100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1880,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>692500</v>
+        <v>726100</v>
       </c>
       <c r="E41" s="3">
-        <v>501700</v>
+        <v>669300</v>
       </c>
       <c r="F41" s="3">
-        <v>475700</v>
+        <v>485000</v>
       </c>
       <c r="G41" s="3">
-        <v>392400</v>
+        <v>459700</v>
       </c>
       <c r="H41" s="3">
-        <v>567800</v>
+        <v>379300</v>
       </c>
       <c r="I41" s="3">
-        <v>293800</v>
+        <v>548800</v>
       </c>
       <c r="J41" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K41" s="3">
         <v>422000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>164300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>623500</v>
+        <v>590000</v>
       </c>
       <c r="E42" s="3">
-        <v>295900</v>
+        <v>602600</v>
       </c>
       <c r="F42" s="3">
-        <v>382400</v>
+        <v>286000</v>
       </c>
       <c r="G42" s="3">
-        <v>279500</v>
+        <v>369600</v>
       </c>
       <c r="H42" s="3">
-        <v>47100</v>
+        <v>270100</v>
       </c>
       <c r="I42" s="3">
-        <v>7300</v>
+        <v>45600</v>
       </c>
       <c r="J42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K42" s="3">
         <v>120900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>146700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>140900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>827400</v>
+        <v>776400</v>
       </c>
       <c r="E43" s="3">
-        <v>832600</v>
+        <v>799700</v>
       </c>
       <c r="F43" s="3">
-        <v>895200</v>
+        <v>804800</v>
       </c>
       <c r="G43" s="3">
-        <v>906900</v>
+        <v>865300</v>
       </c>
       <c r="H43" s="3">
-        <v>796400</v>
+        <v>876600</v>
       </c>
       <c r="I43" s="3">
-        <v>864400</v>
+        <v>769700</v>
       </c>
       <c r="J43" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K43" s="3">
         <v>923500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>785800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>661200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>670700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="E44" s="3">
-        <v>55600</v>
+        <v>40300</v>
       </c>
       <c r="F44" s="3">
-        <v>45500</v>
+        <v>53700</v>
       </c>
       <c r="G44" s="3">
-        <v>38200</v>
+        <v>44000</v>
       </c>
       <c r="H44" s="3">
-        <v>37600</v>
+        <v>36900</v>
       </c>
       <c r="I44" s="3">
-        <v>49600</v>
+        <v>36400</v>
       </c>
       <c r="J44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K44" s="3">
         <v>37500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162400</v>
+        <v>117600</v>
       </c>
       <c r="E45" s="3">
-        <v>169900</v>
+        <v>156900</v>
       </c>
       <c r="F45" s="3">
-        <v>124200</v>
+        <v>164300</v>
       </c>
       <c r="G45" s="3">
-        <v>156300</v>
+        <v>120000</v>
       </c>
       <c r="H45" s="3">
-        <v>94900</v>
+        <v>151100</v>
       </c>
       <c r="I45" s="3">
-        <v>112300</v>
+        <v>91800</v>
       </c>
       <c r="J45" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K45" s="3">
         <v>57500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>121800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>152000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>206800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2347400</v>
+        <v>2251300</v>
       </c>
       <c r="E46" s="3">
-        <v>1855800</v>
+        <v>2268900</v>
       </c>
       <c r="F46" s="3">
-        <v>1923000</v>
+        <v>1793700</v>
       </c>
       <c r="G46" s="3">
-        <v>1773300</v>
+        <v>1858700</v>
       </c>
       <c r="H46" s="3">
-        <v>1543900</v>
+        <v>1714000</v>
       </c>
       <c r="I46" s="3">
-        <v>1327400</v>
+        <v>1492300</v>
       </c>
       <c r="J46" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1561500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1258200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1056500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1229800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>318900</v>
+        <v>364800</v>
       </c>
       <c r="E47" s="3">
-        <v>362800</v>
+        <v>308200</v>
       </c>
       <c r="F47" s="3">
-        <v>419200</v>
+        <v>350700</v>
       </c>
       <c r="G47" s="3">
-        <v>389200</v>
+        <v>405200</v>
       </c>
       <c r="H47" s="3">
-        <v>623300</v>
+        <v>376100</v>
       </c>
       <c r="I47" s="3">
-        <v>624600</v>
+        <v>602500</v>
       </c>
       <c r="J47" s="3">
+        <v>603700</v>
+      </c>
+      <c r="K47" s="3">
         <v>609100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>786100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>766800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>294700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3218000</v>
+        <v>3115700</v>
       </c>
       <c r="E48" s="3">
-        <v>3406400</v>
+        <v>3110400</v>
       </c>
       <c r="F48" s="3">
-        <v>3343200</v>
+        <v>3292400</v>
       </c>
       <c r="G48" s="3">
-        <v>3205900</v>
+        <v>3231300</v>
       </c>
       <c r="H48" s="3">
-        <v>3201000</v>
+        <v>3098600</v>
       </c>
       <c r="I48" s="3">
-        <v>3301400</v>
+        <v>3093900</v>
       </c>
       <c r="J48" s="3">
+        <v>3190900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3253000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3129600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2907800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2970000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1378200</v>
+        <v>1293400</v>
       </c>
       <c r="E49" s="3">
-        <v>1629300</v>
+        <v>1332000</v>
       </c>
       <c r="F49" s="3">
-        <v>1667300</v>
+        <v>1574700</v>
       </c>
       <c r="G49" s="3">
-        <v>1664600</v>
+        <v>1611500</v>
       </c>
       <c r="H49" s="3">
-        <v>1711500</v>
+        <v>1608900</v>
       </c>
       <c r="I49" s="3">
-        <v>1761900</v>
+        <v>1654200</v>
       </c>
       <c r="J49" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1785700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1846400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1791600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1947200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>838100</v>
+        <v>825800</v>
       </c>
       <c r="E52" s="3">
-        <v>340100</v>
+        <v>810000</v>
       </c>
       <c r="F52" s="3">
-        <v>340800</v>
+        <v>328700</v>
       </c>
       <c r="G52" s="3">
-        <v>316300</v>
+        <v>329400</v>
       </c>
       <c r="H52" s="3">
-        <v>277100</v>
+        <v>305700</v>
       </c>
       <c r="I52" s="3">
-        <v>280300</v>
+        <v>267800</v>
       </c>
       <c r="J52" s="3">
+        <v>270900</v>
+      </c>
+      <c r="K52" s="3">
         <v>243100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>278500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>276200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>448900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8100500</v>
+        <v>7851000</v>
       </c>
       <c r="E54" s="3">
-        <v>7594300</v>
+        <v>7829500</v>
       </c>
       <c r="F54" s="3">
-        <v>7693600</v>
+        <v>7340200</v>
       </c>
       <c r="G54" s="3">
-        <v>7349200</v>
+        <v>7436100</v>
       </c>
       <c r="H54" s="3">
-        <v>7356800</v>
+        <v>7103300</v>
       </c>
       <c r="I54" s="3">
-        <v>7295600</v>
+        <v>7110700</v>
       </c>
       <c r="J54" s="3">
+        <v>7051500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7452400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7298800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6798900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6890500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>478400</v>
+        <v>473700</v>
       </c>
       <c r="E57" s="3">
-        <v>491500</v>
+        <v>462400</v>
       </c>
       <c r="F57" s="3">
-        <v>577900</v>
+        <v>475100</v>
       </c>
       <c r="G57" s="3">
-        <v>401900</v>
+        <v>558500</v>
       </c>
       <c r="H57" s="3">
-        <v>382100</v>
+        <v>388500</v>
       </c>
       <c r="I57" s="3">
-        <v>486600</v>
+        <v>369300</v>
       </c>
       <c r="J57" s="3">
+        <v>470400</v>
+      </c>
+      <c r="K57" s="3">
         <v>724600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>548300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>512000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>707700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>486100</v>
+        <v>318200</v>
       </c>
       <c r="E58" s="3">
-        <v>622100</v>
+        <v>469900</v>
       </c>
       <c r="F58" s="3">
-        <v>506800</v>
+        <v>601300</v>
       </c>
       <c r="G58" s="3">
-        <v>515100</v>
+        <v>489900</v>
       </c>
       <c r="H58" s="3">
-        <v>481700</v>
+        <v>497800</v>
       </c>
       <c r="I58" s="3">
-        <v>375900</v>
+        <v>465500</v>
       </c>
       <c r="J58" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K58" s="3">
         <v>416900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>432400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>233000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>249900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>440800</v>
+        <v>427400</v>
       </c>
       <c r="E59" s="3">
-        <v>346000</v>
+        <v>426100</v>
       </c>
       <c r="F59" s="3">
-        <v>448700</v>
+        <v>334500</v>
       </c>
       <c r="G59" s="3">
-        <v>315000</v>
+        <v>433600</v>
       </c>
       <c r="H59" s="3">
-        <v>288500</v>
+        <v>304500</v>
       </c>
       <c r="I59" s="3">
-        <v>237700</v>
+        <v>278800</v>
       </c>
       <c r="J59" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K59" s="3">
         <v>357800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>383300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>256100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>261700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1405300</v>
+        <v>1219300</v>
       </c>
       <c r="E60" s="3">
-        <v>1459700</v>
+        <v>1358300</v>
       </c>
       <c r="F60" s="3">
-        <v>1533400</v>
+        <v>1410900</v>
       </c>
       <c r="G60" s="3">
-        <v>1232000</v>
+        <v>1482100</v>
       </c>
       <c r="H60" s="3">
-        <v>1152300</v>
+        <v>1190800</v>
       </c>
       <c r="I60" s="3">
-        <v>1100300</v>
+        <v>1113700</v>
       </c>
       <c r="J60" s="3">
+        <v>1063500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1499300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1364000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1001100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1219300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1850400</v>
+        <v>1811000</v>
       </c>
       <c r="E61" s="3">
-        <v>1399000</v>
+        <v>1788500</v>
       </c>
       <c r="F61" s="3">
-        <v>1473900</v>
+        <v>1352200</v>
       </c>
       <c r="G61" s="3">
-        <v>1417500</v>
+        <v>1424500</v>
       </c>
       <c r="H61" s="3">
-        <v>1535300</v>
+        <v>1370100</v>
       </c>
       <c r="I61" s="3">
-        <v>1587400</v>
+        <v>1483900</v>
       </c>
       <c r="J61" s="3">
+        <v>1534300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1395000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1393500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1461300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1503800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>453700</v>
+        <v>421700</v>
       </c>
       <c r="E62" s="3">
-        <v>401900</v>
+        <v>438500</v>
       </c>
       <c r="F62" s="3">
-        <v>404500</v>
+        <v>388400</v>
       </c>
       <c r="G62" s="3">
-        <v>405600</v>
+        <v>390900</v>
       </c>
       <c r="H62" s="3">
-        <v>449300</v>
+        <v>392000</v>
       </c>
       <c r="I62" s="3">
-        <v>436000</v>
+        <v>434300</v>
       </c>
       <c r="J62" s="3">
+        <v>421400</v>
+      </c>
+      <c r="K62" s="3">
         <v>415000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>459000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>451600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>440000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3709400</v>
+        <v>3452000</v>
       </c>
       <c r="E66" s="3">
-        <v>3260600</v>
+        <v>3585300</v>
       </c>
       <c r="F66" s="3">
-        <v>3411700</v>
+        <v>3151500</v>
       </c>
       <c r="G66" s="3">
-        <v>3055100</v>
+        <v>3297600</v>
       </c>
       <c r="H66" s="3">
-        <v>3136800</v>
+        <v>2952900</v>
       </c>
       <c r="I66" s="3">
-        <v>3123700</v>
+        <v>3031900</v>
       </c>
       <c r="J66" s="3">
+        <v>3019200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3309300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3216600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2914000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3163100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1841100</v>
+        <v>1931700</v>
       </c>
       <c r="E72" s="3">
-        <v>1780400</v>
+        <v>1779500</v>
       </c>
       <c r="F72" s="3">
-        <v>1729000</v>
+        <v>1720900</v>
       </c>
       <c r="G72" s="3">
-        <v>1740200</v>
+        <v>1671100</v>
       </c>
       <c r="H72" s="3">
-        <v>2025700</v>
+        <v>1681900</v>
       </c>
       <c r="I72" s="3">
-        <v>2281300</v>
+        <v>1957900</v>
       </c>
       <c r="J72" s="3">
+        <v>2204900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2251400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2160900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2071600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1811200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4391100</v>
+        <v>4399100</v>
       </c>
       <c r="E76" s="3">
-        <v>4333700</v>
+        <v>4244200</v>
       </c>
       <c r="F76" s="3">
-        <v>4281900</v>
+        <v>4188700</v>
       </c>
       <c r="G76" s="3">
-        <v>4294100</v>
+        <v>4138600</v>
       </c>
       <c r="H76" s="3">
-        <v>4220000</v>
+        <v>4150500</v>
       </c>
       <c r="I76" s="3">
-        <v>4171900</v>
+        <v>4078800</v>
       </c>
       <c r="J76" s="3">
+        <v>4032300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4143200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4082200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3884900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3727500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>124200</v>
+        <v>177200</v>
       </c>
       <c r="E81" s="3">
-        <v>51100</v>
+        <v>120000</v>
       </c>
       <c r="F81" s="3">
-        <v>187200</v>
+        <v>49400</v>
       </c>
       <c r="G81" s="3">
-        <v>72000</v>
+        <v>180900</v>
       </c>
       <c r="H81" s="3">
-        <v>81300</v>
+        <v>69600</v>
       </c>
       <c r="I81" s="3">
-        <v>29900</v>
+        <v>78600</v>
       </c>
       <c r="J81" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K81" s="3">
         <v>169600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>105400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>358100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>263000</v>
+        <v>250600</v>
       </c>
       <c r="E83" s="3">
-        <v>263700</v>
+        <v>254200</v>
       </c>
       <c r="F83" s="3">
-        <v>254700</v>
+        <v>254900</v>
       </c>
       <c r="G83" s="3">
-        <v>256800</v>
+        <v>246100</v>
       </c>
       <c r="H83" s="3">
-        <v>509400</v>
+        <v>248200</v>
       </c>
       <c r="I83" s="3">
-        <v>260200</v>
+        <v>492400</v>
       </c>
       <c r="J83" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K83" s="3">
         <v>195800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>269500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>229800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>249700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>412300</v>
+        <v>495000</v>
       </c>
       <c r="E89" s="3">
-        <v>360100</v>
+        <v>398500</v>
       </c>
       <c r="F89" s="3">
-        <v>683100</v>
+        <v>348000</v>
       </c>
       <c r="G89" s="3">
-        <v>404200</v>
+        <v>660300</v>
       </c>
       <c r="H89" s="3">
-        <v>514700</v>
+        <v>390700</v>
       </c>
       <c r="I89" s="3">
-        <v>90100</v>
+        <v>497500</v>
       </c>
       <c r="J89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K89" s="3">
         <v>666100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>394600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>187500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-161700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-236400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-261300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-281600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-167300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-244600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-270400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-157000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-291300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-167000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-246500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-173300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-167300</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-121700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-494600</v>
+        <v>-147400</v>
       </c>
       <c r="E94" s="3">
-        <v>-157800</v>
+        <v>-478000</v>
       </c>
       <c r="F94" s="3">
-        <v>-373200</v>
+        <v>-152500</v>
       </c>
       <c r="G94" s="3">
-        <v>-387300</v>
+        <v>-360700</v>
       </c>
       <c r="H94" s="3">
-        <v>-217200</v>
+        <v>-374400</v>
       </c>
       <c r="I94" s="3">
-        <v>-52300</v>
+        <v>-209900</v>
       </c>
       <c r="J94" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-222900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-226400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-114600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8800</v>
+        <v>-53000</v>
       </c>
       <c r="E96" s="3">
-        <v>-89900</v>
+        <v>-8500</v>
       </c>
       <c r="F96" s="3">
-        <v>-102600</v>
+        <v>-86900</v>
       </c>
       <c r="G96" s="3">
-        <v>-5400</v>
+        <v>-99200</v>
       </c>
       <c r="H96" s="3">
-        <v>-105000</v>
+        <v>-5200</v>
       </c>
       <c r="I96" s="3">
-        <v>-104800</v>
+        <v>-101400</v>
       </c>
       <c r="J96" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-67300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-64200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>273000</v>
+        <v>-290700</v>
       </c>
       <c r="E100" s="3">
-        <v>-176200</v>
+        <v>263800</v>
       </c>
       <c r="F100" s="3">
-        <v>-226700</v>
+        <v>-170300</v>
       </c>
       <c r="G100" s="3">
-        <v>-192200</v>
+        <v>-219100</v>
       </c>
       <c r="H100" s="3">
-        <v>-151700</v>
+        <v>-185800</v>
       </c>
       <c r="I100" s="3">
-        <v>-165900</v>
+        <v>-146600</v>
       </c>
       <c r="J100" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-183000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-129100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>190700</v>
+        <v>56800</v>
       </c>
       <c r="E102" s="3">
-        <v>26100</v>
+        <v>184300</v>
       </c>
       <c r="F102" s="3">
-        <v>83200</v>
+        <v>25200</v>
       </c>
       <c r="G102" s="3">
-        <v>-175300</v>
+        <v>80400</v>
       </c>
       <c r="H102" s="3">
-        <v>145800</v>
+        <v>-169400</v>
       </c>
       <c r="I102" s="3">
-        <v>-128200</v>
+        <v>141000</v>
       </c>
       <c r="J102" s="3">
+        <v>-123900</v>
+      </c>
+      <c r="K102" s="3">
         <v>260200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>805400</v>
+        <v>945800</v>
       </c>
       <c r="E8" s="3">
-        <v>786700</v>
+        <v>889100</v>
       </c>
       <c r="F8" s="3">
-        <v>774700</v>
+        <v>868400</v>
       </c>
       <c r="G8" s="3">
-        <v>835100</v>
+        <v>855200</v>
       </c>
       <c r="H8" s="3">
-        <v>783200</v>
+        <v>921800</v>
       </c>
       <c r="I8" s="3">
-        <v>1464300</v>
+        <v>864600</v>
       </c>
       <c r="J8" s="3">
+        <v>1616400</v>
+      </c>
+      <c r="K8" s="3">
         <v>752500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>847100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>813600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>754800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>784200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>484100</v>
+        <v>550600</v>
       </c>
       <c r="E9" s="3">
-        <v>481600</v>
+        <v>534400</v>
       </c>
       <c r="F9" s="3">
-        <v>476900</v>
+        <v>531600</v>
       </c>
       <c r="G9" s="3">
-        <v>377900</v>
+        <v>526400</v>
       </c>
       <c r="H9" s="3">
-        <v>366200</v>
+        <v>417200</v>
       </c>
       <c r="I9" s="3">
-        <v>1016800</v>
+        <v>404200</v>
       </c>
       <c r="J9" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="K9" s="3">
         <v>350200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>307400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>366300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>329200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>366300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>321300</v>
+        <v>395200</v>
       </c>
       <c r="E10" s="3">
-        <v>305100</v>
+        <v>354700</v>
       </c>
       <c r="F10" s="3">
-        <v>297800</v>
+        <v>336800</v>
       </c>
       <c r="G10" s="3">
-        <v>457200</v>
+        <v>328800</v>
       </c>
       <c r="H10" s="3">
-        <v>417100</v>
+        <v>504700</v>
       </c>
       <c r="I10" s="3">
-        <v>447500</v>
+        <v>460400</v>
       </c>
       <c r="J10" s="3">
+        <v>494000</v>
+      </c>
+      <c r="K10" s="3">
         <v>402400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>539800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>447200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>417900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>12800</v>
+        <v>6600</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>14200</v>
       </c>
       <c r="G14" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>34800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37400</v>
+        <v>40000</v>
       </c>
       <c r="E15" s="3">
-        <v>37500</v>
+        <v>41300</v>
       </c>
       <c r="F15" s="3">
-        <v>39500</v>
+        <v>41400</v>
       </c>
       <c r="G15" s="3">
+        <v>43600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>43900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>44800</v>
+      </c>
+      <c r="O15" s="3">
+        <v>45900</v>
+      </c>
+      <c r="P15" s="3">
         <v>39900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>43900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>48900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>44800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>45900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>39900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>670600</v>
+        <v>601900</v>
       </c>
       <c r="E17" s="3">
-        <v>668300</v>
+        <v>740300</v>
       </c>
       <c r="F17" s="3">
-        <v>669000</v>
+        <v>737700</v>
       </c>
       <c r="G17" s="3">
-        <v>661200</v>
+        <v>738400</v>
       </c>
       <c r="H17" s="3">
-        <v>661300</v>
+        <v>729800</v>
       </c>
       <c r="I17" s="3">
-        <v>1257600</v>
+        <v>730000</v>
       </c>
       <c r="J17" s="3">
+        <v>1388200</v>
+      </c>
+      <c r="K17" s="3">
         <v>660600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>616100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>690200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>372700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134800</v>
+        <v>343900</v>
       </c>
       <c r="E18" s="3">
-        <v>118400</v>
+        <v>148800</v>
       </c>
       <c r="F18" s="3">
-        <v>105800</v>
+        <v>130700</v>
       </c>
       <c r="G18" s="3">
-        <v>173900</v>
+        <v>116800</v>
       </c>
       <c r="H18" s="3">
-        <v>121900</v>
+        <v>192000</v>
       </c>
       <c r="I18" s="3">
-        <v>206700</v>
+        <v>134600</v>
       </c>
       <c r="J18" s="3">
+        <v>228100</v>
+      </c>
+      <c r="K18" s="3">
         <v>92000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>382100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>19800</v>
       </c>
       <c r="E20" s="3">
-        <v>33600</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4400</v>
+        <v>37100</v>
       </c>
       <c r="G20" s="3">
-        <v>26900</v>
+        <v>-4800</v>
       </c>
       <c r="H20" s="3">
-        <v>-43500</v>
+        <v>29700</v>
       </c>
       <c r="I20" s="3">
-        <v>-51500</v>
+        <v>-48000</v>
       </c>
       <c r="J20" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>179600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390200</v>
+        <v>646700</v>
       </c>
       <c r="E21" s="3">
-        <v>406300</v>
+        <v>430800</v>
       </c>
       <c r="F21" s="3">
-        <v>356300</v>
+        <v>448500</v>
       </c>
       <c r="G21" s="3">
-        <v>447000</v>
+        <v>393300</v>
       </c>
       <c r="H21" s="3">
-        <v>326600</v>
+        <v>493400</v>
       </c>
       <c r="I21" s="3">
-        <v>647500</v>
+        <v>360500</v>
       </c>
       <c r="J21" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K21" s="3">
         <v>333700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>427400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>388300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>791500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>327300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42500</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>40100</v>
+        <v>46900</v>
       </c>
       <c r="F22" s="3">
-        <v>35800</v>
+        <v>44300</v>
       </c>
       <c r="G22" s="3">
-        <v>34800</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>39600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>41200</v>
-      </c>
       <c r="J22" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K22" s="3">
         <v>35700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97100</v>
+        <v>308400</v>
       </c>
       <c r="E23" s="3">
-        <v>111900</v>
+        <v>107200</v>
       </c>
       <c r="F23" s="3">
-        <v>65600</v>
+        <v>123600</v>
       </c>
       <c r="G23" s="3">
-        <v>166000</v>
+        <v>72400</v>
       </c>
       <c r="H23" s="3">
-        <v>78400</v>
+        <v>183300</v>
       </c>
       <c r="I23" s="3">
-        <v>114000</v>
+        <v>86500</v>
       </c>
       <c r="J23" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K23" s="3">
         <v>46500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>187500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>521300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-80100</v>
+        <v>108300</v>
       </c>
       <c r="E24" s="3">
-        <v>-8100</v>
+        <v>-88400</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>-8900</v>
       </c>
       <c r="G24" s="3">
-        <v>-14900</v>
+        <v>17800</v>
       </c>
       <c r="H24" s="3">
-        <v>8800</v>
+        <v>-16400</v>
       </c>
       <c r="I24" s="3">
-        <v>35400</v>
+        <v>9700</v>
       </c>
       <c r="J24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K24" s="3">
         <v>17600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>163300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>177200</v>
+        <v>200100</v>
       </c>
       <c r="E26" s="3">
-        <v>120000</v>
+        <v>195600</v>
       </c>
       <c r="F26" s="3">
-        <v>49400</v>
+        <v>132500</v>
       </c>
       <c r="G26" s="3">
-        <v>180900</v>
+        <v>54600</v>
       </c>
       <c r="H26" s="3">
-        <v>69600</v>
+        <v>199700</v>
       </c>
       <c r="I26" s="3">
-        <v>78600</v>
+        <v>76900</v>
       </c>
       <c r="J26" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K26" s="3">
         <v>28900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>358100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177200</v>
+        <v>200100</v>
       </c>
       <c r="E27" s="3">
-        <v>120000</v>
+        <v>195600</v>
       </c>
       <c r="F27" s="3">
-        <v>49400</v>
+        <v>132500</v>
       </c>
       <c r="G27" s="3">
-        <v>180900</v>
+        <v>54600</v>
       </c>
       <c r="H27" s="3">
-        <v>69600</v>
+        <v>199700</v>
       </c>
       <c r="I27" s="3">
-        <v>78600</v>
+        <v>76900</v>
       </c>
       <c r="J27" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K27" s="3">
         <v>28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>169600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>358100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-19800</v>
       </c>
       <c r="E32" s="3">
-        <v>-33600</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>4400</v>
+        <v>-37100</v>
       </c>
       <c r="G32" s="3">
-        <v>-26900</v>
+        <v>4800</v>
       </c>
       <c r="H32" s="3">
-        <v>43500</v>
+        <v>-29700</v>
       </c>
       <c r="I32" s="3">
-        <v>51500</v>
+        <v>48000</v>
       </c>
       <c r="J32" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-179600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177200</v>
+        <v>200100</v>
       </c>
       <c r="E33" s="3">
-        <v>120000</v>
+        <v>195600</v>
       </c>
       <c r="F33" s="3">
-        <v>49400</v>
+        <v>132500</v>
       </c>
       <c r="G33" s="3">
-        <v>180900</v>
+        <v>54600</v>
       </c>
       <c r="H33" s="3">
-        <v>69600</v>
+        <v>199700</v>
       </c>
       <c r="I33" s="3">
-        <v>78600</v>
+        <v>76900</v>
       </c>
       <c r="J33" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K33" s="3">
         <v>28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>169600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>358100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177200</v>
+        <v>200100</v>
       </c>
       <c r="E35" s="3">
-        <v>120000</v>
+        <v>195600</v>
       </c>
       <c r="F35" s="3">
-        <v>49400</v>
+        <v>132500</v>
       </c>
       <c r="G35" s="3">
-        <v>180900</v>
+        <v>54600</v>
       </c>
       <c r="H35" s="3">
-        <v>69600</v>
+        <v>199700</v>
       </c>
       <c r="I35" s="3">
-        <v>78600</v>
+        <v>76900</v>
       </c>
       <c r="J35" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K35" s="3">
         <v>28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>169600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>358100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>726100</v>
+        <v>1030400</v>
       </c>
       <c r="E41" s="3">
-        <v>669300</v>
+        <v>801600</v>
       </c>
       <c r="F41" s="3">
-        <v>485000</v>
+        <v>738800</v>
       </c>
       <c r="G41" s="3">
-        <v>459700</v>
+        <v>535300</v>
       </c>
       <c r="H41" s="3">
-        <v>379300</v>
+        <v>507500</v>
       </c>
       <c r="I41" s="3">
-        <v>548800</v>
+        <v>418700</v>
       </c>
       <c r="J41" s="3">
+        <v>605800</v>
+      </c>
+      <c r="K41" s="3">
         <v>284000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>422000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>164300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>118100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>590000</v>
+        <v>900200</v>
       </c>
       <c r="E42" s="3">
-        <v>602600</v>
+        <v>651200</v>
       </c>
       <c r="F42" s="3">
-        <v>286000</v>
+        <v>665200</v>
       </c>
       <c r="G42" s="3">
-        <v>369600</v>
+        <v>315700</v>
       </c>
       <c r="H42" s="3">
-        <v>270100</v>
+        <v>408000</v>
       </c>
       <c r="I42" s="3">
-        <v>45600</v>
+        <v>298200</v>
       </c>
       <c r="J42" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>146700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>87400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>140900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>776400</v>
+        <v>932800</v>
       </c>
       <c r="E43" s="3">
-        <v>799700</v>
+        <v>857000</v>
       </c>
       <c r="F43" s="3">
-        <v>804800</v>
+        <v>882800</v>
       </c>
       <c r="G43" s="3">
-        <v>865300</v>
+        <v>888400</v>
       </c>
       <c r="H43" s="3">
-        <v>876600</v>
+        <v>955100</v>
       </c>
       <c r="I43" s="3">
-        <v>769700</v>
+        <v>967600</v>
       </c>
       <c r="J43" s="3">
+        <v>849600</v>
+      </c>
+      <c r="K43" s="3">
         <v>835500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>923500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>785800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>661200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>670700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="E44" s="3">
-        <v>40300</v>
+        <v>45500</v>
       </c>
       <c r="F44" s="3">
-        <v>53700</v>
+        <v>44500</v>
       </c>
       <c r="G44" s="3">
-        <v>44000</v>
+        <v>59300</v>
       </c>
       <c r="H44" s="3">
-        <v>36900</v>
+        <v>48600</v>
       </c>
       <c r="I44" s="3">
-        <v>36400</v>
+        <v>40800</v>
       </c>
       <c r="J44" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K44" s="3">
         <v>47900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117600</v>
+        <v>131100</v>
       </c>
       <c r="E45" s="3">
-        <v>156900</v>
+        <v>129800</v>
       </c>
       <c r="F45" s="3">
-        <v>164300</v>
+        <v>173200</v>
       </c>
       <c r="G45" s="3">
-        <v>120000</v>
+        <v>181300</v>
       </c>
       <c r="H45" s="3">
-        <v>151100</v>
+        <v>132500</v>
       </c>
       <c r="I45" s="3">
-        <v>91800</v>
+        <v>166800</v>
       </c>
       <c r="J45" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K45" s="3">
         <v>108500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>121800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>206800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2251300</v>
+        <v>3034300</v>
       </c>
       <c r="E46" s="3">
-        <v>2268900</v>
+        <v>2485100</v>
       </c>
       <c r="F46" s="3">
-        <v>1793700</v>
+        <v>2504500</v>
       </c>
       <c r="G46" s="3">
-        <v>1858700</v>
+        <v>1980000</v>
       </c>
       <c r="H46" s="3">
-        <v>1714000</v>
+        <v>2051700</v>
       </c>
       <c r="I46" s="3">
-        <v>1492300</v>
+        <v>1892000</v>
       </c>
       <c r="J46" s="3">
+        <v>1647200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1283000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1561500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1258200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1056500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1229800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>364800</v>
+        <v>677000</v>
       </c>
       <c r="E47" s="3">
-        <v>308200</v>
+        <v>402700</v>
       </c>
       <c r="F47" s="3">
-        <v>350700</v>
+        <v>340200</v>
       </c>
       <c r="G47" s="3">
-        <v>405200</v>
+        <v>387100</v>
       </c>
       <c r="H47" s="3">
-        <v>376100</v>
+        <v>447300</v>
       </c>
       <c r="I47" s="3">
-        <v>602500</v>
+        <v>415200</v>
       </c>
       <c r="J47" s="3">
+        <v>665000</v>
+      </c>
+      <c r="K47" s="3">
         <v>603700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>609100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>786100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>766800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3115700</v>
+        <v>3607900</v>
       </c>
       <c r="E48" s="3">
-        <v>3110400</v>
+        <v>3439300</v>
       </c>
       <c r="F48" s="3">
-        <v>3292400</v>
+        <v>3433400</v>
       </c>
       <c r="G48" s="3">
-        <v>3231300</v>
+        <v>3634300</v>
       </c>
       <c r="H48" s="3">
-        <v>3098600</v>
+        <v>3566900</v>
       </c>
       <c r="I48" s="3">
-        <v>3093900</v>
+        <v>3420400</v>
       </c>
       <c r="J48" s="3">
+        <v>3415200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3190900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3253000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3129600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2907800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2970000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1293400</v>
+        <v>2085900</v>
       </c>
       <c r="E49" s="3">
-        <v>1332000</v>
+        <v>1427700</v>
       </c>
       <c r="F49" s="3">
-        <v>1574700</v>
+        <v>1470400</v>
       </c>
       <c r="G49" s="3">
-        <v>1611500</v>
+        <v>1738300</v>
       </c>
       <c r="H49" s="3">
-        <v>1608900</v>
+        <v>1778900</v>
       </c>
       <c r="I49" s="3">
-        <v>1654200</v>
+        <v>1776000</v>
       </c>
       <c r="J49" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1703000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1785700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1846400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1791600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1947200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>825800</v>
+        <v>412300</v>
       </c>
       <c r="E52" s="3">
-        <v>810000</v>
+        <v>911600</v>
       </c>
       <c r="F52" s="3">
-        <v>328700</v>
+        <v>894200</v>
       </c>
       <c r="G52" s="3">
-        <v>329400</v>
+        <v>362800</v>
       </c>
       <c r="H52" s="3">
-        <v>305700</v>
+        <v>363600</v>
       </c>
       <c r="I52" s="3">
-        <v>267800</v>
+        <v>337400</v>
       </c>
       <c r="J52" s="3">
+        <v>295600</v>
+      </c>
+      <c r="K52" s="3">
         <v>270900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>243100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>278500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>276200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>448900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7851000</v>
+        <v>9817400</v>
       </c>
       <c r="E54" s="3">
-        <v>7829500</v>
+        <v>8666400</v>
       </c>
       <c r="F54" s="3">
-        <v>7340200</v>
+        <v>8642600</v>
       </c>
       <c r="G54" s="3">
-        <v>7436100</v>
+        <v>8102500</v>
       </c>
       <c r="H54" s="3">
-        <v>7103300</v>
+        <v>8208400</v>
       </c>
       <c r="I54" s="3">
-        <v>7110700</v>
+        <v>7841000</v>
       </c>
       <c r="J54" s="3">
+        <v>7849100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7051500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7452400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7298800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6798900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6890500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>473700</v>
+        <v>643900</v>
       </c>
       <c r="E57" s="3">
-        <v>462400</v>
+        <v>522800</v>
       </c>
       <c r="F57" s="3">
-        <v>475100</v>
+        <v>510400</v>
       </c>
       <c r="G57" s="3">
-        <v>558500</v>
+        <v>524400</v>
       </c>
       <c r="H57" s="3">
-        <v>388500</v>
+        <v>616500</v>
       </c>
       <c r="I57" s="3">
-        <v>369300</v>
+        <v>428800</v>
       </c>
       <c r="J57" s="3">
+        <v>407700</v>
+      </c>
+      <c r="K57" s="3">
         <v>470400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>724600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>548300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>512000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>707700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>318200</v>
+        <v>356300</v>
       </c>
       <c r="E58" s="3">
-        <v>469900</v>
+        <v>351300</v>
       </c>
       <c r="F58" s="3">
-        <v>601300</v>
+        <v>518700</v>
       </c>
       <c r="G58" s="3">
-        <v>489900</v>
+        <v>663800</v>
       </c>
       <c r="H58" s="3">
-        <v>497800</v>
+        <v>540800</v>
       </c>
       <c r="I58" s="3">
-        <v>465500</v>
+        <v>549500</v>
       </c>
       <c r="J58" s="3">
+        <v>513900</v>
+      </c>
+      <c r="K58" s="3">
         <v>363300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>416900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>432400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>233000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>249900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>427400</v>
+        <v>1090900</v>
       </c>
       <c r="E59" s="3">
-        <v>426100</v>
+        <v>471800</v>
       </c>
       <c r="F59" s="3">
-        <v>334500</v>
+        <v>470300</v>
       </c>
       <c r="G59" s="3">
-        <v>433600</v>
+        <v>369200</v>
       </c>
       <c r="H59" s="3">
-        <v>304500</v>
+        <v>478700</v>
       </c>
       <c r="I59" s="3">
-        <v>278800</v>
+        <v>336100</v>
       </c>
       <c r="J59" s="3">
+        <v>307800</v>
+      </c>
+      <c r="K59" s="3">
         <v>229800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>357800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>383300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>256100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>261700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2091100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1345900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1499400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1557400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1314500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1229400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1063500</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1001100</v>
+      </c>
+      <c r="O60" s="3">
         <v>1219300</v>
       </c>
-      <c r="E60" s="3">
-        <v>1358300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1410900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1482100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1190800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1113700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1063500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1499300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1364000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1001100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1219300</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1811000</v>
+        <v>2187500</v>
       </c>
       <c r="E61" s="3">
-        <v>1788500</v>
+        <v>1999000</v>
       </c>
       <c r="F61" s="3">
-        <v>1352200</v>
+        <v>1974200</v>
       </c>
       <c r="G61" s="3">
-        <v>1424500</v>
+        <v>1492600</v>
       </c>
       <c r="H61" s="3">
-        <v>1370100</v>
+        <v>1572500</v>
       </c>
       <c r="I61" s="3">
-        <v>1483900</v>
+        <v>1512300</v>
       </c>
       <c r="J61" s="3">
+        <v>1638000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1534300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1395000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1393500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1461300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1503800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>421700</v>
+        <v>591200</v>
       </c>
       <c r="E62" s="3">
-        <v>438500</v>
+        <v>465500</v>
       </c>
       <c r="F62" s="3">
-        <v>388400</v>
+        <v>484000</v>
       </c>
       <c r="G62" s="3">
-        <v>390900</v>
+        <v>428800</v>
       </c>
       <c r="H62" s="3">
-        <v>392000</v>
+        <v>431600</v>
       </c>
       <c r="I62" s="3">
-        <v>434300</v>
+        <v>432700</v>
       </c>
       <c r="J62" s="3">
+        <v>479400</v>
+      </c>
+      <c r="K62" s="3">
         <v>421400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>415000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>459000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>451600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>440000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3452000</v>
+        <v>4869800</v>
       </c>
       <c r="E66" s="3">
-        <v>3585300</v>
+        <v>3810500</v>
       </c>
       <c r="F66" s="3">
-        <v>3151500</v>
+        <v>3957600</v>
       </c>
       <c r="G66" s="3">
-        <v>3297600</v>
+        <v>3478800</v>
       </c>
       <c r="H66" s="3">
-        <v>2952900</v>
+        <v>3640000</v>
       </c>
       <c r="I66" s="3">
-        <v>3031900</v>
+        <v>3259500</v>
       </c>
       <c r="J66" s="3">
+        <v>3346700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3019200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3309300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3216600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2914000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3163100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1931700</v>
+        <v>2223800</v>
       </c>
       <c r="E72" s="3">
-        <v>1779500</v>
+        <v>2132300</v>
       </c>
       <c r="F72" s="3">
-        <v>1720900</v>
+        <v>1964300</v>
       </c>
       <c r="G72" s="3">
-        <v>1671100</v>
+        <v>1899600</v>
       </c>
       <c r="H72" s="3">
-        <v>1681900</v>
+        <v>1844700</v>
       </c>
       <c r="I72" s="3">
-        <v>1957900</v>
+        <v>1856600</v>
       </c>
       <c r="J72" s="3">
+        <v>2161300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2204900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2251400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2160900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2071600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1811200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4399100</v>
+        <v>4947600</v>
       </c>
       <c r="E76" s="3">
-        <v>4244200</v>
+        <v>4855900</v>
       </c>
       <c r="F76" s="3">
-        <v>4188700</v>
+        <v>4685000</v>
       </c>
       <c r="G76" s="3">
-        <v>4138600</v>
+        <v>4623700</v>
       </c>
       <c r="H76" s="3">
-        <v>4150500</v>
+        <v>4568400</v>
       </c>
       <c r="I76" s="3">
-        <v>4078800</v>
+        <v>4581500</v>
       </c>
       <c r="J76" s="3">
+        <v>4502400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4032300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4143200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4082200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3884900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3727500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177200</v>
+        <v>200100</v>
       </c>
       <c r="E81" s="3">
-        <v>120000</v>
+        <v>195600</v>
       </c>
       <c r="F81" s="3">
-        <v>49400</v>
+        <v>132500</v>
       </c>
       <c r="G81" s="3">
-        <v>180900</v>
+        <v>54600</v>
       </c>
       <c r="H81" s="3">
-        <v>69600</v>
+        <v>199700</v>
       </c>
       <c r="I81" s="3">
-        <v>78600</v>
+        <v>76900</v>
       </c>
       <c r="J81" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K81" s="3">
         <v>28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>169600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>358100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>250600</v>
+        <v>283000</v>
       </c>
       <c r="E83" s="3">
-        <v>254200</v>
+        <v>276700</v>
       </c>
       <c r="F83" s="3">
-        <v>254900</v>
+        <v>280600</v>
       </c>
       <c r="G83" s="3">
-        <v>246100</v>
+        <v>281400</v>
       </c>
       <c r="H83" s="3">
-        <v>248200</v>
+        <v>271700</v>
       </c>
       <c r="I83" s="3">
-        <v>492400</v>
+        <v>274000</v>
       </c>
       <c r="J83" s="3">
+        <v>543500</v>
+      </c>
+      <c r="K83" s="3">
         <v>251500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>195800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>269500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>229800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>249700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>495000</v>
+        <v>615500</v>
       </c>
       <c r="E89" s="3">
-        <v>398500</v>
+        <v>546400</v>
       </c>
       <c r="F89" s="3">
-        <v>348000</v>
+        <v>439900</v>
       </c>
       <c r="G89" s="3">
-        <v>660300</v>
+        <v>384200</v>
       </c>
       <c r="H89" s="3">
-        <v>390700</v>
+        <v>728800</v>
       </c>
       <c r="I89" s="3">
-        <v>497500</v>
+        <v>431300</v>
       </c>
       <c r="J89" s="3">
+        <v>549100</v>
+      </c>
+      <c r="K89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>666100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>394600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>187500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-160000</v>
+        <v>-425100</v>
       </c>
       <c r="E91" s="3">
-        <v>-161700</v>
+        <v>-176700</v>
       </c>
       <c r="F91" s="3">
-        <v>-236400</v>
+        <v>-178500</v>
       </c>
       <c r="G91" s="3">
-        <v>-261300</v>
+        <v>-260900</v>
       </c>
       <c r="H91" s="3">
-        <v>-151800</v>
+        <v>-288500</v>
       </c>
       <c r="I91" s="3">
-        <v>-281600</v>
+        <v>-167500</v>
       </c>
       <c r="J91" s="3">
+        <v>-310800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-161400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-173300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-167300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-121700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-147400</v>
+        <v>-459400</v>
       </c>
       <c r="E94" s="3">
-        <v>-478000</v>
+        <v>-162700</v>
       </c>
       <c r="F94" s="3">
-        <v>-152500</v>
+        <v>-527700</v>
       </c>
       <c r="G94" s="3">
-        <v>-360700</v>
+        <v>-168400</v>
       </c>
       <c r="H94" s="3">
-        <v>-374400</v>
+        <v>-398200</v>
       </c>
       <c r="I94" s="3">
-        <v>-209900</v>
+        <v>-413200</v>
       </c>
       <c r="J94" s="3">
+        <v>-231700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-50600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-222900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-226400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-114600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53000</v>
+        <v>-41700</v>
       </c>
       <c r="E96" s="3">
-        <v>-8500</v>
+        <v>-58500</v>
       </c>
       <c r="F96" s="3">
-        <v>-86900</v>
+        <v>-9400</v>
       </c>
       <c r="G96" s="3">
-        <v>-99200</v>
+        <v>-95900</v>
       </c>
       <c r="H96" s="3">
-        <v>-5200</v>
+        <v>-109500</v>
       </c>
       <c r="I96" s="3">
-        <v>-101400</v>
+        <v>-5800</v>
       </c>
       <c r="J96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-101300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-67300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-64200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-290700</v>
+        <v>72800</v>
       </c>
       <c r="E100" s="3">
-        <v>263800</v>
+        <v>-320900</v>
       </c>
       <c r="F100" s="3">
-        <v>-170300</v>
+        <v>291200</v>
       </c>
       <c r="G100" s="3">
-        <v>-219100</v>
+        <v>-188000</v>
       </c>
       <c r="H100" s="3">
-        <v>-185800</v>
+        <v>-241900</v>
       </c>
       <c r="I100" s="3">
-        <v>-146600</v>
+        <v>-205000</v>
       </c>
       <c r="J100" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-160300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-183000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-129100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>56800</v>
+        <v>228800</v>
       </c>
       <c r="E102" s="3">
-        <v>184300</v>
+        <v>62800</v>
       </c>
       <c r="F102" s="3">
-        <v>25200</v>
+        <v>203500</v>
       </c>
       <c r="G102" s="3">
-        <v>80400</v>
+        <v>27800</v>
       </c>
       <c r="H102" s="3">
-        <v>-169400</v>
+        <v>88800</v>
       </c>
       <c r="I102" s="3">
-        <v>141000</v>
+        <v>-187000</v>
       </c>
       <c r="J102" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-123900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>260200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>945800</v>
+        <v>920800</v>
       </c>
       <c r="E8" s="3">
-        <v>889100</v>
+        <v>934800</v>
       </c>
       <c r="F8" s="3">
-        <v>868400</v>
+        <v>878800</v>
       </c>
       <c r="G8" s="3">
-        <v>855200</v>
+        <v>858400</v>
       </c>
       <c r="H8" s="3">
-        <v>921800</v>
+        <v>845300</v>
       </c>
       <c r="I8" s="3">
-        <v>864600</v>
+        <v>911200</v>
       </c>
       <c r="J8" s="3">
+        <v>854600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1616400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>752500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>847100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>813600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>754800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>784200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>550600</v>
+        <v>579200</v>
       </c>
       <c r="E9" s="3">
-        <v>534400</v>
+        <v>544200</v>
       </c>
       <c r="F9" s="3">
-        <v>531600</v>
+        <v>528200</v>
       </c>
       <c r="G9" s="3">
-        <v>526400</v>
+        <v>525500</v>
       </c>
       <c r="H9" s="3">
-        <v>417200</v>
+        <v>520400</v>
       </c>
       <c r="I9" s="3">
-        <v>404200</v>
+        <v>412300</v>
       </c>
       <c r="J9" s="3">
+        <v>399500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1122400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>350200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>307400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>366300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>329200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>366300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>395200</v>
+        <v>341500</v>
       </c>
       <c r="E10" s="3">
-        <v>354700</v>
+        <v>390600</v>
       </c>
       <c r="F10" s="3">
-        <v>336800</v>
+        <v>350600</v>
       </c>
       <c r="G10" s="3">
-        <v>328800</v>
+        <v>332900</v>
       </c>
       <c r="H10" s="3">
-        <v>504700</v>
+        <v>325000</v>
       </c>
       <c r="I10" s="3">
-        <v>460400</v>
+        <v>498800</v>
       </c>
       <c r="J10" s="3">
+        <v>455100</v>
+      </c>
+      <c r="K10" s="3">
         <v>494000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>402400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>539800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>447200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>417900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F14" s="3">
-        <v>14200</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>9900</v>
+        <v>14000</v>
       </c>
       <c r="H14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>38400</v>
+      </c>
+      <c r="L14" s="3">
         <v>11800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>38400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="E15" s="3">
-        <v>41300</v>
+        <v>39600</v>
       </c>
       <c r="F15" s="3">
-        <v>41400</v>
+        <v>40800</v>
       </c>
       <c r="G15" s="3">
+        <v>40900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43100</v>
+      </c>
+      <c r="I15" s="3">
         <v>43600</v>
       </c>
-      <c r="H15" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>48900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>601900</v>
+        <v>785400</v>
       </c>
       <c r="E17" s="3">
-        <v>740300</v>
+        <v>595000</v>
       </c>
       <c r="F17" s="3">
-        <v>737700</v>
+        <v>731700</v>
       </c>
       <c r="G17" s="3">
-        <v>738400</v>
+        <v>729200</v>
       </c>
       <c r="H17" s="3">
-        <v>729800</v>
+        <v>729900</v>
       </c>
       <c r="I17" s="3">
-        <v>730000</v>
+        <v>721400</v>
       </c>
       <c r="J17" s="3">
+        <v>721600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1388200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>660600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>616100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>690200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>372700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>343900</v>
+        <v>135400</v>
       </c>
       <c r="E18" s="3">
-        <v>148800</v>
+        <v>339900</v>
       </c>
       <c r="F18" s="3">
-        <v>130700</v>
+        <v>147100</v>
       </c>
       <c r="G18" s="3">
-        <v>116800</v>
+        <v>129200</v>
       </c>
       <c r="H18" s="3">
-        <v>192000</v>
+        <v>115400</v>
       </c>
       <c r="I18" s="3">
-        <v>134600</v>
+        <v>189800</v>
       </c>
       <c r="J18" s="3">
+        <v>133000</v>
+      </c>
+      <c r="K18" s="3">
         <v>228100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>231000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>382100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19800</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>19600</v>
       </c>
       <c r="F20" s="3">
-        <v>37100</v>
+        <v>5200</v>
       </c>
       <c r="G20" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
-        <v>29700</v>
-      </c>
       <c r="I20" s="3">
-        <v>-48000</v>
+        <v>29400</v>
       </c>
       <c r="J20" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-56900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>179600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>646700</v>
+        <v>414900</v>
       </c>
       <c r="E21" s="3">
-        <v>430800</v>
+        <v>639200</v>
       </c>
       <c r="F21" s="3">
-        <v>448500</v>
+        <v>425800</v>
       </c>
       <c r="G21" s="3">
-        <v>393300</v>
+        <v>443300</v>
       </c>
       <c r="H21" s="3">
-        <v>493400</v>
+        <v>388700</v>
       </c>
       <c r="I21" s="3">
-        <v>360500</v>
+        <v>487700</v>
       </c>
       <c r="J21" s="3">
+        <v>356300</v>
+      </c>
+      <c r="K21" s="3">
         <v>714700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>333700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>427400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>388300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>791500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>327300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>55300</v>
       </c>
       <c r="E22" s="3">
-        <v>46900</v>
+        <v>54700</v>
       </c>
       <c r="F22" s="3">
-        <v>44300</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3">
-        <v>39600</v>
+        <v>43800</v>
       </c>
       <c r="H22" s="3">
-        <v>38500</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>39100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>308400</v>
+        <v>87000</v>
       </c>
       <c r="E23" s="3">
-        <v>107200</v>
+        <v>304800</v>
       </c>
       <c r="F23" s="3">
-        <v>123600</v>
+        <v>106000</v>
       </c>
       <c r="G23" s="3">
-        <v>72400</v>
+        <v>122100</v>
       </c>
       <c r="H23" s="3">
-        <v>183300</v>
+        <v>71500</v>
       </c>
       <c r="I23" s="3">
-        <v>86500</v>
+        <v>181200</v>
       </c>
       <c r="J23" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K23" s="3">
         <v>125800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>187500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>521300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108300</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
-        <v>-88400</v>
+        <v>107000</v>
       </c>
       <c r="F24" s="3">
-        <v>-8900</v>
+        <v>-87400</v>
       </c>
       <c r="G24" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M24" s="3">
         <v>17800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>39000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>17600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17800</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>163300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200100</v>
+        <v>79000</v>
       </c>
       <c r="E26" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F26" s="3">
-        <v>132500</v>
+        <v>193400</v>
       </c>
       <c r="G26" s="3">
-        <v>54600</v>
+        <v>130900</v>
       </c>
       <c r="H26" s="3">
-        <v>199700</v>
+        <v>53900</v>
       </c>
       <c r="I26" s="3">
-        <v>76900</v>
+        <v>197400</v>
       </c>
       <c r="J26" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K26" s="3">
         <v>86800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>105400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>358100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200100</v>
+        <v>79000</v>
       </c>
       <c r="E27" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F27" s="3">
-        <v>132500</v>
+        <v>193400</v>
       </c>
       <c r="G27" s="3">
-        <v>54600</v>
+        <v>130900</v>
       </c>
       <c r="H27" s="3">
-        <v>199700</v>
+        <v>53900</v>
       </c>
       <c r="I27" s="3">
-        <v>76900</v>
+        <v>197400</v>
       </c>
       <c r="J27" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K27" s="3">
         <v>86800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>169600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>105400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>358100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19800</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-19600</v>
       </c>
       <c r="F32" s="3">
-        <v>-37100</v>
+        <v>-5200</v>
       </c>
       <c r="G32" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="H32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-29700</v>
-      </c>
       <c r="I32" s="3">
-        <v>48000</v>
+        <v>-29400</v>
       </c>
       <c r="J32" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K32" s="3">
         <v>56900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-179600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200100</v>
+        <v>79000</v>
       </c>
       <c r="E33" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F33" s="3">
-        <v>132500</v>
+        <v>193400</v>
       </c>
       <c r="G33" s="3">
-        <v>54600</v>
+        <v>130900</v>
       </c>
       <c r="H33" s="3">
-        <v>199700</v>
+        <v>53900</v>
       </c>
       <c r="I33" s="3">
-        <v>76900</v>
+        <v>197400</v>
       </c>
       <c r="J33" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K33" s="3">
         <v>86800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>169600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>358100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200100</v>
+        <v>79000</v>
       </c>
       <c r="E35" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F35" s="3">
-        <v>132500</v>
+        <v>193400</v>
       </c>
       <c r="G35" s="3">
-        <v>54600</v>
+        <v>130900</v>
       </c>
       <c r="H35" s="3">
-        <v>199700</v>
+        <v>53900</v>
       </c>
       <c r="I35" s="3">
-        <v>76900</v>
+        <v>197400</v>
       </c>
       <c r="J35" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K35" s="3">
         <v>86800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>169600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>358100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1030400</v>
+        <v>779700</v>
       </c>
       <c r="E41" s="3">
-        <v>801600</v>
+        <v>1018400</v>
       </c>
       <c r="F41" s="3">
-        <v>738800</v>
+        <v>792300</v>
       </c>
       <c r="G41" s="3">
-        <v>535300</v>
+        <v>730300</v>
       </c>
       <c r="H41" s="3">
-        <v>507500</v>
+        <v>529100</v>
       </c>
       <c r="I41" s="3">
-        <v>418700</v>
+        <v>501600</v>
       </c>
       <c r="J41" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K41" s="3">
         <v>605800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>284000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>422000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>164300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>118100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900200</v>
+        <v>793300</v>
       </c>
       <c r="E42" s="3">
-        <v>651200</v>
+        <v>889800</v>
       </c>
       <c r="F42" s="3">
-        <v>665200</v>
+        <v>643700</v>
       </c>
       <c r="G42" s="3">
-        <v>315700</v>
+        <v>657500</v>
       </c>
       <c r="H42" s="3">
-        <v>408000</v>
+        <v>312000</v>
       </c>
       <c r="I42" s="3">
-        <v>298200</v>
+        <v>403300</v>
       </c>
       <c r="J42" s="3">
+        <v>294700</v>
+      </c>
+      <c r="K42" s="3">
         <v>50300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>146700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>87400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>140900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>932800</v>
+        <v>851000</v>
       </c>
       <c r="E43" s="3">
-        <v>857000</v>
+        <v>922000</v>
       </c>
       <c r="F43" s="3">
-        <v>882800</v>
+        <v>847100</v>
       </c>
       <c r="G43" s="3">
-        <v>888400</v>
+        <v>872600</v>
       </c>
       <c r="H43" s="3">
-        <v>955100</v>
+        <v>878100</v>
       </c>
       <c r="I43" s="3">
-        <v>967600</v>
+        <v>944100</v>
       </c>
       <c r="J43" s="3">
+        <v>956400</v>
+      </c>
+      <c r="K43" s="3">
         <v>849600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>835500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>923500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>785800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>661200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>670700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39900</v>
+        <v>43300</v>
       </c>
       <c r="E44" s="3">
-        <v>45500</v>
+        <v>39500</v>
       </c>
       <c r="F44" s="3">
-        <v>44500</v>
+        <v>45000</v>
       </c>
       <c r="G44" s="3">
-        <v>59300</v>
+        <v>44000</v>
       </c>
       <c r="H44" s="3">
-        <v>48600</v>
+        <v>58600</v>
       </c>
       <c r="I44" s="3">
-        <v>40800</v>
+        <v>48000</v>
       </c>
       <c r="J44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K44" s="3">
         <v>40100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131100</v>
+        <v>182000</v>
       </c>
       <c r="E45" s="3">
-        <v>129800</v>
+        <v>129600</v>
       </c>
       <c r="F45" s="3">
-        <v>173200</v>
+        <v>128300</v>
       </c>
       <c r="G45" s="3">
-        <v>181300</v>
+        <v>171200</v>
       </c>
       <c r="H45" s="3">
-        <v>132500</v>
+        <v>179200</v>
       </c>
       <c r="I45" s="3">
-        <v>166800</v>
+        <v>130900</v>
       </c>
       <c r="J45" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K45" s="3">
         <v>101300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>121800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>206800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3034300</v>
+        <v>2649300</v>
       </c>
       <c r="E46" s="3">
-        <v>2485100</v>
+        <v>2999200</v>
       </c>
       <c r="F46" s="3">
-        <v>2504500</v>
+        <v>2456400</v>
       </c>
       <c r="G46" s="3">
-        <v>1980000</v>
+        <v>2475500</v>
       </c>
       <c r="H46" s="3">
-        <v>2051700</v>
+        <v>1957100</v>
       </c>
       <c r="I46" s="3">
-        <v>1892000</v>
+        <v>2028000</v>
       </c>
       <c r="J46" s="3">
+        <v>1870100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1647200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1283000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1561500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1258200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1056500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1229800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>677000</v>
+        <v>661600</v>
       </c>
       <c r="E47" s="3">
-        <v>402700</v>
+        <v>669100</v>
       </c>
       <c r="F47" s="3">
-        <v>340200</v>
+        <v>398000</v>
       </c>
       <c r="G47" s="3">
-        <v>387100</v>
+        <v>336300</v>
       </c>
       <c r="H47" s="3">
-        <v>447300</v>
+        <v>382600</v>
       </c>
       <c r="I47" s="3">
-        <v>415200</v>
+        <v>442100</v>
       </c>
       <c r="J47" s="3">
+        <v>410400</v>
+      </c>
+      <c r="K47" s="3">
         <v>665000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>603700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>609100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>786100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>766800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>294700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3607900</v>
+        <v>3754200</v>
       </c>
       <c r="E48" s="3">
-        <v>3439300</v>
+        <v>3566100</v>
       </c>
       <c r="F48" s="3">
-        <v>3433400</v>
+        <v>3399500</v>
       </c>
       <c r="G48" s="3">
-        <v>3634300</v>
+        <v>3393700</v>
       </c>
       <c r="H48" s="3">
-        <v>3566900</v>
+        <v>3592300</v>
       </c>
       <c r="I48" s="3">
-        <v>3420400</v>
+        <v>3525700</v>
       </c>
       <c r="J48" s="3">
+        <v>3380900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3415200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3190900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3253000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3129600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2907800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2970000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2085900</v>
+        <v>2064800</v>
       </c>
       <c r="E49" s="3">
-        <v>1427700</v>
+        <v>2061800</v>
       </c>
       <c r="F49" s="3">
-        <v>1470400</v>
+        <v>1411200</v>
       </c>
       <c r="G49" s="3">
-        <v>1738300</v>
+        <v>1453400</v>
       </c>
       <c r="H49" s="3">
-        <v>1778900</v>
+        <v>1718200</v>
       </c>
       <c r="I49" s="3">
-        <v>1776000</v>
+        <v>1758300</v>
       </c>
       <c r="J49" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1826000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1703000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1785700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1846400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1791600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1947200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412300</v>
+        <v>419400</v>
       </c>
       <c r="E52" s="3">
-        <v>911600</v>
+        <v>407600</v>
       </c>
       <c r="F52" s="3">
-        <v>894200</v>
+        <v>901000</v>
       </c>
       <c r="G52" s="3">
-        <v>362800</v>
+        <v>883800</v>
       </c>
       <c r="H52" s="3">
-        <v>363600</v>
+        <v>358600</v>
       </c>
       <c r="I52" s="3">
-        <v>337400</v>
+        <v>359400</v>
       </c>
       <c r="J52" s="3">
+        <v>333500</v>
+      </c>
+      <c r="K52" s="3">
         <v>295600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>270900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>243100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>278500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>276200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>448900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9817400</v>
+        <v>9549300</v>
       </c>
       <c r="E54" s="3">
-        <v>8666400</v>
+        <v>9703800</v>
       </c>
       <c r="F54" s="3">
-        <v>8642600</v>
+        <v>8566100</v>
       </c>
       <c r="G54" s="3">
-        <v>8102500</v>
+        <v>8542600</v>
       </c>
       <c r="H54" s="3">
-        <v>8208400</v>
+        <v>8008800</v>
       </c>
       <c r="I54" s="3">
-        <v>7841000</v>
+        <v>8113400</v>
       </c>
       <c r="J54" s="3">
+        <v>7750300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7849100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7051500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7452400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7298800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6798900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6890500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>643900</v>
+        <v>586200</v>
       </c>
       <c r="E57" s="3">
-        <v>522800</v>
+        <v>636400</v>
       </c>
       <c r="F57" s="3">
-        <v>510400</v>
+        <v>516800</v>
       </c>
       <c r="G57" s="3">
-        <v>524400</v>
+        <v>504500</v>
       </c>
       <c r="H57" s="3">
-        <v>616500</v>
+        <v>518400</v>
       </c>
       <c r="I57" s="3">
-        <v>428800</v>
+        <v>609400</v>
       </c>
       <c r="J57" s="3">
+        <v>423900</v>
+      </c>
+      <c r="K57" s="3">
         <v>407700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>470400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>724600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>548300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>512000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>707700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>356300</v>
+        <v>262800</v>
       </c>
       <c r="E58" s="3">
-        <v>351300</v>
+        <v>352200</v>
       </c>
       <c r="F58" s="3">
-        <v>518700</v>
+        <v>347200</v>
       </c>
       <c r="G58" s="3">
-        <v>663800</v>
+        <v>512700</v>
       </c>
       <c r="H58" s="3">
-        <v>540800</v>
+        <v>656100</v>
       </c>
       <c r="I58" s="3">
-        <v>549500</v>
+        <v>534500</v>
       </c>
       <c r="J58" s="3">
+        <v>543200</v>
+      </c>
+      <c r="K58" s="3">
         <v>513900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>363300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>416900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>432400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>233000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>249900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1090900</v>
+        <v>852900</v>
       </c>
       <c r="E59" s="3">
-        <v>471800</v>
+        <v>1078300</v>
       </c>
       <c r="F59" s="3">
-        <v>470300</v>
+        <v>466300</v>
       </c>
       <c r="G59" s="3">
-        <v>369200</v>
+        <v>464900</v>
       </c>
       <c r="H59" s="3">
-        <v>478700</v>
+        <v>364900</v>
       </c>
       <c r="I59" s="3">
-        <v>336100</v>
+        <v>473100</v>
       </c>
       <c r="J59" s="3">
+        <v>332200</v>
+      </c>
+      <c r="K59" s="3">
         <v>307800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>229800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>357800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>383300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>256100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>261700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2091100</v>
+        <v>1701900</v>
       </c>
       <c r="E60" s="3">
-        <v>1345900</v>
+        <v>2066900</v>
       </c>
       <c r="F60" s="3">
-        <v>1499400</v>
+        <v>1330300</v>
       </c>
       <c r="G60" s="3">
-        <v>1557400</v>
+        <v>1482000</v>
       </c>
       <c r="H60" s="3">
-        <v>1636000</v>
+        <v>1539400</v>
       </c>
       <c r="I60" s="3">
-        <v>1314500</v>
+        <v>1617100</v>
       </c>
       <c r="J60" s="3">
+        <v>1299200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1229400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1063500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1499300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1364000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1001100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1219300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2187500</v>
+        <v>2302800</v>
       </c>
       <c r="E61" s="3">
-        <v>1999000</v>
+        <v>2162200</v>
       </c>
       <c r="F61" s="3">
-        <v>1974200</v>
+        <v>1975900</v>
       </c>
       <c r="G61" s="3">
-        <v>1492600</v>
+        <v>1951400</v>
       </c>
       <c r="H61" s="3">
-        <v>1572500</v>
+        <v>1475300</v>
       </c>
       <c r="I61" s="3">
-        <v>1512300</v>
+        <v>1554300</v>
       </c>
       <c r="J61" s="3">
+        <v>1494800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1638000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1534300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1395000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1393500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1461300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1503800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>591200</v>
+        <v>609300</v>
       </c>
       <c r="E62" s="3">
-        <v>465500</v>
+        <v>584300</v>
       </c>
       <c r="F62" s="3">
-        <v>484000</v>
+        <v>460200</v>
       </c>
       <c r="G62" s="3">
-        <v>428800</v>
+        <v>478400</v>
       </c>
       <c r="H62" s="3">
-        <v>431600</v>
+        <v>423800</v>
       </c>
       <c r="I62" s="3">
-        <v>432700</v>
+        <v>426600</v>
       </c>
       <c r="J62" s="3">
+        <v>427700</v>
+      </c>
+      <c r="K62" s="3">
         <v>479400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>421400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>415000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>459000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>451600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>440000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4869800</v>
+        <v>4614000</v>
       </c>
       <c r="E66" s="3">
-        <v>3810500</v>
+        <v>4813400</v>
       </c>
       <c r="F66" s="3">
-        <v>3957600</v>
+        <v>3766400</v>
       </c>
       <c r="G66" s="3">
-        <v>3478800</v>
+        <v>3911800</v>
       </c>
       <c r="H66" s="3">
-        <v>3640000</v>
+        <v>3438500</v>
       </c>
       <c r="I66" s="3">
-        <v>3259500</v>
+        <v>3597900</v>
       </c>
       <c r="J66" s="3">
+        <v>3221800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3346700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3019200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3309300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3216600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2914000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3163100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2223800</v>
+        <v>2243000</v>
       </c>
       <c r="E72" s="3">
-        <v>2132300</v>
+        <v>2198000</v>
       </c>
       <c r="F72" s="3">
-        <v>1964300</v>
+        <v>2107600</v>
       </c>
       <c r="G72" s="3">
-        <v>1899600</v>
+        <v>1941600</v>
       </c>
       <c r="H72" s="3">
-        <v>1844700</v>
+        <v>1877600</v>
       </c>
       <c r="I72" s="3">
-        <v>1856600</v>
+        <v>1823300</v>
       </c>
       <c r="J72" s="3">
+        <v>1835100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2161300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2204900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2251400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2160900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2071600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1811200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4947600</v>
+        <v>4935300</v>
       </c>
       <c r="E76" s="3">
-        <v>4855900</v>
+        <v>4890400</v>
       </c>
       <c r="F76" s="3">
-        <v>4685000</v>
+        <v>4799700</v>
       </c>
       <c r="G76" s="3">
-        <v>4623700</v>
+        <v>4630800</v>
       </c>
       <c r="H76" s="3">
-        <v>4568400</v>
+        <v>4570200</v>
       </c>
       <c r="I76" s="3">
-        <v>4581500</v>
+        <v>4515500</v>
       </c>
       <c r="J76" s="3">
+        <v>4528500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4502400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4032300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4143200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4082200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3884900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3727500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200100</v>
+        <v>79000</v>
       </c>
       <c r="E81" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F81" s="3">
-        <v>132500</v>
+        <v>193400</v>
       </c>
       <c r="G81" s="3">
-        <v>54600</v>
+        <v>130900</v>
       </c>
       <c r="H81" s="3">
-        <v>199700</v>
+        <v>53900</v>
       </c>
       <c r="I81" s="3">
-        <v>76900</v>
+        <v>197400</v>
       </c>
       <c r="J81" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K81" s="3">
         <v>86800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>169600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>358100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>283000</v>
+        <v>272600</v>
       </c>
       <c r="E83" s="3">
-        <v>276700</v>
+        <v>279700</v>
       </c>
       <c r="F83" s="3">
-        <v>280600</v>
+        <v>273500</v>
       </c>
       <c r="G83" s="3">
-        <v>281400</v>
+        <v>277400</v>
       </c>
       <c r="H83" s="3">
-        <v>271700</v>
+        <v>278100</v>
       </c>
       <c r="I83" s="3">
-        <v>274000</v>
+        <v>268600</v>
       </c>
       <c r="J83" s="3">
+        <v>270800</v>
+      </c>
+      <c r="K83" s="3">
         <v>543500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>251500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>195800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>269500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>229800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>249700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>615500</v>
+        <v>218100</v>
       </c>
       <c r="E89" s="3">
+        <v>608300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>540100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>434800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>379700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>720400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>426300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>549100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>666100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>394600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>187500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>55400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>546400</v>
       </c>
-      <c r="F89" s="3">
-        <v>439900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>384200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>728800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>431300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>549100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>87000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>666100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>394600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>187500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>55400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>546400</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-425100</v>
+        <v>-258700</v>
       </c>
       <c r="E91" s="3">
-        <v>-176700</v>
+        <v>-420200</v>
       </c>
       <c r="F91" s="3">
-        <v>-178500</v>
+        <v>-174600</v>
       </c>
       <c r="G91" s="3">
-        <v>-260900</v>
+        <v>-176400</v>
       </c>
       <c r="H91" s="3">
-        <v>-288500</v>
+        <v>-257900</v>
       </c>
       <c r="I91" s="3">
-        <v>-167500</v>
+        <v>-285100</v>
       </c>
       <c r="J91" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-310800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-161400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-246500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-173300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-167300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-121700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-459400</v>
+        <v>-161900</v>
       </c>
       <c r="E94" s="3">
-        <v>-162700</v>
+        <v>-454100</v>
       </c>
       <c r="F94" s="3">
-        <v>-527700</v>
+        <v>-160900</v>
       </c>
       <c r="G94" s="3">
-        <v>-168400</v>
+        <v>-521600</v>
       </c>
       <c r="H94" s="3">
-        <v>-398200</v>
+        <v>-166400</v>
       </c>
       <c r="I94" s="3">
-        <v>-413200</v>
+        <v>-393600</v>
       </c>
       <c r="J94" s="3">
+        <v>-408500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-231700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-222900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-226400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-121600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-114600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41700</v>
+        <v>-92500</v>
       </c>
       <c r="E96" s="3">
-        <v>-58500</v>
+        <v>-41300</v>
       </c>
       <c r="F96" s="3">
-        <v>-9400</v>
+        <v>-57800</v>
       </c>
       <c r="G96" s="3">
-        <v>-95900</v>
+        <v>-9300</v>
       </c>
       <c r="H96" s="3">
-        <v>-109500</v>
+        <v>-94800</v>
       </c>
       <c r="I96" s="3">
-        <v>-5800</v>
+        <v>-108200</v>
       </c>
       <c r="J96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-112000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-101300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-67300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-64200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>72800</v>
+        <v>-294900</v>
       </c>
       <c r="E100" s="3">
-        <v>-320900</v>
+        <v>71900</v>
       </c>
       <c r="F100" s="3">
-        <v>291200</v>
+        <v>-317200</v>
       </c>
       <c r="G100" s="3">
-        <v>-188000</v>
+        <v>287900</v>
       </c>
       <c r="H100" s="3">
-        <v>-241900</v>
+        <v>-185800</v>
       </c>
       <c r="I100" s="3">
-        <v>-205000</v>
+        <v>-239100</v>
       </c>
       <c r="J100" s="3">
+        <v>-202700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-161800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-160300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-183000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-129100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>228800</v>
+        <v>-238700</v>
       </c>
       <c r="E102" s="3">
-        <v>62800</v>
+        <v>226100</v>
       </c>
       <c r="F102" s="3">
-        <v>203500</v>
+        <v>62000</v>
       </c>
       <c r="G102" s="3">
-        <v>27800</v>
+        <v>201100</v>
       </c>
       <c r="H102" s="3">
-        <v>88800</v>
+        <v>27500</v>
       </c>
       <c r="I102" s="3">
-        <v>-187000</v>
+        <v>87800</v>
       </c>
       <c r="J102" s="3">
+        <v>-184800</v>
+      </c>
+      <c r="K102" s="3">
         <v>155600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-123900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>260200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>920800</v>
+        <v>1050500</v>
       </c>
       <c r="E8" s="3">
-        <v>934800</v>
+        <v>925100</v>
       </c>
       <c r="F8" s="3">
-        <v>878800</v>
+        <v>939300</v>
       </c>
       <c r="G8" s="3">
-        <v>858400</v>
+        <v>883000</v>
       </c>
       <c r="H8" s="3">
-        <v>845300</v>
+        <v>862400</v>
       </c>
       <c r="I8" s="3">
-        <v>911200</v>
+        <v>849300</v>
       </c>
       <c r="J8" s="3">
+        <v>915500</v>
+      </c>
+      <c r="K8" s="3">
         <v>854600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1616400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>752500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>847100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>813600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>754800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>784200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>579200</v>
+        <v>680600</v>
       </c>
       <c r="E9" s="3">
-        <v>544200</v>
+        <v>582000</v>
       </c>
       <c r="F9" s="3">
-        <v>528200</v>
+        <v>546800</v>
       </c>
       <c r="G9" s="3">
-        <v>525500</v>
+        <v>530700</v>
       </c>
       <c r="H9" s="3">
-        <v>520400</v>
+        <v>528000</v>
       </c>
       <c r="I9" s="3">
-        <v>412300</v>
+        <v>522800</v>
       </c>
       <c r="J9" s="3">
+        <v>414300</v>
+      </c>
+      <c r="K9" s="3">
         <v>399500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1122400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>350200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>366300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>329200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>366300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>341500</v>
+        <v>369900</v>
       </c>
       <c r="E10" s="3">
-        <v>390600</v>
+        <v>343200</v>
       </c>
       <c r="F10" s="3">
-        <v>350600</v>
+        <v>392500</v>
       </c>
       <c r="G10" s="3">
-        <v>332900</v>
+        <v>352300</v>
       </c>
       <c r="H10" s="3">
-        <v>325000</v>
+        <v>334500</v>
       </c>
       <c r="I10" s="3">
-        <v>498800</v>
+        <v>326500</v>
       </c>
       <c r="J10" s="3">
+        <v>501200</v>
+      </c>
+      <c r="K10" s="3">
         <v>455100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>494000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>402400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>539800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>447200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>425600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>417900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="3">
         <v>9500</v>
       </c>
-      <c r="E14" s="3">
-        <v>6700</v>
-      </c>
       <c r="F14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
-        <v>14000</v>
-      </c>
       <c r="H14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I14" s="3">
         <v>9800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11700</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38100</v>
+        <v>36600</v>
       </c>
       <c r="E15" s="3">
-        <v>39600</v>
+        <v>38300</v>
       </c>
       <c r="F15" s="3">
-        <v>40800</v>
+        <v>39800</v>
       </c>
       <c r="G15" s="3">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="H15" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="I15" s="3">
-        <v>43600</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>43300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>44300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>785400</v>
+        <v>907200</v>
       </c>
       <c r="E17" s="3">
-        <v>595000</v>
+        <v>789100</v>
       </c>
       <c r="F17" s="3">
-        <v>731700</v>
+        <v>597800</v>
       </c>
       <c r="G17" s="3">
-        <v>729200</v>
+        <v>735200</v>
       </c>
       <c r="H17" s="3">
-        <v>729900</v>
+        <v>732600</v>
       </c>
       <c r="I17" s="3">
-        <v>721400</v>
+        <v>733300</v>
       </c>
       <c r="J17" s="3">
+        <v>724800</v>
+      </c>
+      <c r="K17" s="3">
         <v>721600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1388200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>660600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>616100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>690200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>372700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135400</v>
+        <v>143300</v>
       </c>
       <c r="E18" s="3">
-        <v>339900</v>
+        <v>136000</v>
       </c>
       <c r="F18" s="3">
-        <v>147100</v>
+        <v>341500</v>
       </c>
       <c r="G18" s="3">
-        <v>129200</v>
+        <v>147800</v>
       </c>
       <c r="H18" s="3">
-        <v>115400</v>
+        <v>129800</v>
       </c>
       <c r="I18" s="3">
-        <v>189800</v>
+        <v>116000</v>
       </c>
       <c r="J18" s="3">
+        <v>190700</v>
+      </c>
+      <c r="K18" s="3">
         <v>133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>382100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
-        <v>19600</v>
-      </c>
       <c r="F20" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
-        <v>36700</v>
-      </c>
       <c r="H20" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="I20" s="3">
-        <v>29400</v>
-      </c>
       <c r="J20" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-56900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>179600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>414900</v>
+        <v>454300</v>
       </c>
       <c r="E21" s="3">
-        <v>639200</v>
+        <v>416800</v>
       </c>
       <c r="F21" s="3">
-        <v>425800</v>
+        <v>642200</v>
       </c>
       <c r="G21" s="3">
-        <v>443300</v>
+        <v>427800</v>
       </c>
       <c r="H21" s="3">
-        <v>388700</v>
+        <v>445400</v>
       </c>
       <c r="I21" s="3">
-        <v>487700</v>
+        <v>390600</v>
       </c>
       <c r="J21" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K21" s="3">
         <v>356300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>714700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>333700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>427400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>388300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>791500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>327300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55300</v>
+        <v>66300</v>
       </c>
       <c r="E22" s="3">
-        <v>54700</v>
+        <v>55500</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>55000</v>
       </c>
       <c r="G22" s="3">
-        <v>43800</v>
+        <v>46500</v>
       </c>
       <c r="H22" s="3">
-        <v>39100</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
-        <v>38000</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>39300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87000</v>
+        <v>57400</v>
       </c>
       <c r="E23" s="3">
-        <v>304800</v>
+        <v>87500</v>
       </c>
       <c r="F23" s="3">
-        <v>106000</v>
+        <v>306200</v>
       </c>
       <c r="G23" s="3">
-        <v>122100</v>
+        <v>106500</v>
       </c>
       <c r="H23" s="3">
-        <v>71500</v>
+        <v>122700</v>
       </c>
       <c r="I23" s="3">
-        <v>181200</v>
+        <v>71900</v>
       </c>
       <c r="J23" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K23" s="3">
         <v>85500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>125800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>187500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>521300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
-        <v>107000</v>
-      </c>
       <c r="F24" s="3">
-        <v>-87400</v>
+        <v>107500</v>
       </c>
       <c r="G24" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-8800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="M24" s="3">
         <v>17600</v>
       </c>
-      <c r="I24" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>39000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17600</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>163300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79000</v>
+        <v>54700</v>
       </c>
       <c r="E26" s="3">
-        <v>197800</v>
+        <v>79300</v>
       </c>
       <c r="F26" s="3">
-        <v>193400</v>
+        <v>198700</v>
       </c>
       <c r="G26" s="3">
-        <v>130900</v>
+        <v>194300</v>
       </c>
       <c r="H26" s="3">
-        <v>53900</v>
+        <v>131600</v>
       </c>
       <c r="I26" s="3">
-        <v>197400</v>
+        <v>54200</v>
       </c>
       <c r="J26" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K26" s="3">
         <v>76000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>169600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>105400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>358100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79000</v>
+        <v>54700</v>
       </c>
       <c r="E27" s="3">
-        <v>197800</v>
+        <v>79300</v>
       </c>
       <c r="F27" s="3">
-        <v>193400</v>
+        <v>198700</v>
       </c>
       <c r="G27" s="3">
-        <v>130900</v>
+        <v>194300</v>
       </c>
       <c r="H27" s="3">
-        <v>53900</v>
+        <v>131600</v>
       </c>
       <c r="I27" s="3">
-        <v>197400</v>
+        <v>54200</v>
       </c>
       <c r="J27" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K27" s="3">
         <v>76000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>86800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>169600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>105400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>358100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-19600</v>
-      </c>
       <c r="F32" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-36700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-29400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K32" s="3">
         <v>47500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>56900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-179600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79000</v>
+        <v>54700</v>
       </c>
       <c r="E33" s="3">
-        <v>197800</v>
+        <v>79300</v>
       </c>
       <c r="F33" s="3">
-        <v>193400</v>
+        <v>198700</v>
       </c>
       <c r="G33" s="3">
-        <v>130900</v>
+        <v>194300</v>
       </c>
       <c r="H33" s="3">
-        <v>53900</v>
+        <v>131600</v>
       </c>
       <c r="I33" s="3">
-        <v>197400</v>
+        <v>54200</v>
       </c>
       <c r="J33" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K33" s="3">
         <v>76000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>86800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>169600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>358100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79000</v>
+        <v>54700</v>
       </c>
       <c r="E35" s="3">
-        <v>197800</v>
+        <v>79300</v>
       </c>
       <c r="F35" s="3">
-        <v>193400</v>
+        <v>198700</v>
       </c>
       <c r="G35" s="3">
-        <v>130900</v>
+        <v>194300</v>
       </c>
       <c r="H35" s="3">
-        <v>53900</v>
+        <v>131600</v>
       </c>
       <c r="I35" s="3">
-        <v>197400</v>
+        <v>54200</v>
       </c>
       <c r="J35" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K35" s="3">
         <v>76000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>169600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>358100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>779700</v>
+        <v>234600</v>
       </c>
       <c r="E41" s="3">
-        <v>1018400</v>
+        <v>783400</v>
       </c>
       <c r="F41" s="3">
-        <v>792300</v>
+        <v>1023200</v>
       </c>
       <c r="G41" s="3">
-        <v>730300</v>
+        <v>796000</v>
       </c>
       <c r="H41" s="3">
-        <v>529100</v>
+        <v>733700</v>
       </c>
       <c r="I41" s="3">
-        <v>501600</v>
+        <v>531600</v>
       </c>
       <c r="J41" s="3">
+        <v>504000</v>
+      </c>
+      <c r="K41" s="3">
         <v>413900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>605800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>284000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>422000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>164300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>118100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>793300</v>
+        <v>212900</v>
       </c>
       <c r="E42" s="3">
-        <v>889800</v>
+        <v>797000</v>
       </c>
       <c r="F42" s="3">
-        <v>643700</v>
+        <v>894000</v>
       </c>
       <c r="G42" s="3">
-        <v>657500</v>
+        <v>646700</v>
       </c>
       <c r="H42" s="3">
-        <v>312000</v>
+        <v>660600</v>
       </c>
       <c r="I42" s="3">
-        <v>403300</v>
+        <v>313500</v>
       </c>
       <c r="J42" s="3">
+        <v>405200</v>
+      </c>
+      <c r="K42" s="3">
         <v>294700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>120900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>146700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>87400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>140900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>851000</v>
+        <v>936300</v>
       </c>
       <c r="E43" s="3">
-        <v>922000</v>
+        <v>855100</v>
       </c>
       <c r="F43" s="3">
-        <v>847100</v>
+        <v>926300</v>
       </c>
       <c r="G43" s="3">
-        <v>872600</v>
+        <v>851100</v>
       </c>
       <c r="H43" s="3">
-        <v>878100</v>
+        <v>876700</v>
       </c>
       <c r="I43" s="3">
-        <v>944100</v>
+        <v>882200</v>
       </c>
       <c r="J43" s="3">
+        <v>948600</v>
+      </c>
+      <c r="K43" s="3">
         <v>956400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>849600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>835500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>923500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>785800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>661200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>670700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43300</v>
+        <v>54800</v>
       </c>
       <c r="E44" s="3">
-        <v>39500</v>
+        <v>43500</v>
       </c>
       <c r="F44" s="3">
-        <v>45000</v>
+        <v>39600</v>
       </c>
       <c r="G44" s="3">
-        <v>44000</v>
+        <v>45200</v>
       </c>
       <c r="H44" s="3">
-        <v>58600</v>
+        <v>44200</v>
       </c>
       <c r="I44" s="3">
-        <v>48000</v>
+        <v>58900</v>
       </c>
       <c r="J44" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K44" s="3">
         <v>40300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>182000</v>
+        <v>273100</v>
       </c>
       <c r="E45" s="3">
-        <v>129600</v>
+        <v>182800</v>
       </c>
       <c r="F45" s="3">
-        <v>128300</v>
+        <v>130200</v>
       </c>
       <c r="G45" s="3">
-        <v>171200</v>
+        <v>128900</v>
       </c>
       <c r="H45" s="3">
-        <v>179200</v>
+        <v>172000</v>
       </c>
       <c r="I45" s="3">
-        <v>130900</v>
+        <v>180100</v>
       </c>
       <c r="J45" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K45" s="3">
         <v>164900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>121800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>206800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2649300</v>
+        <v>1711600</v>
       </c>
       <c r="E46" s="3">
-        <v>2999200</v>
+        <v>2661800</v>
       </c>
       <c r="F46" s="3">
-        <v>2456400</v>
+        <v>3013400</v>
       </c>
       <c r="G46" s="3">
-        <v>2475500</v>
+        <v>2468000</v>
       </c>
       <c r="H46" s="3">
-        <v>1957100</v>
+        <v>2487200</v>
       </c>
       <c r="I46" s="3">
-        <v>2028000</v>
+        <v>1966300</v>
       </c>
       <c r="J46" s="3">
+        <v>2037500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1870100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1647200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1283000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1561500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1258200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1056500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1229800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>661600</v>
+        <v>667600</v>
       </c>
       <c r="E47" s="3">
-        <v>669100</v>
+        <v>664800</v>
       </c>
       <c r="F47" s="3">
-        <v>398000</v>
+        <v>672300</v>
       </c>
       <c r="G47" s="3">
-        <v>336300</v>
+        <v>399900</v>
       </c>
       <c r="H47" s="3">
-        <v>382600</v>
+        <v>337800</v>
       </c>
       <c r="I47" s="3">
-        <v>442100</v>
+        <v>384400</v>
       </c>
       <c r="J47" s="3">
+        <v>444200</v>
+      </c>
+      <c r="K47" s="3">
         <v>410400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>665000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>603700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>609100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>786100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>766800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>294700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3754200</v>
+        <v>4627700</v>
       </c>
       <c r="E48" s="3">
-        <v>3566100</v>
+        <v>3771900</v>
       </c>
       <c r="F48" s="3">
-        <v>3399500</v>
+        <v>3583000</v>
       </c>
       <c r="G48" s="3">
-        <v>3393700</v>
+        <v>3415500</v>
       </c>
       <c r="H48" s="3">
-        <v>3592300</v>
+        <v>3409700</v>
       </c>
       <c r="I48" s="3">
-        <v>3525700</v>
+        <v>3609200</v>
       </c>
       <c r="J48" s="3">
+        <v>3542300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3380900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3415200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3190900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3253000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3129600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2907800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2970000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2064800</v>
+        <v>3081300</v>
       </c>
       <c r="E49" s="3">
-        <v>2061800</v>
+        <v>2074500</v>
       </c>
       <c r="F49" s="3">
-        <v>1411200</v>
+        <v>2071500</v>
       </c>
       <c r="G49" s="3">
-        <v>1453400</v>
+        <v>1417900</v>
       </c>
       <c r="H49" s="3">
-        <v>1718200</v>
+        <v>1460200</v>
       </c>
       <c r="I49" s="3">
-        <v>1758300</v>
+        <v>1726300</v>
       </c>
       <c r="J49" s="3">
+        <v>1766600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1755400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1826000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1703000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1785700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1846400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1791600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1947200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>419400</v>
+        <v>539700</v>
       </c>
       <c r="E52" s="3">
-        <v>407600</v>
+        <v>421400</v>
       </c>
       <c r="F52" s="3">
-        <v>901000</v>
+        <v>409500</v>
       </c>
       <c r="G52" s="3">
-        <v>883800</v>
+        <v>905300</v>
       </c>
       <c r="H52" s="3">
-        <v>358600</v>
+        <v>888000</v>
       </c>
       <c r="I52" s="3">
-        <v>359400</v>
+        <v>360300</v>
       </c>
       <c r="J52" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K52" s="3">
         <v>333500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>295600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>270900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>243100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>278500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>276200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>448900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9549300</v>
+        <v>10627900</v>
       </c>
       <c r="E54" s="3">
-        <v>9703800</v>
+        <v>9594500</v>
       </c>
       <c r="F54" s="3">
-        <v>8566100</v>
+        <v>9749600</v>
       </c>
       <c r="G54" s="3">
-        <v>8542600</v>
+        <v>8606600</v>
       </c>
       <c r="H54" s="3">
-        <v>8008800</v>
+        <v>8583000</v>
       </c>
       <c r="I54" s="3">
-        <v>8113400</v>
+        <v>8046600</v>
       </c>
       <c r="J54" s="3">
+        <v>8151800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7750300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7849100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7051500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7452400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7298800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6798900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6890500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>586200</v>
+        <v>799100</v>
       </c>
       <c r="E57" s="3">
-        <v>636400</v>
+        <v>589000</v>
       </c>
       <c r="F57" s="3">
-        <v>516800</v>
+        <v>639400</v>
       </c>
       <c r="G57" s="3">
-        <v>504500</v>
+        <v>519200</v>
       </c>
       <c r="H57" s="3">
-        <v>518400</v>
+        <v>506900</v>
       </c>
       <c r="I57" s="3">
-        <v>609400</v>
+        <v>520800</v>
       </c>
       <c r="J57" s="3">
+        <v>612300</v>
+      </c>
+      <c r="K57" s="3">
         <v>423900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>407700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>470400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>724600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>548300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>512000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>707700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>262800</v>
+        <v>380800</v>
       </c>
       <c r="E58" s="3">
-        <v>352200</v>
+        <v>264000</v>
       </c>
       <c r="F58" s="3">
-        <v>347200</v>
+        <v>353900</v>
       </c>
       <c r="G58" s="3">
-        <v>512700</v>
+        <v>348800</v>
       </c>
       <c r="H58" s="3">
-        <v>656100</v>
+        <v>515100</v>
       </c>
       <c r="I58" s="3">
-        <v>534500</v>
+        <v>659200</v>
       </c>
       <c r="J58" s="3">
+        <v>537000</v>
+      </c>
+      <c r="K58" s="3">
         <v>543200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>513900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>363300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>416900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>432400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>233000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>249900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>852900</v>
+        <v>713300</v>
       </c>
       <c r="E59" s="3">
-        <v>1078300</v>
+        <v>856900</v>
       </c>
       <c r="F59" s="3">
-        <v>466300</v>
+        <v>1083300</v>
       </c>
       <c r="G59" s="3">
-        <v>464900</v>
+        <v>468500</v>
       </c>
       <c r="H59" s="3">
-        <v>364900</v>
+        <v>467100</v>
       </c>
       <c r="I59" s="3">
-        <v>473100</v>
+        <v>366600</v>
       </c>
       <c r="J59" s="3">
+        <v>475400</v>
+      </c>
+      <c r="K59" s="3">
         <v>332200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>307800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>229800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>357800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>383300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>256100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>261700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1701900</v>
+        <v>1893200</v>
       </c>
       <c r="E60" s="3">
-        <v>2066900</v>
+        <v>1710000</v>
       </c>
       <c r="F60" s="3">
-        <v>1330300</v>
+        <v>2076700</v>
       </c>
       <c r="G60" s="3">
-        <v>1482000</v>
+        <v>1336600</v>
       </c>
       <c r="H60" s="3">
-        <v>1539400</v>
+        <v>1489000</v>
       </c>
       <c r="I60" s="3">
-        <v>1617100</v>
+        <v>1546600</v>
       </c>
       <c r="J60" s="3">
+        <v>1624700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1299200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1229400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1063500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1499300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1364000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1001100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1219300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2302800</v>
+        <v>3042700</v>
       </c>
       <c r="E61" s="3">
-        <v>2162200</v>
+        <v>2313700</v>
       </c>
       <c r="F61" s="3">
-        <v>1975900</v>
+        <v>2172400</v>
       </c>
       <c r="G61" s="3">
-        <v>1951400</v>
+        <v>1985200</v>
       </c>
       <c r="H61" s="3">
-        <v>1475300</v>
+        <v>1960600</v>
       </c>
       <c r="I61" s="3">
-        <v>1554300</v>
+        <v>1482300</v>
       </c>
       <c r="J61" s="3">
+        <v>1561600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1494800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1638000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1534300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1395000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1393500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1461300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1503800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>609300</v>
+        <v>734600</v>
       </c>
       <c r="E62" s="3">
-        <v>584300</v>
+        <v>612200</v>
       </c>
       <c r="F62" s="3">
-        <v>460200</v>
+        <v>587100</v>
       </c>
       <c r="G62" s="3">
-        <v>478400</v>
+        <v>462300</v>
       </c>
       <c r="H62" s="3">
-        <v>423800</v>
+        <v>480700</v>
       </c>
       <c r="I62" s="3">
-        <v>426600</v>
+        <v>425800</v>
       </c>
       <c r="J62" s="3">
+        <v>428600</v>
+      </c>
+      <c r="K62" s="3">
         <v>427700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>479400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>421400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>415000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>459000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>451600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>440000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4614000</v>
+        <v>5670500</v>
       </c>
       <c r="E66" s="3">
-        <v>4813400</v>
+        <v>4635800</v>
       </c>
       <c r="F66" s="3">
-        <v>3766400</v>
+        <v>4836200</v>
       </c>
       <c r="G66" s="3">
-        <v>3911800</v>
+        <v>3784200</v>
       </c>
       <c r="H66" s="3">
-        <v>3438500</v>
+        <v>3930300</v>
       </c>
       <c r="I66" s="3">
-        <v>3597900</v>
+        <v>3454800</v>
       </c>
       <c r="J66" s="3">
+        <v>3614900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3221800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3346700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3019200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3309300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3216600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2914000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3163100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2243000</v>
+        <v>2257200</v>
       </c>
       <c r="E72" s="3">
-        <v>2198000</v>
+        <v>2253600</v>
       </c>
       <c r="F72" s="3">
-        <v>2107600</v>
+        <v>2208400</v>
       </c>
       <c r="G72" s="3">
-        <v>1941600</v>
+        <v>2117600</v>
       </c>
       <c r="H72" s="3">
-        <v>1877600</v>
+        <v>1950700</v>
       </c>
       <c r="I72" s="3">
-        <v>1823300</v>
+        <v>1886500</v>
       </c>
       <c r="J72" s="3">
+        <v>1831900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1835100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2161300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2204900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2251400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2160900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2071600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1811200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4935300</v>
+        <v>4957400</v>
       </c>
       <c r="E76" s="3">
-        <v>4890400</v>
+        <v>4958600</v>
       </c>
       <c r="F76" s="3">
-        <v>4799700</v>
+        <v>4913500</v>
       </c>
       <c r="G76" s="3">
-        <v>4630800</v>
+        <v>4822400</v>
       </c>
       <c r="H76" s="3">
-        <v>4570200</v>
+        <v>4652700</v>
       </c>
       <c r="I76" s="3">
-        <v>4515500</v>
+        <v>4591800</v>
       </c>
       <c r="J76" s="3">
+        <v>4536900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4528500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4502400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4032300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4143200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4082200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3884900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3727500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79000</v>
+        <v>54700</v>
       </c>
       <c r="E81" s="3">
-        <v>197800</v>
+        <v>79300</v>
       </c>
       <c r="F81" s="3">
-        <v>193400</v>
+        <v>198700</v>
       </c>
       <c r="G81" s="3">
-        <v>130900</v>
+        <v>194300</v>
       </c>
       <c r="H81" s="3">
-        <v>53900</v>
+        <v>131600</v>
       </c>
       <c r="I81" s="3">
-        <v>197400</v>
+        <v>54200</v>
       </c>
       <c r="J81" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K81" s="3">
         <v>76000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>86800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>169600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>358100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>272600</v>
+        <v>330600</v>
       </c>
       <c r="E83" s="3">
-        <v>279700</v>
+        <v>273800</v>
       </c>
       <c r="F83" s="3">
-        <v>273500</v>
+        <v>281000</v>
       </c>
       <c r="G83" s="3">
-        <v>277400</v>
+        <v>274800</v>
       </c>
       <c r="H83" s="3">
-        <v>278100</v>
+        <v>278700</v>
       </c>
       <c r="I83" s="3">
-        <v>268600</v>
+        <v>279400</v>
       </c>
       <c r="J83" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K83" s="3">
         <v>270800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>543500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>251500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>195800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>269500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>229800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>249700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>218100</v>
+        <v>261200</v>
       </c>
       <c r="E89" s="3">
-        <v>608300</v>
+        <v>219100</v>
       </c>
       <c r="F89" s="3">
-        <v>540100</v>
+        <v>611200</v>
       </c>
       <c r="G89" s="3">
-        <v>434800</v>
+        <v>542600</v>
       </c>
       <c r="H89" s="3">
-        <v>379700</v>
+        <v>436900</v>
       </c>
       <c r="I89" s="3">
-        <v>720400</v>
+        <v>381500</v>
       </c>
       <c r="J89" s="3">
+        <v>723800</v>
+      </c>
+      <c r="K89" s="3">
         <v>426300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>549100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>666100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>394600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>187500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>55400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-258700</v>
+        <v>-205400</v>
       </c>
       <c r="E91" s="3">
-        <v>-420200</v>
+        <v>-259900</v>
       </c>
       <c r="F91" s="3">
-        <v>-174600</v>
+        <v>-422200</v>
       </c>
       <c r="G91" s="3">
-        <v>-176400</v>
+        <v>-175400</v>
       </c>
       <c r="H91" s="3">
-        <v>-257900</v>
+        <v>-177200</v>
       </c>
       <c r="I91" s="3">
-        <v>-285100</v>
+        <v>-259100</v>
       </c>
       <c r="J91" s="3">
+        <v>-286500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-165600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-310800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-161400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-246500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-173300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-167300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-121700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161900</v>
+        <v>-840000</v>
       </c>
       <c r="E94" s="3">
-        <v>-454100</v>
+        <v>-162700</v>
       </c>
       <c r="F94" s="3">
-        <v>-160900</v>
+        <v>-456300</v>
       </c>
       <c r="G94" s="3">
-        <v>-521600</v>
+        <v>-161600</v>
       </c>
       <c r="H94" s="3">
-        <v>-166400</v>
+        <v>-524000</v>
       </c>
       <c r="I94" s="3">
-        <v>-393600</v>
+        <v>-167200</v>
       </c>
       <c r="J94" s="3">
+        <v>-395400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-408500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-231700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-222900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-226400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-121600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-114600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92500</v>
+        <v>-37600</v>
       </c>
       <c r="E96" s="3">
-        <v>-41300</v>
+        <v>-93000</v>
       </c>
       <c r="F96" s="3">
-        <v>-57800</v>
+        <v>-41400</v>
       </c>
       <c r="G96" s="3">
-        <v>-9300</v>
+        <v>-58100</v>
       </c>
       <c r="H96" s="3">
-        <v>-94800</v>
+        <v>-9400</v>
       </c>
       <c r="I96" s="3">
-        <v>-108200</v>
+        <v>-95200</v>
       </c>
       <c r="J96" s="3">
+        <v>-108700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-112000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-101300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-67300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-294900</v>
+        <v>30000</v>
       </c>
       <c r="E100" s="3">
-        <v>71900</v>
+        <v>-296300</v>
       </c>
       <c r="F100" s="3">
-        <v>-317200</v>
+        <v>72300</v>
       </c>
       <c r="G100" s="3">
-        <v>287900</v>
+        <v>-318700</v>
       </c>
       <c r="H100" s="3">
-        <v>-185800</v>
+        <v>289200</v>
       </c>
       <c r="I100" s="3">
-        <v>-239100</v>
+        <v>-186700</v>
       </c>
       <c r="J100" s="3">
+        <v>-240200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-202700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-161800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-160300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-183000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-129100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>29200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-238700</v>
+        <v>-548800</v>
       </c>
       <c r="E102" s="3">
-        <v>226100</v>
+        <v>-239900</v>
       </c>
       <c r="F102" s="3">
-        <v>62000</v>
+        <v>227200</v>
       </c>
       <c r="G102" s="3">
-        <v>201100</v>
+        <v>62300</v>
       </c>
       <c r="H102" s="3">
-        <v>27500</v>
+        <v>202100</v>
       </c>
       <c r="I102" s="3">
-        <v>87800</v>
+        <v>27600</v>
       </c>
       <c r="J102" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-184800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-123900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>260200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-43900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1050500</v>
+        <v>1049800</v>
       </c>
       <c r="E8" s="3">
-        <v>925100</v>
+        <v>1004300</v>
       </c>
       <c r="F8" s="3">
-        <v>939300</v>
+        <v>884400</v>
       </c>
       <c r="G8" s="3">
-        <v>883000</v>
+        <v>897900</v>
       </c>
       <c r="H8" s="3">
-        <v>862400</v>
+        <v>844100</v>
       </c>
       <c r="I8" s="3">
-        <v>849300</v>
+        <v>824500</v>
       </c>
       <c r="J8" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K8" s="3">
         <v>915500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>854600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1616400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>752500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>847100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>813600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>754800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>784200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>680600</v>
+        <v>677000</v>
       </c>
       <c r="E9" s="3">
-        <v>582000</v>
+        <v>650700</v>
       </c>
       <c r="F9" s="3">
-        <v>546800</v>
+        <v>556400</v>
       </c>
       <c r="G9" s="3">
-        <v>530700</v>
+        <v>522700</v>
       </c>
       <c r="H9" s="3">
-        <v>528000</v>
+        <v>507300</v>
       </c>
       <c r="I9" s="3">
-        <v>522800</v>
+        <v>504700</v>
       </c>
       <c r="J9" s="3">
+        <v>499800</v>
+      </c>
+      <c r="K9" s="3">
         <v>414300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>399500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1122400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>350200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>366300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>329200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>366300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>369900</v>
+        <v>372800</v>
       </c>
       <c r="E10" s="3">
-        <v>343200</v>
+        <v>353700</v>
       </c>
       <c r="F10" s="3">
-        <v>392500</v>
+        <v>328100</v>
       </c>
       <c r="G10" s="3">
-        <v>352300</v>
+        <v>375200</v>
       </c>
       <c r="H10" s="3">
-        <v>334500</v>
+        <v>336800</v>
       </c>
       <c r="I10" s="3">
-        <v>326500</v>
+        <v>319800</v>
       </c>
       <c r="J10" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K10" s="3">
         <v>501200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>455100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>494000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>402400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>539800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>447200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>425600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>417900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>9500</v>
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
-        <v>6800</v>
+        <v>9100</v>
       </c>
       <c r="G14" s="3">
         <v>6500</v>
       </c>
       <c r="H14" s="3">
-        <v>14100</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>9800</v>
+        <v>13500</v>
       </c>
       <c r="J14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K14" s="3">
         <v>11700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F15" s="3">
         <v>36600</v>
       </c>
-      <c r="E15" s="3">
-        <v>38300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>39800</v>
-      </c>
       <c r="G15" s="3">
-        <v>41000</v>
+        <v>38000</v>
       </c>
       <c r="H15" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="I15" s="3">
-        <v>43300</v>
+        <v>39300</v>
       </c>
       <c r="J15" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K15" s="3">
         <v>43800</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>907200</v>
+        <v>907300</v>
       </c>
       <c r="E17" s="3">
-        <v>789100</v>
+        <v>867300</v>
       </c>
       <c r="F17" s="3">
-        <v>597800</v>
+        <v>754400</v>
       </c>
       <c r="G17" s="3">
-        <v>735200</v>
+        <v>571500</v>
       </c>
       <c r="H17" s="3">
-        <v>732600</v>
+        <v>702800</v>
       </c>
       <c r="I17" s="3">
-        <v>733300</v>
+        <v>700400</v>
       </c>
       <c r="J17" s="3">
+        <v>701100</v>
+      </c>
+      <c r="K17" s="3">
         <v>724800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>721600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1388200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>660600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>616100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>690200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>372700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>143300</v>
+        <v>142500</v>
       </c>
       <c r="E18" s="3">
-        <v>136000</v>
+        <v>137000</v>
       </c>
       <c r="F18" s="3">
-        <v>341500</v>
+        <v>130000</v>
       </c>
       <c r="G18" s="3">
-        <v>147800</v>
+        <v>326500</v>
       </c>
       <c r="H18" s="3">
-        <v>129800</v>
+        <v>141300</v>
       </c>
       <c r="I18" s="3">
-        <v>116000</v>
+        <v>124100</v>
       </c>
       <c r="J18" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K18" s="3">
         <v>190700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>231000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>382100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>84000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19600</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>7000</v>
+        <v>-18800</v>
       </c>
       <c r="F20" s="3">
-        <v>19700</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>5200</v>
+        <v>18800</v>
       </c>
       <c r="H20" s="3">
-        <v>36900</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>-4800</v>
+        <v>35200</v>
       </c>
       <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>29500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-56900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>179600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>454300</v>
+        <v>497200</v>
       </c>
       <c r="E21" s="3">
-        <v>416800</v>
+        <v>434300</v>
       </c>
       <c r="F21" s="3">
-        <v>642200</v>
+        <v>398500</v>
       </c>
       <c r="G21" s="3">
-        <v>427800</v>
+        <v>614000</v>
       </c>
       <c r="H21" s="3">
-        <v>445400</v>
+        <v>409000</v>
       </c>
       <c r="I21" s="3">
-        <v>390600</v>
+        <v>425800</v>
       </c>
       <c r="J21" s="3">
+        <v>373400</v>
+      </c>
+      <c r="K21" s="3">
         <v>490000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>356300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>714700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>333700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>427400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>388300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>791500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>327300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66300</v>
+        <v>78100</v>
       </c>
       <c r="E22" s="3">
-        <v>55500</v>
+        <v>63400</v>
       </c>
       <c r="F22" s="3">
-        <v>55000</v>
+        <v>53100</v>
       </c>
       <c r="G22" s="3">
-        <v>46500</v>
+        <v>52600</v>
       </c>
       <c r="H22" s="3">
-        <v>44000</v>
+        <v>44500</v>
       </c>
       <c r="I22" s="3">
-        <v>39300</v>
+        <v>42000</v>
       </c>
       <c r="J22" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K22" s="3">
         <v>38200</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57400</v>
+        <v>67300</v>
       </c>
       <c r="E23" s="3">
-        <v>87500</v>
+        <v>54900</v>
       </c>
       <c r="F23" s="3">
-        <v>306200</v>
+        <v>83600</v>
       </c>
       <c r="G23" s="3">
-        <v>106500</v>
+        <v>292800</v>
       </c>
       <c r="H23" s="3">
-        <v>122700</v>
+        <v>101800</v>
       </c>
       <c r="I23" s="3">
-        <v>71900</v>
+        <v>117300</v>
       </c>
       <c r="J23" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K23" s="3">
         <v>182000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>125800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>187500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>521300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>-16400</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
-        <v>107500</v>
+        <v>7800</v>
       </c>
       <c r="G24" s="3">
-        <v>-87800</v>
+        <v>102800</v>
       </c>
       <c r="H24" s="3">
-        <v>-8800</v>
+        <v>-83900</v>
       </c>
       <c r="I24" s="3">
-        <v>17700</v>
+        <v>-8500</v>
       </c>
       <c r="J24" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-16300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-32100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>54700</v>
+        <v>83800</v>
       </c>
       <c r="E26" s="3">
-        <v>79300</v>
+        <v>52300</v>
       </c>
       <c r="F26" s="3">
-        <v>198700</v>
+        <v>75800</v>
       </c>
       <c r="G26" s="3">
-        <v>194300</v>
+        <v>190000</v>
       </c>
       <c r="H26" s="3">
-        <v>131600</v>
+        <v>185700</v>
       </c>
       <c r="I26" s="3">
-        <v>54200</v>
+        <v>125800</v>
       </c>
       <c r="J26" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K26" s="3">
         <v>198300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>169600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>105400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>358100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>54700</v>
+        <v>83800</v>
       </c>
       <c r="E27" s="3">
-        <v>79300</v>
+        <v>52300</v>
       </c>
       <c r="F27" s="3">
-        <v>198700</v>
+        <v>75800</v>
       </c>
       <c r="G27" s="3">
-        <v>194300</v>
+        <v>190000</v>
       </c>
       <c r="H27" s="3">
-        <v>131600</v>
+        <v>185700</v>
       </c>
       <c r="I27" s="3">
-        <v>54200</v>
+        <v>125800</v>
       </c>
       <c r="J27" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K27" s="3">
         <v>198300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>86800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>169600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>105400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>358100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19600</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7000</v>
+        <v>18800</v>
       </c>
       <c r="F32" s="3">
-        <v>-19700</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5200</v>
+        <v>-18800</v>
       </c>
       <c r="H32" s="3">
-        <v>-36900</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>4800</v>
+        <v>-35200</v>
       </c>
       <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-29500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>56900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-179600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>54700</v>
+        <v>83800</v>
       </c>
       <c r="E33" s="3">
-        <v>79300</v>
+        <v>52300</v>
       </c>
       <c r="F33" s="3">
-        <v>198700</v>
+        <v>75800</v>
       </c>
       <c r="G33" s="3">
-        <v>194300</v>
+        <v>190000</v>
       </c>
       <c r="H33" s="3">
-        <v>131600</v>
+        <v>185700</v>
       </c>
       <c r="I33" s="3">
-        <v>54200</v>
+        <v>125800</v>
       </c>
       <c r="J33" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K33" s="3">
         <v>198300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>86800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>169600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>105400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>358100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>54700</v>
+        <v>83800</v>
       </c>
       <c r="E35" s="3">
-        <v>79300</v>
+        <v>52300</v>
       </c>
       <c r="F35" s="3">
-        <v>198700</v>
+        <v>75800</v>
       </c>
       <c r="G35" s="3">
-        <v>194300</v>
+        <v>190000</v>
       </c>
       <c r="H35" s="3">
-        <v>131600</v>
+        <v>185700</v>
       </c>
       <c r="I35" s="3">
-        <v>54200</v>
+        <v>125800</v>
       </c>
       <c r="J35" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K35" s="3">
         <v>198300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>86800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>169600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>105400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>358100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>234600</v>
+        <v>429500</v>
       </c>
       <c r="E41" s="3">
-        <v>783400</v>
+        <v>224200</v>
       </c>
       <c r="F41" s="3">
-        <v>1023200</v>
+        <v>748900</v>
       </c>
       <c r="G41" s="3">
-        <v>796000</v>
+        <v>978200</v>
       </c>
       <c r="H41" s="3">
-        <v>733700</v>
+        <v>761000</v>
       </c>
       <c r="I41" s="3">
-        <v>531600</v>
+        <v>701400</v>
       </c>
       <c r="J41" s="3">
+        <v>508200</v>
+      </c>
+      <c r="K41" s="3">
         <v>504000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>413900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>605800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>284000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>422000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>164300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>118100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>171200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>212900</v>
+        <v>263300</v>
       </c>
       <c r="E42" s="3">
-        <v>797000</v>
+        <v>203500</v>
       </c>
       <c r="F42" s="3">
-        <v>894000</v>
+        <v>762000</v>
       </c>
       <c r="G42" s="3">
-        <v>646700</v>
+        <v>854600</v>
       </c>
       <c r="H42" s="3">
-        <v>660600</v>
+        <v>618300</v>
       </c>
       <c r="I42" s="3">
-        <v>313500</v>
+        <v>631500</v>
       </c>
       <c r="J42" s="3">
+        <v>299700</v>
+      </c>
+      <c r="K42" s="3">
         <v>405200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>294700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>120900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>146700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>140900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>936300</v>
+        <v>826500</v>
       </c>
       <c r="E43" s="3">
-        <v>855100</v>
+        <v>895100</v>
       </c>
       <c r="F43" s="3">
-        <v>926300</v>
+        <v>817400</v>
       </c>
       <c r="G43" s="3">
-        <v>851100</v>
+        <v>885600</v>
       </c>
       <c r="H43" s="3">
-        <v>876700</v>
+        <v>813700</v>
       </c>
       <c r="I43" s="3">
-        <v>882200</v>
+        <v>838100</v>
       </c>
       <c r="J43" s="3">
+        <v>843400</v>
+      </c>
+      <c r="K43" s="3">
         <v>948600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>956400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>849600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>835500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>923500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>785800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>661200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>670700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>54800</v>
+        <v>52000</v>
       </c>
       <c r="E44" s="3">
-        <v>43500</v>
+        <v>52400</v>
       </c>
       <c r="F44" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K44" s="3">
+        <v>48300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>40100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="O44" s="3">
+        <v>37500</v>
+      </c>
+      <c r="P44" s="3">
         <v>39600</v>
       </c>
-      <c r="G44" s="3">
-        <v>45200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>44200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>58900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>48300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>40300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>40100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>47900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>37500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>39600</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>273100</v>
+        <v>176400</v>
       </c>
       <c r="E45" s="3">
-        <v>182800</v>
+        <v>261100</v>
       </c>
       <c r="F45" s="3">
-        <v>130200</v>
+        <v>174800</v>
       </c>
       <c r="G45" s="3">
-        <v>128900</v>
+        <v>124500</v>
       </c>
       <c r="H45" s="3">
-        <v>172000</v>
+        <v>123200</v>
       </c>
       <c r="I45" s="3">
-        <v>180100</v>
+        <v>164500</v>
       </c>
       <c r="J45" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K45" s="3">
         <v>131600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>164900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>121800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>206800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1711600</v>
+        <v>1747600</v>
       </c>
       <c r="E46" s="3">
-        <v>2661800</v>
+        <v>1636300</v>
       </c>
       <c r="F46" s="3">
-        <v>3013400</v>
+        <v>2544700</v>
       </c>
       <c r="G46" s="3">
-        <v>2468000</v>
+        <v>2880800</v>
       </c>
       <c r="H46" s="3">
-        <v>2487200</v>
+        <v>2359400</v>
       </c>
       <c r="I46" s="3">
-        <v>1966300</v>
+        <v>2377800</v>
       </c>
       <c r="J46" s="3">
+        <v>1879800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2037500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1870100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1647200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1283000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1561500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1258200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1056500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1229800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>667600</v>
+        <v>646000</v>
       </c>
       <c r="E47" s="3">
-        <v>664800</v>
+        <v>638200</v>
       </c>
       <c r="F47" s="3">
-        <v>672300</v>
+        <v>635500</v>
       </c>
       <c r="G47" s="3">
-        <v>399900</v>
+        <v>642700</v>
       </c>
       <c r="H47" s="3">
-        <v>337800</v>
+        <v>382300</v>
       </c>
       <c r="I47" s="3">
-        <v>384400</v>
+        <v>323000</v>
       </c>
       <c r="J47" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K47" s="3">
         <v>444200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>410400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>665000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>603700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>609100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>786100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>766800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>294700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4627700</v>
+        <v>4322100</v>
       </c>
       <c r="E48" s="3">
-        <v>3771900</v>
+        <v>4424100</v>
       </c>
       <c r="F48" s="3">
-        <v>3583000</v>
+        <v>3606000</v>
       </c>
       <c r="G48" s="3">
-        <v>3415500</v>
+        <v>3425300</v>
       </c>
       <c r="H48" s="3">
-        <v>3409700</v>
+        <v>3265300</v>
       </c>
       <c r="I48" s="3">
-        <v>3609200</v>
+        <v>3259700</v>
       </c>
       <c r="J48" s="3">
+        <v>3450400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3542300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3380900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3415200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3190900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3253000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3129600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2907800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2970000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3081300</v>
+        <v>2984000</v>
       </c>
       <c r="E49" s="3">
-        <v>2074500</v>
+        <v>2945700</v>
       </c>
       <c r="F49" s="3">
-        <v>2071500</v>
+        <v>1983300</v>
       </c>
       <c r="G49" s="3">
-        <v>1417900</v>
+        <v>1980400</v>
       </c>
       <c r="H49" s="3">
-        <v>1460200</v>
+        <v>1355500</v>
       </c>
       <c r="I49" s="3">
-        <v>1726300</v>
+        <v>1396000</v>
       </c>
       <c r="J49" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1766600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1755400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1826000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1703000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1785700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1846400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1791600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1947200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>539700</v>
+        <v>531900</v>
       </c>
       <c r="E52" s="3">
-        <v>421400</v>
+        <v>515900</v>
       </c>
       <c r="F52" s="3">
-        <v>409500</v>
+        <v>402900</v>
       </c>
       <c r="G52" s="3">
-        <v>905300</v>
+        <v>391500</v>
       </c>
       <c r="H52" s="3">
-        <v>888000</v>
+        <v>865500</v>
       </c>
       <c r="I52" s="3">
-        <v>360300</v>
+        <v>848900</v>
       </c>
       <c r="J52" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K52" s="3">
         <v>361100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>333500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>295600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>270900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>243100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>278500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>276200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>448900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10627900</v>
+        <v>10231600</v>
       </c>
       <c r="E54" s="3">
-        <v>9594500</v>
+        <v>10160300</v>
       </c>
       <c r="F54" s="3">
-        <v>9749600</v>
+        <v>9172300</v>
       </c>
       <c r="G54" s="3">
-        <v>8606600</v>
+        <v>9320700</v>
       </c>
       <c r="H54" s="3">
-        <v>8583000</v>
+        <v>8227900</v>
       </c>
       <c r="I54" s="3">
-        <v>8046600</v>
+        <v>8205400</v>
       </c>
       <c r="J54" s="3">
+        <v>7692600</v>
+      </c>
+      <c r="K54" s="3">
         <v>8151800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7750300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7849100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7051500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7452400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7298800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6798900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6890500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>799100</v>
+        <v>775900</v>
       </c>
       <c r="E57" s="3">
-        <v>589000</v>
+        <v>764000</v>
       </c>
       <c r="F57" s="3">
-        <v>639400</v>
+        <v>563100</v>
       </c>
       <c r="G57" s="3">
-        <v>519200</v>
+        <v>611300</v>
       </c>
       <c r="H57" s="3">
-        <v>506900</v>
+        <v>496400</v>
       </c>
       <c r="I57" s="3">
-        <v>520800</v>
+        <v>484600</v>
       </c>
       <c r="J57" s="3">
+        <v>497900</v>
+      </c>
+      <c r="K57" s="3">
         <v>612300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>423900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>407700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>470400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>724600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>548300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>512000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>707700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>380800</v>
+        <v>374400</v>
       </c>
       <c r="E58" s="3">
-        <v>264000</v>
+        <v>364100</v>
       </c>
       <c r="F58" s="3">
-        <v>353900</v>
+        <v>252400</v>
       </c>
       <c r="G58" s="3">
-        <v>348800</v>
+        <v>338300</v>
       </c>
       <c r="H58" s="3">
-        <v>515100</v>
+        <v>333500</v>
       </c>
       <c r="I58" s="3">
-        <v>659200</v>
+        <v>492400</v>
       </c>
       <c r="J58" s="3">
+        <v>630200</v>
+      </c>
+      <c r="K58" s="3">
         <v>537000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>543200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>513900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>363300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>416900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>432400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>233000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>249900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>713300</v>
+        <v>781600</v>
       </c>
       <c r="E59" s="3">
-        <v>856900</v>
+        <v>681900</v>
       </c>
       <c r="F59" s="3">
-        <v>1083300</v>
+        <v>819200</v>
       </c>
       <c r="G59" s="3">
-        <v>468500</v>
+        <v>1035700</v>
       </c>
       <c r="H59" s="3">
-        <v>467100</v>
+        <v>447900</v>
       </c>
       <c r="I59" s="3">
-        <v>366600</v>
+        <v>446500</v>
       </c>
       <c r="J59" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K59" s="3">
         <v>475400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>332200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>307800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>229800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>357800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>383300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>256100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>261700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1893200</v>
+        <v>1932000</v>
       </c>
       <c r="E60" s="3">
-        <v>1710000</v>
+        <v>1809900</v>
       </c>
       <c r="F60" s="3">
-        <v>2076700</v>
+        <v>1634700</v>
       </c>
       <c r="G60" s="3">
-        <v>1336600</v>
+        <v>1985300</v>
       </c>
       <c r="H60" s="3">
-        <v>1489000</v>
+        <v>1277800</v>
       </c>
       <c r="I60" s="3">
-        <v>1546600</v>
+        <v>1423500</v>
       </c>
       <c r="J60" s="3">
+        <v>1478600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1624700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1299200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1229400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1063500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1499300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1364000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1001100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1219300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3042700</v>
+        <v>2883700</v>
       </c>
       <c r="E61" s="3">
-        <v>2313700</v>
+        <v>2908800</v>
       </c>
       <c r="F61" s="3">
-        <v>2172400</v>
+        <v>2211900</v>
       </c>
       <c r="G61" s="3">
-        <v>1985200</v>
+        <v>2076800</v>
       </c>
       <c r="H61" s="3">
-        <v>1960600</v>
+        <v>1897900</v>
       </c>
       <c r="I61" s="3">
-        <v>1482300</v>
+        <v>1874400</v>
       </c>
       <c r="J61" s="3">
+        <v>1417100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1561600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1494800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1638000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1534300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1395000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1393500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1461300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1503800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>734600</v>
+        <v>683300</v>
       </c>
       <c r="E62" s="3">
-        <v>612200</v>
+        <v>702300</v>
       </c>
       <c r="F62" s="3">
-        <v>587100</v>
+        <v>585300</v>
       </c>
       <c r="G62" s="3">
-        <v>462300</v>
+        <v>561300</v>
       </c>
       <c r="H62" s="3">
-        <v>480700</v>
+        <v>442000</v>
       </c>
       <c r="I62" s="3">
-        <v>425800</v>
+        <v>459500</v>
       </c>
       <c r="J62" s="3">
+        <v>407100</v>
+      </c>
+      <c r="K62" s="3">
         <v>428600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>427700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>479400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>421400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>415000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>459000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>451600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>440000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5670500</v>
+        <v>5499000</v>
       </c>
       <c r="E66" s="3">
-        <v>4635800</v>
+        <v>5421000</v>
       </c>
       <c r="F66" s="3">
-        <v>4836200</v>
+        <v>4431900</v>
       </c>
       <c r="G66" s="3">
-        <v>3784200</v>
+        <v>4623400</v>
       </c>
       <c r="H66" s="3">
-        <v>3930300</v>
+        <v>3617700</v>
       </c>
       <c r="I66" s="3">
-        <v>3454800</v>
+        <v>3757400</v>
       </c>
       <c r="J66" s="3">
+        <v>3302800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3614900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3221800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3346700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3019200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3309300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3216600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2914000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3163100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2257200</v>
+        <v>2146000</v>
       </c>
       <c r="E72" s="3">
-        <v>2253600</v>
+        <v>2157900</v>
       </c>
       <c r="F72" s="3">
-        <v>2208400</v>
+        <v>2154500</v>
       </c>
       <c r="G72" s="3">
-        <v>2117600</v>
+        <v>2111300</v>
       </c>
       <c r="H72" s="3">
-        <v>1950700</v>
+        <v>2024400</v>
       </c>
       <c r="I72" s="3">
-        <v>1886500</v>
+        <v>1864900</v>
       </c>
       <c r="J72" s="3">
+        <v>1803500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1831900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1835100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2161300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2204900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2251400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2160900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2071600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1811200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4957400</v>
+        <v>4732600</v>
       </c>
       <c r="E76" s="3">
-        <v>4958600</v>
+        <v>4739300</v>
       </c>
       <c r="F76" s="3">
-        <v>4913500</v>
+        <v>4740500</v>
       </c>
       <c r="G76" s="3">
-        <v>4822400</v>
+        <v>4697300</v>
       </c>
       <c r="H76" s="3">
-        <v>4652700</v>
+        <v>4610200</v>
       </c>
       <c r="I76" s="3">
-        <v>4591800</v>
+        <v>4448000</v>
       </c>
       <c r="J76" s="3">
+        <v>4389800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4536900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4528500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4502400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4032300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4143200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4082200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3884900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3727500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>54700</v>
+        <v>83800</v>
       </c>
       <c r="E81" s="3">
-        <v>79300</v>
+        <v>52300</v>
       </c>
       <c r="F81" s="3">
-        <v>198700</v>
+        <v>75800</v>
       </c>
       <c r="G81" s="3">
-        <v>194300</v>
+        <v>190000</v>
       </c>
       <c r="H81" s="3">
-        <v>131600</v>
+        <v>185700</v>
       </c>
       <c r="I81" s="3">
-        <v>54200</v>
+        <v>125800</v>
       </c>
       <c r="J81" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K81" s="3">
         <v>198300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>86800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>169600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>105400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>358100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>330600</v>
+        <v>351800</v>
       </c>
       <c r="E83" s="3">
-        <v>273800</v>
+        <v>316100</v>
       </c>
       <c r="F83" s="3">
-        <v>281000</v>
+        <v>261800</v>
       </c>
       <c r="G83" s="3">
-        <v>274800</v>
+        <v>268600</v>
       </c>
       <c r="H83" s="3">
-        <v>278700</v>
+        <v>262700</v>
       </c>
       <c r="I83" s="3">
-        <v>279400</v>
+        <v>266400</v>
       </c>
       <c r="J83" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K83" s="3">
         <v>269800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>270800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>543500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>251500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>195800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>269500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>229800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>249700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>261200</v>
+        <v>649700</v>
       </c>
       <c r="E89" s="3">
-        <v>219100</v>
+        <v>249700</v>
       </c>
       <c r="F89" s="3">
-        <v>611200</v>
+        <v>209500</v>
       </c>
       <c r="G89" s="3">
-        <v>542600</v>
+        <v>584300</v>
       </c>
       <c r="H89" s="3">
-        <v>436900</v>
+        <v>518800</v>
       </c>
       <c r="I89" s="3">
-        <v>381500</v>
+        <v>417700</v>
       </c>
       <c r="J89" s="3">
+        <v>364700</v>
+      </c>
+      <c r="K89" s="3">
         <v>723800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>426300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>549100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>666100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>394600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>187500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-205400</v>
+        <v>-182900</v>
       </c>
       <c r="E91" s="3">
-        <v>-259900</v>
+        <v>-196400</v>
       </c>
       <c r="F91" s="3">
-        <v>-422200</v>
+        <v>-248500</v>
       </c>
       <c r="G91" s="3">
-        <v>-175400</v>
+        <v>-403600</v>
       </c>
       <c r="H91" s="3">
-        <v>-177200</v>
+        <v>-167700</v>
       </c>
       <c r="I91" s="3">
-        <v>-259100</v>
+        <v>-169400</v>
       </c>
       <c r="J91" s="3">
+        <v>-247700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-286500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-165600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-310800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-161400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-246500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-173300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-167300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-121700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-840000</v>
+        <v>-241500</v>
       </c>
       <c r="E94" s="3">
-        <v>-162700</v>
+        <v>-803100</v>
       </c>
       <c r="F94" s="3">
-        <v>-456300</v>
+        <v>-155500</v>
       </c>
       <c r="G94" s="3">
-        <v>-161600</v>
+        <v>-436200</v>
       </c>
       <c r="H94" s="3">
-        <v>-524000</v>
+        <v>-154500</v>
       </c>
       <c r="I94" s="3">
-        <v>-167200</v>
+        <v>-501000</v>
       </c>
       <c r="J94" s="3">
+        <v>-159800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-395400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-408500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-231700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-222900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-226400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-121600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-114600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37600</v>
+        <v>-49800</v>
       </c>
       <c r="E96" s="3">
-        <v>-93000</v>
+        <v>-35900</v>
       </c>
       <c r="F96" s="3">
-        <v>-41400</v>
+        <v>-88900</v>
       </c>
       <c r="G96" s="3">
-        <v>-58100</v>
+        <v>-39600</v>
       </c>
       <c r="H96" s="3">
-        <v>-9400</v>
+        <v>-55500</v>
       </c>
       <c r="I96" s="3">
-        <v>-95200</v>
+        <v>-9000</v>
       </c>
       <c r="J96" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-108700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-112000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-101300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-67300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-64200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30000</v>
+        <v>-202900</v>
       </c>
       <c r="E100" s="3">
-        <v>-296300</v>
+        <v>28700</v>
       </c>
       <c r="F100" s="3">
-        <v>72300</v>
+        <v>-283300</v>
       </c>
       <c r="G100" s="3">
-        <v>-318700</v>
+        <v>69100</v>
       </c>
       <c r="H100" s="3">
-        <v>289200</v>
+        <v>-304700</v>
       </c>
       <c r="I100" s="3">
-        <v>-186700</v>
+        <v>276500</v>
       </c>
       <c r="J100" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-240200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-202700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-161800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-160300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-183000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-129100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-548800</v>
+        <v>205200</v>
       </c>
       <c r="E102" s="3">
-        <v>-239900</v>
+        <v>-524700</v>
       </c>
       <c r="F102" s="3">
-        <v>227200</v>
+        <v>-229300</v>
       </c>
       <c r="G102" s="3">
-        <v>62300</v>
+        <v>217200</v>
       </c>
       <c r="H102" s="3">
-        <v>202100</v>
+        <v>59600</v>
       </c>
       <c r="I102" s="3">
-        <v>27600</v>
+        <v>193200</v>
       </c>
       <c r="J102" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K102" s="3">
         <v>88200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-184800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-123900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>260200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1049800</v>
+        <v>1127800</v>
       </c>
       <c r="E8" s="3">
-        <v>1004300</v>
+        <v>1086500</v>
       </c>
       <c r="F8" s="3">
-        <v>884400</v>
+        <v>1039400</v>
       </c>
       <c r="G8" s="3">
-        <v>897900</v>
+        <v>915300</v>
       </c>
       <c r="H8" s="3">
-        <v>844100</v>
+        <v>929300</v>
       </c>
       <c r="I8" s="3">
-        <v>824500</v>
+        <v>873600</v>
       </c>
       <c r="J8" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K8" s="3">
         <v>811900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>915500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>854600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1616400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>752500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>847100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>813600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>754800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>784200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>677000</v>
+        <v>709300</v>
       </c>
       <c r="E9" s="3">
-        <v>650700</v>
+        <v>700600</v>
       </c>
       <c r="F9" s="3">
-        <v>556400</v>
+        <v>673400</v>
       </c>
       <c r="G9" s="3">
-        <v>522700</v>
+        <v>575800</v>
       </c>
       <c r="H9" s="3">
-        <v>507300</v>
+        <v>541000</v>
       </c>
       <c r="I9" s="3">
-        <v>504700</v>
+        <v>525100</v>
       </c>
       <c r="J9" s="3">
+        <v>522400</v>
+      </c>
+      <c r="K9" s="3">
         <v>499800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>414300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>399500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1122400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>350200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>366300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>329200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>366300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>372800</v>
+        <v>418500</v>
       </c>
       <c r="E10" s="3">
-        <v>353700</v>
+        <v>385900</v>
       </c>
       <c r="F10" s="3">
-        <v>328100</v>
+        <v>366000</v>
       </c>
       <c r="G10" s="3">
-        <v>375200</v>
+        <v>339500</v>
       </c>
       <c r="H10" s="3">
-        <v>336800</v>
+        <v>388300</v>
       </c>
       <c r="I10" s="3">
-        <v>319800</v>
+        <v>348500</v>
       </c>
       <c r="J10" s="3">
+        <v>331000</v>
+      </c>
+      <c r="K10" s="3">
         <v>312100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>501200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>455100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>494000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>402400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>539800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>447200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>425600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>417900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="3">
-        <v>9100</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>13500</v>
-      </c>
       <c r="J14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="E15" s="3">
-        <v>35000</v>
+        <v>36400</v>
       </c>
       <c r="F15" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="G15" s="3">
-        <v>38000</v>
+        <v>37800</v>
       </c>
       <c r="H15" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="I15" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="J15" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K15" s="3">
         <v>41400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>43800</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>907300</v>
+        <v>939800</v>
       </c>
       <c r="E17" s="3">
-        <v>867300</v>
+        <v>939000</v>
       </c>
       <c r="F17" s="3">
-        <v>754400</v>
+        <v>897600</v>
       </c>
       <c r="G17" s="3">
-        <v>571500</v>
+        <v>780800</v>
       </c>
       <c r="H17" s="3">
-        <v>702800</v>
+        <v>591400</v>
       </c>
       <c r="I17" s="3">
-        <v>700400</v>
+        <v>727400</v>
       </c>
       <c r="J17" s="3">
+        <v>724900</v>
+      </c>
+      <c r="K17" s="3">
         <v>701100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>724800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>721600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1388200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>660600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>616100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>690200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>372700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>142500</v>
+        <v>188000</v>
       </c>
       <c r="E18" s="3">
-        <v>137000</v>
+        <v>147500</v>
       </c>
       <c r="F18" s="3">
-        <v>130000</v>
+        <v>141800</v>
       </c>
       <c r="G18" s="3">
-        <v>326500</v>
+        <v>134600</v>
       </c>
       <c r="H18" s="3">
-        <v>141300</v>
+        <v>337900</v>
       </c>
       <c r="I18" s="3">
-        <v>124100</v>
+        <v>146200</v>
       </c>
       <c r="J18" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K18" s="3">
         <v>110900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>190700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>231000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>382100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-18800</v>
+        <v>3000</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>-19400</v>
       </c>
       <c r="G20" s="3">
-        <v>18800</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>19500</v>
       </c>
       <c r="I20" s="3">
-        <v>35200</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-47500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-56900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>179600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>497200</v>
+        <v>552800</v>
       </c>
       <c r="E21" s="3">
-        <v>434300</v>
+        <v>514600</v>
       </c>
       <c r="F21" s="3">
-        <v>398500</v>
+        <v>449500</v>
       </c>
       <c r="G21" s="3">
-        <v>614000</v>
+        <v>412400</v>
       </c>
       <c r="H21" s="3">
-        <v>409000</v>
+        <v>635400</v>
       </c>
       <c r="I21" s="3">
-        <v>425800</v>
+        <v>423300</v>
       </c>
       <c r="J21" s="3">
+        <v>440600</v>
+      </c>
+      <c r="K21" s="3">
         <v>373400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>490000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>356300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>714700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>333700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>427400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>388300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>791500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>327300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78100</v>
+        <v>72700</v>
       </c>
       <c r="E22" s="3">
-        <v>63400</v>
+        <v>80800</v>
       </c>
       <c r="F22" s="3">
-        <v>53100</v>
+        <v>65600</v>
       </c>
       <c r="G22" s="3">
-        <v>52600</v>
+        <v>54900</v>
       </c>
       <c r="H22" s="3">
-        <v>44500</v>
+        <v>54400</v>
       </c>
       <c r="I22" s="3">
-        <v>42000</v>
+        <v>46000</v>
       </c>
       <c r="J22" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K22" s="3">
         <v>37600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38200</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>67300</v>
+        <v>120200</v>
       </c>
       <c r="E23" s="3">
-        <v>54900</v>
+        <v>69700</v>
       </c>
       <c r="F23" s="3">
-        <v>83600</v>
+        <v>56800</v>
       </c>
       <c r="G23" s="3">
-        <v>292800</v>
+        <v>86500</v>
       </c>
       <c r="H23" s="3">
-        <v>101800</v>
+        <v>303000</v>
       </c>
       <c r="I23" s="3">
-        <v>117300</v>
+        <v>105400</v>
       </c>
       <c r="J23" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K23" s="3">
         <v>68700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>182000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>125800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>187500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>521300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16400</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>-17000</v>
       </c>
       <c r="F24" s="3">
-        <v>7800</v>
+        <v>2700</v>
       </c>
       <c r="G24" s="3">
-        <v>102800</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>-83900</v>
+        <v>106400</v>
       </c>
       <c r="I24" s="3">
-        <v>-8500</v>
+        <v>-86900</v>
       </c>
       <c r="J24" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K24" s="3">
         <v>16900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83800</v>
+        <v>104200</v>
       </c>
       <c r="E26" s="3">
-        <v>52300</v>
+        <v>86700</v>
       </c>
       <c r="F26" s="3">
-        <v>75800</v>
+        <v>54100</v>
       </c>
       <c r="G26" s="3">
-        <v>190000</v>
+        <v>78500</v>
       </c>
       <c r="H26" s="3">
-        <v>185700</v>
+        <v>196600</v>
       </c>
       <c r="I26" s="3">
-        <v>125800</v>
+        <v>192200</v>
       </c>
       <c r="J26" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K26" s="3">
         <v>51800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>198300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>169600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>105400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>358100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83800</v>
+        <v>104200</v>
       </c>
       <c r="E27" s="3">
-        <v>52300</v>
+        <v>86700</v>
       </c>
       <c r="F27" s="3">
-        <v>75800</v>
+        <v>54100</v>
       </c>
       <c r="G27" s="3">
-        <v>190000</v>
+        <v>78500</v>
       </c>
       <c r="H27" s="3">
-        <v>185700</v>
+        <v>196600</v>
       </c>
       <c r="I27" s="3">
-        <v>125800</v>
+        <v>192200</v>
       </c>
       <c r="J27" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K27" s="3">
         <v>51800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>86800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>169600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>358100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>18800</v>
+        <v>-3000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>19400</v>
       </c>
       <c r="G32" s="3">
-        <v>-18800</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-19500</v>
       </c>
       <c r="I32" s="3">
-        <v>-35200</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>47500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>56900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-179600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83800</v>
+        <v>104200</v>
       </c>
       <c r="E33" s="3">
-        <v>52300</v>
+        <v>86700</v>
       </c>
       <c r="F33" s="3">
-        <v>75800</v>
+        <v>54100</v>
       </c>
       <c r="G33" s="3">
-        <v>190000</v>
+        <v>78500</v>
       </c>
       <c r="H33" s="3">
-        <v>185700</v>
+        <v>196600</v>
       </c>
       <c r="I33" s="3">
-        <v>125800</v>
+        <v>192200</v>
       </c>
       <c r="J33" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K33" s="3">
         <v>51800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>86800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>169600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>105400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>358100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83800</v>
+        <v>104200</v>
       </c>
       <c r="E35" s="3">
-        <v>52300</v>
+        <v>86700</v>
       </c>
       <c r="F35" s="3">
-        <v>75800</v>
+        <v>54100</v>
       </c>
       <c r="G35" s="3">
-        <v>190000</v>
+        <v>78500</v>
       </c>
       <c r="H35" s="3">
-        <v>185700</v>
+        <v>196600</v>
       </c>
       <c r="I35" s="3">
-        <v>125800</v>
+        <v>192200</v>
       </c>
       <c r="J35" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K35" s="3">
         <v>51800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>86800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>169600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>105400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>358100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>429500</v>
+        <v>493500</v>
       </c>
       <c r="E41" s="3">
-        <v>224200</v>
+        <v>444500</v>
       </c>
       <c r="F41" s="3">
-        <v>748900</v>
+        <v>232100</v>
       </c>
       <c r="G41" s="3">
-        <v>978200</v>
+        <v>775100</v>
       </c>
       <c r="H41" s="3">
-        <v>761000</v>
+        <v>1012400</v>
       </c>
       <c r="I41" s="3">
-        <v>701400</v>
+        <v>787600</v>
       </c>
       <c r="J41" s="3">
+        <v>726000</v>
+      </c>
+      <c r="K41" s="3">
         <v>508200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>504000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>413900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>605800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>284000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>422000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>164300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>118100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>171200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>263300</v>
+        <v>424200</v>
       </c>
       <c r="E42" s="3">
-        <v>203500</v>
+        <v>272500</v>
       </c>
       <c r="F42" s="3">
-        <v>762000</v>
+        <v>210600</v>
       </c>
       <c r="G42" s="3">
-        <v>854600</v>
+        <v>788600</v>
       </c>
       <c r="H42" s="3">
-        <v>618300</v>
+        <v>884500</v>
       </c>
       <c r="I42" s="3">
-        <v>631500</v>
+        <v>639900</v>
       </c>
       <c r="J42" s="3">
+        <v>653600</v>
+      </c>
+      <c r="K42" s="3">
         <v>299700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>405200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>294700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>120900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>146700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>140900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>826500</v>
+        <v>893400</v>
       </c>
       <c r="E43" s="3">
-        <v>895100</v>
+        <v>855300</v>
       </c>
       <c r="F43" s="3">
-        <v>817400</v>
+        <v>926400</v>
       </c>
       <c r="G43" s="3">
-        <v>885600</v>
+        <v>846000</v>
       </c>
       <c r="H43" s="3">
-        <v>813700</v>
+        <v>916500</v>
       </c>
       <c r="I43" s="3">
-        <v>838100</v>
+        <v>842100</v>
       </c>
       <c r="J43" s="3">
+        <v>867400</v>
+      </c>
+      <c r="K43" s="3">
         <v>843400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>948600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>956400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>849600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>835500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>923500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>785800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>661200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>670700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52000</v>
+        <v>45700</v>
       </c>
       <c r="E44" s="3">
-        <v>52400</v>
+        <v>53800</v>
       </c>
       <c r="F44" s="3">
-        <v>41600</v>
+        <v>54200</v>
       </c>
       <c r="G44" s="3">
-        <v>37900</v>
+        <v>43000</v>
       </c>
       <c r="H44" s="3">
-        <v>43200</v>
+        <v>39200</v>
       </c>
       <c r="I44" s="3">
-        <v>42200</v>
+        <v>44800</v>
       </c>
       <c r="J44" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K44" s="3">
         <v>56300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>176400</v>
+        <v>150000</v>
       </c>
       <c r="E45" s="3">
-        <v>261100</v>
+        <v>182600</v>
       </c>
       <c r="F45" s="3">
-        <v>174800</v>
+        <v>270200</v>
       </c>
       <c r="G45" s="3">
-        <v>124500</v>
+        <v>180900</v>
       </c>
       <c r="H45" s="3">
-        <v>123200</v>
+        <v>128800</v>
       </c>
       <c r="I45" s="3">
-        <v>164500</v>
+        <v>127500</v>
       </c>
       <c r="J45" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K45" s="3">
         <v>172100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>164900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>121800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>206800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1747600</v>
+        <v>2006900</v>
       </c>
       <c r="E46" s="3">
-        <v>1636300</v>
+        <v>1808700</v>
       </c>
       <c r="F46" s="3">
-        <v>2544700</v>
+        <v>1693500</v>
       </c>
       <c r="G46" s="3">
-        <v>2880800</v>
+        <v>2633700</v>
       </c>
       <c r="H46" s="3">
-        <v>2359400</v>
+        <v>2981500</v>
       </c>
       <c r="I46" s="3">
-        <v>2377800</v>
+        <v>2441900</v>
       </c>
       <c r="J46" s="3">
+        <v>2460900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1879800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2037500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1870100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1647200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1283000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1561500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1258200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1056500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1229800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>646000</v>
+        <v>620600</v>
       </c>
       <c r="E47" s="3">
-        <v>638200</v>
+        <v>668500</v>
       </c>
       <c r="F47" s="3">
-        <v>635500</v>
+        <v>660500</v>
       </c>
       <c r="G47" s="3">
-        <v>642700</v>
+        <v>657700</v>
       </c>
       <c r="H47" s="3">
-        <v>382300</v>
+        <v>665200</v>
       </c>
       <c r="I47" s="3">
-        <v>323000</v>
+        <v>395700</v>
       </c>
       <c r="J47" s="3">
+        <v>334300</v>
+      </c>
+      <c r="K47" s="3">
         <v>367500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>444200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>410400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>665000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>603700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>609100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>786100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>766800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>294700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4322100</v>
+        <v>4387900</v>
       </c>
       <c r="E48" s="3">
-        <v>4424100</v>
+        <v>4473200</v>
       </c>
       <c r="F48" s="3">
-        <v>3606000</v>
+        <v>4578800</v>
       </c>
       <c r="G48" s="3">
-        <v>3425300</v>
+        <v>3732000</v>
       </c>
       <c r="H48" s="3">
-        <v>3265300</v>
+        <v>3545100</v>
       </c>
       <c r="I48" s="3">
-        <v>3259700</v>
+        <v>3379400</v>
       </c>
       <c r="J48" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3450400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3542300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3380900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3415200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3190900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3253000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3129600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2907800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2970000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2984000</v>
+        <v>3178700</v>
       </c>
       <c r="E49" s="3">
-        <v>2945700</v>
+        <v>3088300</v>
       </c>
       <c r="F49" s="3">
-        <v>1983300</v>
+        <v>3048700</v>
       </c>
       <c r="G49" s="3">
-        <v>1980400</v>
+        <v>2052600</v>
       </c>
       <c r="H49" s="3">
-        <v>1355500</v>
+        <v>2049600</v>
       </c>
       <c r="I49" s="3">
-        <v>1396000</v>
+        <v>1402900</v>
       </c>
       <c r="J49" s="3">
+        <v>1444800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1650300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1766600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1755400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1826000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1703000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1785700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1846400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1791600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1947200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531900</v>
+        <v>728300</v>
       </c>
       <c r="E52" s="3">
-        <v>515900</v>
+        <v>550500</v>
       </c>
       <c r="F52" s="3">
-        <v>402900</v>
+        <v>534000</v>
       </c>
       <c r="G52" s="3">
-        <v>391500</v>
+        <v>417000</v>
       </c>
       <c r="H52" s="3">
-        <v>865500</v>
+        <v>405100</v>
       </c>
       <c r="I52" s="3">
-        <v>848900</v>
+        <v>895700</v>
       </c>
       <c r="J52" s="3">
+        <v>878600</v>
+      </c>
+      <c r="K52" s="3">
         <v>344500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>361100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>333500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>295600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>270900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>243100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>278500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>276200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>448900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10231600</v>
+        <v>10922400</v>
       </c>
       <c r="E54" s="3">
-        <v>10160300</v>
+        <v>10589200</v>
       </c>
       <c r="F54" s="3">
-        <v>9172300</v>
+        <v>10515500</v>
       </c>
       <c r="G54" s="3">
-        <v>9320700</v>
+        <v>9493000</v>
       </c>
       <c r="H54" s="3">
-        <v>8227900</v>
+        <v>9646500</v>
       </c>
       <c r="I54" s="3">
-        <v>8205400</v>
+        <v>8515600</v>
       </c>
       <c r="J54" s="3">
+        <v>8492200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7692600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8151800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7750300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7849100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7051500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7452400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7298800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6798900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6890500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775900</v>
+        <v>820500</v>
       </c>
       <c r="E57" s="3">
-        <v>764000</v>
+        <v>803000</v>
       </c>
       <c r="F57" s="3">
-        <v>563100</v>
+        <v>790700</v>
       </c>
       <c r="G57" s="3">
-        <v>611300</v>
+        <v>582800</v>
       </c>
       <c r="H57" s="3">
-        <v>496400</v>
+        <v>632700</v>
       </c>
       <c r="I57" s="3">
-        <v>484600</v>
+        <v>513700</v>
       </c>
       <c r="J57" s="3">
+        <v>501500</v>
+      </c>
+      <c r="K57" s="3">
         <v>497900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>612300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>423900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>407700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>470400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>724600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>548300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>512000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>707700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>374400</v>
+        <v>682000</v>
       </c>
       <c r="E58" s="3">
-        <v>364100</v>
+        <v>387500</v>
       </c>
       <c r="F58" s="3">
-        <v>252400</v>
+        <v>376800</v>
       </c>
       <c r="G58" s="3">
-        <v>338300</v>
+        <v>261200</v>
       </c>
       <c r="H58" s="3">
-        <v>333500</v>
+        <v>350100</v>
       </c>
       <c r="I58" s="3">
-        <v>492400</v>
+        <v>345200</v>
       </c>
       <c r="J58" s="3">
+        <v>509600</v>
+      </c>
+      <c r="K58" s="3">
         <v>630200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>537000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>543200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>513900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>363300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>416900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>432400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>233000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>249900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>781600</v>
+        <v>1037600</v>
       </c>
       <c r="E59" s="3">
-        <v>681900</v>
+        <v>808900</v>
       </c>
       <c r="F59" s="3">
-        <v>819200</v>
+        <v>705700</v>
       </c>
       <c r="G59" s="3">
-        <v>1035700</v>
+        <v>847900</v>
       </c>
       <c r="H59" s="3">
-        <v>447900</v>
+        <v>1071900</v>
       </c>
       <c r="I59" s="3">
-        <v>446500</v>
+        <v>463600</v>
       </c>
       <c r="J59" s="3">
+        <v>462100</v>
+      </c>
+      <c r="K59" s="3">
         <v>350500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>475400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>332200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>307800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>229800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>357800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>383300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>256100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>261700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1932000</v>
+        <v>2540000</v>
       </c>
       <c r="E60" s="3">
-        <v>1809900</v>
+        <v>1999500</v>
       </c>
       <c r="F60" s="3">
-        <v>1634700</v>
+        <v>1873200</v>
       </c>
       <c r="G60" s="3">
-        <v>1985300</v>
+        <v>1691900</v>
       </c>
       <c r="H60" s="3">
-        <v>1277800</v>
+        <v>2054700</v>
       </c>
       <c r="I60" s="3">
-        <v>1423500</v>
+        <v>1322500</v>
       </c>
       <c r="J60" s="3">
+        <v>1473300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1478600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1624700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1299200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1229400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1063500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1499300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1001100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1219300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2883700</v>
+        <v>2764900</v>
       </c>
       <c r="E61" s="3">
-        <v>2908800</v>
+        <v>2984500</v>
       </c>
       <c r="F61" s="3">
-        <v>2211900</v>
+        <v>3010500</v>
       </c>
       <c r="G61" s="3">
-        <v>2076800</v>
+        <v>2289200</v>
       </c>
       <c r="H61" s="3">
-        <v>1897900</v>
+        <v>2149400</v>
       </c>
       <c r="I61" s="3">
-        <v>1874400</v>
+        <v>1964200</v>
       </c>
       <c r="J61" s="3">
+        <v>1939900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1417100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1561600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1494800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1638000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1534300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1395000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1393500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1461300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1503800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>683300</v>
+        <v>699700</v>
       </c>
       <c r="E62" s="3">
-        <v>702300</v>
+        <v>707200</v>
       </c>
       <c r="F62" s="3">
-        <v>585300</v>
+        <v>726800</v>
       </c>
       <c r="G62" s="3">
-        <v>561300</v>
+        <v>605700</v>
       </c>
       <c r="H62" s="3">
-        <v>442000</v>
+        <v>580900</v>
       </c>
       <c r="I62" s="3">
-        <v>459500</v>
+        <v>457400</v>
       </c>
       <c r="J62" s="3">
+        <v>475600</v>
+      </c>
+      <c r="K62" s="3">
         <v>407100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>428600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>427700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>479400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>421400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>415000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>459000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>451600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>440000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5499000</v>
+        <v>6004700</v>
       </c>
       <c r="E66" s="3">
-        <v>5421000</v>
+        <v>5691200</v>
       </c>
       <c r="F66" s="3">
-        <v>4431900</v>
+        <v>5610500</v>
       </c>
       <c r="G66" s="3">
-        <v>4623400</v>
+        <v>4586800</v>
       </c>
       <c r="H66" s="3">
-        <v>3617700</v>
+        <v>4785000</v>
       </c>
       <c r="I66" s="3">
-        <v>3757400</v>
+        <v>3744200</v>
       </c>
       <c r="J66" s="3">
+        <v>3888700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3302800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3614900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3221800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3346700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3019200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3309300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3216600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2914000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3163100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2146000</v>
+        <v>2240300</v>
       </c>
       <c r="E72" s="3">
-        <v>2157900</v>
+        <v>2221000</v>
       </c>
       <c r="F72" s="3">
-        <v>2154500</v>
+        <v>2233400</v>
       </c>
       <c r="G72" s="3">
-        <v>2111300</v>
+        <v>2229800</v>
       </c>
       <c r="H72" s="3">
-        <v>2024400</v>
+        <v>2185100</v>
       </c>
       <c r="I72" s="3">
-        <v>1864900</v>
+        <v>2095200</v>
       </c>
       <c r="J72" s="3">
+        <v>1930100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1803500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1831900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1835100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2161300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2204900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2251400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2160900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2071600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1811200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4732600</v>
+        <v>4917700</v>
       </c>
       <c r="E76" s="3">
-        <v>4739300</v>
+        <v>4898000</v>
       </c>
       <c r="F76" s="3">
-        <v>4740500</v>
+        <v>4904900</v>
       </c>
       <c r="G76" s="3">
-        <v>4697300</v>
+        <v>4906200</v>
       </c>
       <c r="H76" s="3">
-        <v>4610200</v>
+        <v>4861500</v>
       </c>
       <c r="I76" s="3">
-        <v>4448000</v>
+        <v>4771400</v>
       </c>
       <c r="J76" s="3">
+        <v>4603400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4389800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4536900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4528500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4502400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4032300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4143200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4082200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3884900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3727500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83800</v>
+        <v>104200</v>
       </c>
       <c r="E81" s="3">
-        <v>52300</v>
+        <v>86700</v>
       </c>
       <c r="F81" s="3">
-        <v>75800</v>
+        <v>54100</v>
       </c>
       <c r="G81" s="3">
-        <v>190000</v>
+        <v>78500</v>
       </c>
       <c r="H81" s="3">
-        <v>185700</v>
+        <v>196600</v>
       </c>
       <c r="I81" s="3">
-        <v>125800</v>
+        <v>192200</v>
       </c>
       <c r="J81" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K81" s="3">
         <v>51800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>86800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>169600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>105400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>358100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>351800</v>
+        <v>359800</v>
       </c>
       <c r="E83" s="3">
-        <v>316100</v>
+        <v>364100</v>
       </c>
       <c r="F83" s="3">
-        <v>261800</v>
+        <v>327100</v>
       </c>
       <c r="G83" s="3">
-        <v>268600</v>
+        <v>270900</v>
       </c>
       <c r="H83" s="3">
-        <v>262700</v>
+        <v>278000</v>
       </c>
       <c r="I83" s="3">
-        <v>266400</v>
+        <v>271800</v>
       </c>
       <c r="J83" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K83" s="3">
         <v>267100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>269800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>270800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>543500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>251500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>195800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>269500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>229800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>249700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>649700</v>
+        <v>678100</v>
       </c>
       <c r="E89" s="3">
-        <v>249700</v>
+        <v>672400</v>
       </c>
       <c r="F89" s="3">
-        <v>209500</v>
+        <v>258500</v>
       </c>
       <c r="G89" s="3">
-        <v>584300</v>
+        <v>216800</v>
       </c>
       <c r="H89" s="3">
-        <v>518800</v>
+        <v>604700</v>
       </c>
       <c r="I89" s="3">
-        <v>417700</v>
+        <v>536900</v>
       </c>
       <c r="J89" s="3">
+        <v>432300</v>
+      </c>
+      <c r="K89" s="3">
         <v>364700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>723800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>426300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>549100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>666100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>394600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>187500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-182900</v>
+        <v>-266300</v>
       </c>
       <c r="E91" s="3">
-        <v>-196400</v>
+        <v>-189300</v>
       </c>
       <c r="F91" s="3">
-        <v>-248500</v>
+        <v>-203200</v>
       </c>
       <c r="G91" s="3">
-        <v>-403600</v>
+        <v>-257100</v>
       </c>
       <c r="H91" s="3">
-        <v>-167700</v>
+        <v>-417700</v>
       </c>
       <c r="I91" s="3">
-        <v>-169400</v>
+        <v>-173600</v>
       </c>
       <c r="J91" s="3">
+        <v>-175400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-247700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-165600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-310800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-161400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-246500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-173300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-167300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-121700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241500</v>
+        <v>-427000</v>
       </c>
       <c r="E94" s="3">
-        <v>-803100</v>
+        <v>-250000</v>
       </c>
       <c r="F94" s="3">
-        <v>-155500</v>
+        <v>-831200</v>
       </c>
       <c r="G94" s="3">
-        <v>-436200</v>
+        <v>-160900</v>
       </c>
       <c r="H94" s="3">
-        <v>-154500</v>
+        <v>-451400</v>
       </c>
       <c r="I94" s="3">
-        <v>-501000</v>
+        <v>-159900</v>
       </c>
       <c r="J94" s="3">
+        <v>-518500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-159800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-395400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-231700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-222900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-226400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-121600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-114600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-49800</v>
+        <v>-51500</v>
       </c>
       <c r="E96" s="3">
-        <v>-35900</v>
+        <v>-51500</v>
       </c>
       <c r="F96" s="3">
-        <v>-88900</v>
+        <v>-37200</v>
       </c>
       <c r="G96" s="3">
-        <v>-39600</v>
+        <v>-92000</v>
       </c>
       <c r="H96" s="3">
-        <v>-55500</v>
+        <v>-41000</v>
       </c>
       <c r="I96" s="3">
-        <v>-9000</v>
+        <v>-57500</v>
       </c>
       <c r="J96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-91000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-108700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-112000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-101300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-67300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-64200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-202900</v>
+        <v>-202100</v>
       </c>
       <c r="E100" s="3">
-        <v>28700</v>
+        <v>-210000</v>
       </c>
       <c r="F100" s="3">
-        <v>-283300</v>
+        <v>29700</v>
       </c>
       <c r="G100" s="3">
-        <v>69100</v>
+        <v>-293200</v>
       </c>
       <c r="H100" s="3">
-        <v>-304700</v>
+        <v>71500</v>
       </c>
       <c r="I100" s="3">
-        <v>276500</v>
+        <v>-315300</v>
       </c>
       <c r="J100" s="3">
+        <v>286200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-178500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-240200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-202700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-161800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-160300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-183000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-129100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>205200</v>
+        <v>49000</v>
       </c>
       <c r="E102" s="3">
-        <v>-524700</v>
+        <v>212400</v>
       </c>
       <c r="F102" s="3">
-        <v>-229300</v>
+        <v>-543000</v>
       </c>
       <c r="G102" s="3">
-        <v>217200</v>
+        <v>-237300</v>
       </c>
       <c r="H102" s="3">
-        <v>59600</v>
+        <v>224800</v>
       </c>
       <c r="I102" s="3">
-        <v>193200</v>
+        <v>61700</v>
       </c>
       <c r="J102" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-184800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-123900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>260200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1127800</v>
+        <v>1135900</v>
       </c>
       <c r="E8" s="3">
-        <v>1086500</v>
+        <v>1173000</v>
       </c>
       <c r="F8" s="3">
-        <v>1039400</v>
+        <v>1130100</v>
       </c>
       <c r="G8" s="3">
-        <v>915300</v>
+        <v>1081100</v>
       </c>
       <c r="H8" s="3">
-        <v>929300</v>
+        <v>952100</v>
       </c>
       <c r="I8" s="3">
-        <v>873600</v>
+        <v>966600</v>
       </c>
       <c r="J8" s="3">
+        <v>908700</v>
+      </c>
+      <c r="K8" s="3">
         <v>853300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>811900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>915500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>854600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1616400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>752500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>847100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>813600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>754800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>784200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>709300</v>
+        <v>731900</v>
       </c>
       <c r="E9" s="3">
-        <v>700600</v>
+        <v>737700</v>
       </c>
       <c r="F9" s="3">
-        <v>673400</v>
+        <v>728800</v>
       </c>
       <c r="G9" s="3">
-        <v>575800</v>
+        <v>700400</v>
       </c>
       <c r="H9" s="3">
-        <v>541000</v>
+        <v>598900</v>
       </c>
       <c r="I9" s="3">
-        <v>525100</v>
+        <v>562700</v>
       </c>
       <c r="J9" s="3">
+        <v>546100</v>
+      </c>
+      <c r="K9" s="3">
         <v>522400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>499800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>414300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>399500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1122400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>350200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>366300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>329200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>366300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>418500</v>
+        <v>404000</v>
       </c>
       <c r="E10" s="3">
-        <v>385900</v>
+        <v>435300</v>
       </c>
       <c r="F10" s="3">
-        <v>366000</v>
+        <v>401300</v>
       </c>
       <c r="G10" s="3">
-        <v>339500</v>
+        <v>380700</v>
       </c>
       <c r="H10" s="3">
-        <v>388300</v>
+        <v>353100</v>
       </c>
       <c r="I10" s="3">
-        <v>348500</v>
+        <v>403900</v>
       </c>
       <c r="J10" s="3">
+        <v>362500</v>
+      </c>
+      <c r="K10" s="3">
         <v>331000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>312100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>501200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>455100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>494000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>402400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>539800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>447200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>425600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>417900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>14900</v>
       </c>
       <c r="E14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11700</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35300</v>
+        <v>35900</v>
       </c>
       <c r="E15" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="F15" s="3">
-        <v>36200</v>
+        <v>37900</v>
       </c>
       <c r="G15" s="3">
-        <v>37800</v>
+        <v>37700</v>
       </c>
       <c r="H15" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="I15" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="J15" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K15" s="3">
         <v>40700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43800</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>44800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>939800</v>
+        <v>978900</v>
       </c>
       <c r="E17" s="3">
-        <v>939000</v>
+        <v>977500</v>
       </c>
       <c r="F17" s="3">
-        <v>897600</v>
+        <v>976600</v>
       </c>
       <c r="G17" s="3">
-        <v>780800</v>
+        <v>933700</v>
       </c>
       <c r="H17" s="3">
-        <v>591400</v>
+        <v>812100</v>
       </c>
       <c r="I17" s="3">
-        <v>727400</v>
+        <v>615200</v>
       </c>
       <c r="J17" s="3">
+        <v>756600</v>
+      </c>
+      <c r="K17" s="3">
         <v>724900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>701100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>724800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>721600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1388200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>660600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>616100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>690200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>372700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188000</v>
+        <v>157000</v>
       </c>
       <c r="E18" s="3">
+        <v>195600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>153400</v>
+      </c>
+      <c r="G18" s="3">
         <v>147500</v>
       </c>
-      <c r="F18" s="3">
-        <v>141800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>134600</v>
-      </c>
       <c r="H18" s="3">
-        <v>337900</v>
+        <v>140000</v>
       </c>
       <c r="I18" s="3">
-        <v>146200</v>
+        <v>351400</v>
       </c>
       <c r="J18" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K18" s="3">
         <v>128400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>190700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>228100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>231000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>382100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4900</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-19400</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>-20200</v>
       </c>
       <c r="H20" s="3">
-        <v>19500</v>
+        <v>7200</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>20300</v>
       </c>
       <c r="J20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K20" s="3">
         <v>36500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-56900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>179600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>552800</v>
+        <v>506900</v>
       </c>
       <c r="E21" s="3">
-        <v>514600</v>
+        <v>574900</v>
       </c>
       <c r="F21" s="3">
-        <v>449500</v>
+        <v>535200</v>
       </c>
       <c r="G21" s="3">
-        <v>412400</v>
+        <v>467500</v>
       </c>
       <c r="H21" s="3">
-        <v>635400</v>
+        <v>429000</v>
       </c>
       <c r="I21" s="3">
-        <v>423300</v>
+        <v>660900</v>
       </c>
       <c r="J21" s="3">
+        <v>440200</v>
+      </c>
+      <c r="K21" s="3">
         <v>440600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>373400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>490000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>356300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>714700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>333700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>427400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>388300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>791500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>327300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72700</v>
+        <v>37000</v>
       </c>
       <c r="E22" s="3">
-        <v>80800</v>
+        <v>75700</v>
       </c>
       <c r="F22" s="3">
-        <v>65600</v>
+        <v>84000</v>
       </c>
       <c r="G22" s="3">
-        <v>54900</v>
+        <v>68200</v>
       </c>
       <c r="H22" s="3">
-        <v>54400</v>
+        <v>57100</v>
       </c>
       <c r="I22" s="3">
-        <v>46000</v>
+        <v>56600</v>
       </c>
       <c r="J22" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K22" s="3">
         <v>43500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>38200</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>120200</v>
+        <v>112000</v>
       </c>
       <c r="E23" s="3">
-        <v>69700</v>
+        <v>125000</v>
       </c>
       <c r="F23" s="3">
-        <v>56800</v>
+        <v>72500</v>
       </c>
       <c r="G23" s="3">
-        <v>86500</v>
+        <v>59100</v>
       </c>
       <c r="H23" s="3">
-        <v>303000</v>
+        <v>90000</v>
       </c>
       <c r="I23" s="3">
-        <v>105400</v>
+        <v>315100</v>
       </c>
       <c r="J23" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K23" s="3">
         <v>121400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>182000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>125800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>187500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>73300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>521300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>28900</v>
       </c>
       <c r="E24" s="3">
-        <v>-17000</v>
+        <v>16600</v>
       </c>
       <c r="F24" s="3">
-        <v>2700</v>
+        <v>-17700</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="H24" s="3">
-        <v>106400</v>
+        <v>8400</v>
       </c>
       <c r="I24" s="3">
-        <v>-86900</v>
+        <v>110700</v>
       </c>
       <c r="J24" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-32100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104200</v>
+        <v>83100</v>
       </c>
       <c r="E26" s="3">
-        <v>86700</v>
+        <v>108400</v>
       </c>
       <c r="F26" s="3">
-        <v>54100</v>
+        <v>90200</v>
       </c>
       <c r="G26" s="3">
-        <v>78500</v>
+        <v>56300</v>
       </c>
       <c r="H26" s="3">
-        <v>196600</v>
+        <v>81600</v>
       </c>
       <c r="I26" s="3">
-        <v>192200</v>
+        <v>204500</v>
       </c>
       <c r="J26" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K26" s="3">
         <v>130200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>198300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>169600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>105400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>358100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>104200</v>
+        <v>83100</v>
       </c>
       <c r="E27" s="3">
-        <v>86700</v>
+        <v>108400</v>
       </c>
       <c r="F27" s="3">
-        <v>54100</v>
+        <v>90200</v>
       </c>
       <c r="G27" s="3">
-        <v>78500</v>
+        <v>56300</v>
       </c>
       <c r="H27" s="3">
-        <v>196600</v>
+        <v>81600</v>
       </c>
       <c r="I27" s="3">
-        <v>192200</v>
+        <v>204500</v>
       </c>
       <c r="J27" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K27" s="3">
         <v>130200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>198300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>86800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>169600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>105400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>358100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4900</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>19400</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>20200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19500</v>
+        <v>-7200</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-20300</v>
       </c>
       <c r="J32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-36500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>56900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-179600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>104200</v>
+        <v>83100</v>
       </c>
       <c r="E33" s="3">
-        <v>86700</v>
+        <v>108400</v>
       </c>
       <c r="F33" s="3">
-        <v>54100</v>
+        <v>90200</v>
       </c>
       <c r="G33" s="3">
-        <v>78500</v>
+        <v>56300</v>
       </c>
       <c r="H33" s="3">
-        <v>196600</v>
+        <v>81600</v>
       </c>
       <c r="I33" s="3">
-        <v>192200</v>
+        <v>204500</v>
       </c>
       <c r="J33" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K33" s="3">
         <v>130200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>198300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>169600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>105400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>358100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>104200</v>
+        <v>83100</v>
       </c>
       <c r="E35" s="3">
-        <v>86700</v>
+        <v>108400</v>
       </c>
       <c r="F35" s="3">
-        <v>54100</v>
+        <v>90200</v>
       </c>
       <c r="G35" s="3">
-        <v>78500</v>
+        <v>56300</v>
       </c>
       <c r="H35" s="3">
-        <v>196600</v>
+        <v>81600</v>
       </c>
       <c r="I35" s="3">
-        <v>192200</v>
+        <v>204500</v>
       </c>
       <c r="J35" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K35" s="3">
         <v>130200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>198300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>169600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>105400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>358100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2400,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>493500</v>
+        <v>716000</v>
       </c>
       <c r="E41" s="3">
-        <v>444500</v>
+        <v>513300</v>
       </c>
       <c r="F41" s="3">
-        <v>232100</v>
+        <v>462300</v>
       </c>
       <c r="G41" s="3">
-        <v>775100</v>
+        <v>241400</v>
       </c>
       <c r="H41" s="3">
-        <v>1012400</v>
+        <v>806200</v>
       </c>
       <c r="I41" s="3">
-        <v>787600</v>
+        <v>1053000</v>
       </c>
       <c r="J41" s="3">
+        <v>819200</v>
+      </c>
+      <c r="K41" s="3">
         <v>726000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>508200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>504000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>413900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>605800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>284000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>422000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>164300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>118100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>424200</v>
+        <v>65600</v>
       </c>
       <c r="E42" s="3">
-        <v>272500</v>
+        <v>441200</v>
       </c>
       <c r="F42" s="3">
-        <v>210600</v>
+        <v>283400</v>
       </c>
       <c r="G42" s="3">
-        <v>788600</v>
+        <v>219100</v>
       </c>
       <c r="H42" s="3">
-        <v>884500</v>
+        <v>820300</v>
       </c>
       <c r="I42" s="3">
-        <v>639900</v>
+        <v>920000</v>
       </c>
       <c r="J42" s="3">
+        <v>665600</v>
+      </c>
+      <c r="K42" s="3">
         <v>653600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>299700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>405200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>294700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>120900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>146700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>140900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>893400</v>
+        <v>921300</v>
       </c>
       <c r="E43" s="3">
-        <v>855300</v>
+        <v>929300</v>
       </c>
       <c r="F43" s="3">
-        <v>926400</v>
+        <v>889700</v>
       </c>
       <c r="G43" s="3">
-        <v>846000</v>
+        <v>963500</v>
       </c>
       <c r="H43" s="3">
-        <v>916500</v>
+        <v>880000</v>
       </c>
       <c r="I43" s="3">
-        <v>842100</v>
+        <v>953300</v>
       </c>
       <c r="J43" s="3">
+        <v>875900</v>
+      </c>
+      <c r="K43" s="3">
         <v>867400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>843400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>948600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>956400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>849600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>835500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>923500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>785800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>661200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>670700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>45700</v>
+        <v>60600</v>
       </c>
       <c r="E44" s="3">
-        <v>53800</v>
+        <v>47600</v>
       </c>
       <c r="F44" s="3">
-        <v>54200</v>
+        <v>56000</v>
       </c>
       <c r="G44" s="3">
-        <v>43000</v>
+        <v>56400</v>
       </c>
       <c r="H44" s="3">
-        <v>39200</v>
+        <v>44800</v>
       </c>
       <c r="I44" s="3">
-        <v>44800</v>
+        <v>40800</v>
       </c>
       <c r="J44" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K44" s="3">
         <v>43700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>56300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150000</v>
+        <v>231000</v>
       </c>
       <c r="E45" s="3">
-        <v>182600</v>
+        <v>156100</v>
       </c>
       <c r="F45" s="3">
-        <v>270200</v>
+        <v>189900</v>
       </c>
       <c r="G45" s="3">
-        <v>180900</v>
+        <v>281000</v>
       </c>
       <c r="H45" s="3">
-        <v>128800</v>
+        <v>188200</v>
       </c>
       <c r="I45" s="3">
-        <v>127500</v>
+        <v>134000</v>
       </c>
       <c r="J45" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K45" s="3">
         <v>170200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>164900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>121800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>206800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2006900</v>
+        <v>1994500</v>
       </c>
       <c r="E46" s="3">
-        <v>1808700</v>
+        <v>2087400</v>
       </c>
       <c r="F46" s="3">
-        <v>1693500</v>
+        <v>1881300</v>
       </c>
       <c r="G46" s="3">
-        <v>2633700</v>
+        <v>1761500</v>
       </c>
       <c r="H46" s="3">
-        <v>2981500</v>
+        <v>2739300</v>
       </c>
       <c r="I46" s="3">
-        <v>2441900</v>
+        <v>3101200</v>
       </c>
       <c r="J46" s="3">
+        <v>2539900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2460900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1879800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2037500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1870100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1647200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1283000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1561500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1258200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1056500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1229800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>620600</v>
+        <v>649700</v>
       </c>
       <c r="E47" s="3">
-        <v>668500</v>
+        <v>645500</v>
       </c>
       <c r="F47" s="3">
-        <v>660500</v>
+        <v>695400</v>
       </c>
       <c r="G47" s="3">
-        <v>657700</v>
+        <v>687000</v>
       </c>
       <c r="H47" s="3">
-        <v>665200</v>
+        <v>684100</v>
       </c>
       <c r="I47" s="3">
-        <v>395700</v>
+        <v>691900</v>
       </c>
       <c r="J47" s="3">
+        <v>411600</v>
+      </c>
+      <c r="K47" s="3">
         <v>334300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>367500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>444200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>410400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>665000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>603700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>609100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>786100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>766800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>294700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4387900</v>
+        <v>4698100</v>
       </c>
       <c r="E48" s="3">
-        <v>4473200</v>
+        <v>4564000</v>
       </c>
       <c r="F48" s="3">
-        <v>4578800</v>
+        <v>4652700</v>
       </c>
       <c r="G48" s="3">
-        <v>3732000</v>
+        <v>4762500</v>
       </c>
       <c r="H48" s="3">
-        <v>3545100</v>
+        <v>3881800</v>
       </c>
       <c r="I48" s="3">
-        <v>3379400</v>
+        <v>3687300</v>
       </c>
       <c r="J48" s="3">
+        <v>3515000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3373600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3450400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3542300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3380900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3415200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3190900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3253000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3129600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2907800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2970000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3178700</v>
+        <v>3290100</v>
       </c>
       <c r="E49" s="3">
-        <v>3088300</v>
+        <v>3306300</v>
       </c>
       <c r="F49" s="3">
-        <v>3048700</v>
+        <v>3212200</v>
       </c>
       <c r="G49" s="3">
-        <v>2052600</v>
+        <v>3171000</v>
       </c>
       <c r="H49" s="3">
-        <v>2049600</v>
+        <v>2135000</v>
       </c>
       <c r="I49" s="3">
-        <v>1402900</v>
+        <v>2131800</v>
       </c>
       <c r="J49" s="3">
+        <v>1459200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1444800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1650300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1766600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1755400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1826000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1703000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1785700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1846400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1791600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1947200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>728300</v>
+        <v>765400</v>
       </c>
       <c r="E52" s="3">
-        <v>550500</v>
+        <v>757500</v>
       </c>
       <c r="F52" s="3">
-        <v>534000</v>
+        <v>572600</v>
       </c>
       <c r="G52" s="3">
-        <v>417000</v>
+        <v>555400</v>
       </c>
       <c r="H52" s="3">
-        <v>405100</v>
+        <v>433700</v>
       </c>
       <c r="I52" s="3">
-        <v>895700</v>
+        <v>421400</v>
       </c>
       <c r="J52" s="3">
+        <v>931700</v>
+      </c>
+      <c r="K52" s="3">
         <v>878600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>344500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>361100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>333500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>295600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>270900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>243100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>278500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>276200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>448900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10922400</v>
+        <v>11397800</v>
       </c>
       <c r="E54" s="3">
-        <v>10589200</v>
+        <v>11360600</v>
       </c>
       <c r="F54" s="3">
-        <v>10515500</v>
+        <v>11014100</v>
       </c>
       <c r="G54" s="3">
-        <v>9493000</v>
+        <v>10937400</v>
       </c>
       <c r="H54" s="3">
-        <v>9646500</v>
+        <v>9873900</v>
       </c>
       <c r="I54" s="3">
-        <v>8515600</v>
+        <v>10033600</v>
       </c>
       <c r="J54" s="3">
+        <v>8857300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8492200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7692600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8151800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7750300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7849100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7051500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7452400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7298800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6798900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6890500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>820500</v>
+        <v>778000</v>
       </c>
       <c r="E57" s="3">
-        <v>803000</v>
+        <v>853400</v>
       </c>
       <c r="F57" s="3">
-        <v>790700</v>
+        <v>835300</v>
       </c>
       <c r="G57" s="3">
-        <v>582800</v>
+        <v>822400</v>
       </c>
       <c r="H57" s="3">
-        <v>632700</v>
+        <v>606200</v>
       </c>
       <c r="I57" s="3">
-        <v>513700</v>
+        <v>658100</v>
       </c>
       <c r="J57" s="3">
+        <v>534400</v>
+      </c>
+      <c r="K57" s="3">
         <v>501500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>497900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>612300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>423900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>407700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>470400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>724600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>548300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>512000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>707700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>682000</v>
+        <v>782700</v>
       </c>
       <c r="E58" s="3">
-        <v>387500</v>
+        <v>709400</v>
       </c>
       <c r="F58" s="3">
-        <v>376800</v>
+        <v>403100</v>
       </c>
       <c r="G58" s="3">
-        <v>261200</v>
+        <v>391900</v>
       </c>
       <c r="H58" s="3">
-        <v>350100</v>
+        <v>271700</v>
       </c>
       <c r="I58" s="3">
-        <v>345200</v>
+        <v>364200</v>
       </c>
       <c r="J58" s="3">
+        <v>359000</v>
+      </c>
+      <c r="K58" s="3">
         <v>509600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>630200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>537000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>543200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>513900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>363300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>416900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>432400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>233000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>249900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1037600</v>
+        <v>1131700</v>
       </c>
       <c r="E59" s="3">
-        <v>808900</v>
+        <v>1079200</v>
       </c>
       <c r="F59" s="3">
-        <v>705700</v>
+        <v>841400</v>
       </c>
       <c r="G59" s="3">
-        <v>847900</v>
+        <v>734100</v>
       </c>
       <c r="H59" s="3">
-        <v>1071900</v>
+        <v>881900</v>
       </c>
       <c r="I59" s="3">
-        <v>463600</v>
+        <v>1114900</v>
       </c>
       <c r="J59" s="3">
+        <v>482200</v>
+      </c>
+      <c r="K59" s="3">
         <v>462100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>475400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>332200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>307800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>229800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>357800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>383300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>256100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>261700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2540000</v>
+        <v>2692400</v>
       </c>
       <c r="E60" s="3">
-        <v>1999500</v>
+        <v>2642000</v>
       </c>
       <c r="F60" s="3">
-        <v>1873200</v>
+        <v>2079700</v>
       </c>
       <c r="G60" s="3">
-        <v>1691900</v>
+        <v>1948400</v>
       </c>
       <c r="H60" s="3">
-        <v>2054700</v>
+        <v>1759800</v>
       </c>
       <c r="I60" s="3">
-        <v>1322500</v>
+        <v>2137200</v>
       </c>
       <c r="J60" s="3">
+        <v>1375500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1473300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1478600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1624700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1299200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1229400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1063500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1499300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1364000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1001100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1219300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2764900</v>
+        <v>2872200</v>
       </c>
       <c r="E61" s="3">
-        <v>2984500</v>
+        <v>2875900</v>
       </c>
       <c r="F61" s="3">
-        <v>3010500</v>
+        <v>3104200</v>
       </c>
       <c r="G61" s="3">
-        <v>2289200</v>
+        <v>3131300</v>
       </c>
       <c r="H61" s="3">
-        <v>2149400</v>
+        <v>2381000</v>
       </c>
       <c r="I61" s="3">
-        <v>1964200</v>
+        <v>2235700</v>
       </c>
       <c r="J61" s="3">
+        <v>2043100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1939900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1417100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1561600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1494800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1638000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1534300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1395000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1393500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1461300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1503800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>699700</v>
+        <v>754700</v>
       </c>
       <c r="E62" s="3">
-        <v>707200</v>
+        <v>727800</v>
       </c>
       <c r="F62" s="3">
-        <v>726800</v>
+        <v>735600</v>
       </c>
       <c r="G62" s="3">
-        <v>605700</v>
+        <v>756000</v>
       </c>
       <c r="H62" s="3">
-        <v>580900</v>
+        <v>630000</v>
       </c>
       <c r="I62" s="3">
-        <v>457400</v>
+        <v>604200</v>
       </c>
       <c r="J62" s="3">
+        <v>475800</v>
+      </c>
+      <c r="K62" s="3">
         <v>475600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>407100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>428600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>427700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>479400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>421400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>415000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>459000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>451600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>440000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6004700</v>
+        <v>6319400</v>
       </c>
       <c r="E66" s="3">
-        <v>5691200</v>
+        <v>6245600</v>
       </c>
       <c r="F66" s="3">
-        <v>5610500</v>
+        <v>5919600</v>
       </c>
       <c r="G66" s="3">
-        <v>4586800</v>
+        <v>5835700</v>
       </c>
       <c r="H66" s="3">
-        <v>4785000</v>
+        <v>4770800</v>
       </c>
       <c r="I66" s="3">
-        <v>3744200</v>
+        <v>4977000</v>
       </c>
       <c r="J66" s="3">
+        <v>3894400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3888700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3302800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3614900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3221800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3346700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3019200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3309300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3216600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2914000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3163100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2240300</v>
+        <v>2293500</v>
       </c>
       <c r="E72" s="3">
-        <v>2221000</v>
+        <v>2330200</v>
       </c>
       <c r="F72" s="3">
-        <v>2233400</v>
+        <v>2310100</v>
       </c>
       <c r="G72" s="3">
-        <v>2229800</v>
+        <v>2323000</v>
       </c>
       <c r="H72" s="3">
-        <v>2185100</v>
+        <v>2319200</v>
       </c>
       <c r="I72" s="3">
-        <v>2095200</v>
+        <v>2272700</v>
       </c>
       <c r="J72" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1930100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1803500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1831900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1835100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2161300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2204900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2251400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2160900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2071600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1811200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4917700</v>
+        <v>5078400</v>
       </c>
       <c r="E76" s="3">
-        <v>4898000</v>
+        <v>5115000</v>
       </c>
       <c r="F76" s="3">
-        <v>4904900</v>
+        <v>5094600</v>
       </c>
       <c r="G76" s="3">
-        <v>4906200</v>
+        <v>5101800</v>
       </c>
       <c r="H76" s="3">
-        <v>4861500</v>
+        <v>5103100</v>
       </c>
       <c r="I76" s="3">
-        <v>4771400</v>
+        <v>5056600</v>
       </c>
       <c r="J76" s="3">
+        <v>4962900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4603400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4389800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4536900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4528500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4502400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4032300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4143200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4082200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3884900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3727500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>104200</v>
+        <v>83100</v>
       </c>
       <c r="E81" s="3">
-        <v>86700</v>
+        <v>108400</v>
       </c>
       <c r="F81" s="3">
-        <v>54100</v>
+        <v>90200</v>
       </c>
       <c r="G81" s="3">
-        <v>78500</v>
+        <v>56300</v>
       </c>
       <c r="H81" s="3">
-        <v>196600</v>
+        <v>81600</v>
       </c>
       <c r="I81" s="3">
-        <v>192200</v>
+        <v>204500</v>
       </c>
       <c r="J81" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K81" s="3">
         <v>130200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>198300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>169600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>105400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>358100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>359800</v>
+        <v>357900</v>
       </c>
       <c r="E83" s="3">
-        <v>364100</v>
+        <v>374300</v>
       </c>
       <c r="F83" s="3">
-        <v>327100</v>
+        <v>378700</v>
       </c>
       <c r="G83" s="3">
-        <v>270900</v>
+        <v>340200</v>
       </c>
       <c r="H83" s="3">
-        <v>278000</v>
+        <v>281800</v>
       </c>
       <c r="I83" s="3">
-        <v>271800</v>
+        <v>289200</v>
       </c>
       <c r="J83" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K83" s="3">
         <v>275700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>267100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>269800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>270800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>543500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>251500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>195800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>269500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>229800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>249700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>678100</v>
+        <v>397800</v>
       </c>
       <c r="E89" s="3">
-        <v>672400</v>
+        <v>705300</v>
       </c>
       <c r="F89" s="3">
-        <v>258500</v>
+        <v>699400</v>
       </c>
       <c r="G89" s="3">
-        <v>216800</v>
+        <v>268800</v>
       </c>
       <c r="H89" s="3">
-        <v>604700</v>
+        <v>225500</v>
       </c>
       <c r="I89" s="3">
-        <v>536900</v>
+        <v>629000</v>
       </c>
       <c r="J89" s="3">
+        <v>558400</v>
+      </c>
+      <c r="K89" s="3">
         <v>432300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>364700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>723800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>426300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>549100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>666100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>394600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>187500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>55400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-266300</v>
+        <v>-1288500</v>
       </c>
       <c r="E91" s="3">
-        <v>-189300</v>
+        <v>-1375200</v>
       </c>
       <c r="F91" s="3">
-        <v>-203200</v>
+        <v>-977600</v>
       </c>
       <c r="G91" s="3">
-        <v>-257100</v>
+        <v>-1049600</v>
       </c>
       <c r="H91" s="3">
-        <v>-417700</v>
+        <v>-1328000</v>
       </c>
       <c r="I91" s="3">
-        <v>-173600</v>
+        <v>-2157400</v>
       </c>
       <c r="J91" s="3">
+        <v>-896500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-175400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-247700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-165600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-310800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-161400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-246500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-173300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-167300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-121700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-427000</v>
+        <v>117400</v>
       </c>
       <c r="E94" s="3">
-        <v>-250000</v>
+        <v>-444100</v>
       </c>
       <c r="F94" s="3">
-        <v>-831200</v>
+        <v>-260000</v>
       </c>
       <c r="G94" s="3">
-        <v>-160900</v>
+        <v>-864500</v>
       </c>
       <c r="H94" s="3">
-        <v>-451400</v>
+        <v>-167400</v>
       </c>
       <c r="I94" s="3">
-        <v>-159900</v>
+        <v>-469600</v>
       </c>
       <c r="J94" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-518500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-159800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-395400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-408500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-231700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-222900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-226400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-121600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-114600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51500</v>
+        <v>-131900</v>
       </c>
       <c r="E96" s="3">
-        <v>-51500</v>
+        <v>-53500</v>
       </c>
       <c r="F96" s="3">
-        <v>-37200</v>
+        <v>-53600</v>
       </c>
       <c r="G96" s="3">
-        <v>-92000</v>
+        <v>-38700</v>
       </c>
       <c r="H96" s="3">
-        <v>-41000</v>
+        <v>-95700</v>
       </c>
       <c r="I96" s="3">
-        <v>-57500</v>
+        <v>-42700</v>
       </c>
       <c r="J96" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-91000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-108700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-112000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-101300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-67300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-64200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-202100</v>
+        <v>-312600</v>
       </c>
       <c r="E100" s="3">
-        <v>-210000</v>
+        <v>-210200</v>
       </c>
       <c r="F100" s="3">
-        <v>29700</v>
+        <v>-218400</v>
       </c>
       <c r="G100" s="3">
-        <v>-293200</v>
+        <v>30900</v>
       </c>
       <c r="H100" s="3">
-        <v>71500</v>
+        <v>-304900</v>
       </c>
       <c r="I100" s="3">
-        <v>-315300</v>
+        <v>74400</v>
       </c>
       <c r="J100" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="K100" s="3">
         <v>286200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-178500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-240200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-202700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-161800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-160300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-129100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49000</v>
+        <v>202700</v>
       </c>
       <c r="E102" s="3">
-        <v>212400</v>
+        <v>51000</v>
       </c>
       <c r="F102" s="3">
-        <v>-543000</v>
+        <v>220900</v>
       </c>
       <c r="G102" s="3">
-        <v>-237300</v>
+        <v>-564800</v>
       </c>
       <c r="H102" s="3">
-        <v>224800</v>
+        <v>-246900</v>
       </c>
       <c r="I102" s="3">
-        <v>61700</v>
+        <v>233800</v>
       </c>
       <c r="J102" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K102" s="3">
         <v>199900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>88200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-184800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-123900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>260200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1135900</v>
+        <v>1183400</v>
       </c>
       <c r="E8" s="3">
-        <v>1173000</v>
+        <v>1138400</v>
       </c>
       <c r="F8" s="3">
-        <v>1130100</v>
+        <v>1175600</v>
       </c>
       <c r="G8" s="3">
-        <v>1081100</v>
+        <v>1132600</v>
       </c>
       <c r="H8" s="3">
-        <v>952100</v>
+        <v>1083500</v>
       </c>
       <c r="I8" s="3">
-        <v>966600</v>
+        <v>954100</v>
       </c>
       <c r="J8" s="3">
+        <v>968700</v>
+      </c>
+      <c r="K8" s="3">
         <v>908700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>853300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>811900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>915500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>854600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1616400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>752500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>847100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>813600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>754800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>784200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>731900</v>
+        <v>739500</v>
       </c>
       <c r="E9" s="3">
-        <v>737700</v>
+        <v>733500</v>
       </c>
       <c r="F9" s="3">
-        <v>728800</v>
+        <v>739300</v>
       </c>
       <c r="G9" s="3">
-        <v>700400</v>
+        <v>730300</v>
       </c>
       <c r="H9" s="3">
-        <v>598900</v>
+        <v>702000</v>
       </c>
       <c r="I9" s="3">
-        <v>562700</v>
+        <v>600200</v>
       </c>
       <c r="J9" s="3">
+        <v>563900</v>
+      </c>
+      <c r="K9" s="3">
         <v>546100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>522400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>499800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>414300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>399500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1122400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>350200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>366300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>329200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>366300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>404000</v>
+        <v>444000</v>
       </c>
       <c r="E10" s="3">
-        <v>435300</v>
+        <v>404900</v>
       </c>
       <c r="F10" s="3">
-        <v>401300</v>
+        <v>436300</v>
       </c>
       <c r="G10" s="3">
-        <v>380700</v>
+        <v>402200</v>
       </c>
       <c r="H10" s="3">
-        <v>353100</v>
+        <v>381500</v>
       </c>
       <c r="I10" s="3">
-        <v>403900</v>
+        <v>353900</v>
       </c>
       <c r="J10" s="3">
+        <v>404800</v>
+      </c>
+      <c r="K10" s="3">
         <v>362500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>331000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>312100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>501200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>455100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>494000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>402400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>539800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>447200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>425600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>417900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E14" s="3">
         <v>14900</v>
       </c>
-      <c r="E14" s="3">
-        <v>7700</v>
-      </c>
       <c r="F14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35900</v>
+        <v>37800</v>
       </c>
       <c r="E15" s="3">
-        <v>36700</v>
+        <v>36000</v>
       </c>
       <c r="F15" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G15" s="3">
         <v>37900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>37700</v>
       </c>
-      <c r="H15" s="3">
-        <v>39400</v>
-      </c>
       <c r="I15" s="3">
-        <v>40900</v>
+        <v>39500</v>
       </c>
       <c r="J15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K15" s="3">
         <v>42200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43800</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>43900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>44800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>978900</v>
+        <v>973800</v>
       </c>
       <c r="E17" s="3">
-        <v>977500</v>
+        <v>981100</v>
       </c>
       <c r="F17" s="3">
-        <v>976600</v>
+        <v>979600</v>
       </c>
       <c r="G17" s="3">
-        <v>933700</v>
+        <v>978800</v>
       </c>
       <c r="H17" s="3">
-        <v>812100</v>
+        <v>935700</v>
       </c>
       <c r="I17" s="3">
-        <v>615200</v>
+        <v>813900</v>
       </c>
       <c r="J17" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K17" s="3">
         <v>756600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>724900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>701100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>724800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>721600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1388200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>660600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>616100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>690200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>372700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>157000</v>
+        <v>209700</v>
       </c>
       <c r="E18" s="3">
-        <v>195600</v>
+        <v>157300</v>
       </c>
       <c r="F18" s="3">
-        <v>153400</v>
+        <v>196000</v>
       </c>
       <c r="G18" s="3">
-        <v>147500</v>
+        <v>153800</v>
       </c>
       <c r="H18" s="3">
-        <v>140000</v>
+        <v>147800</v>
       </c>
       <c r="I18" s="3">
-        <v>351400</v>
+        <v>140300</v>
       </c>
       <c r="J18" s="3">
+        <v>352200</v>
+      </c>
+      <c r="K18" s="3">
         <v>152100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>110900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>190700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>228100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>231000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>123400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>382100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
-        <v>5100</v>
-      </c>
       <c r="F20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-47500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-56900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>179600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>506900</v>
+        <v>570400</v>
       </c>
       <c r="E21" s="3">
-        <v>574900</v>
+        <v>508000</v>
       </c>
       <c r="F21" s="3">
-        <v>535200</v>
+        <v>576200</v>
       </c>
       <c r="G21" s="3">
-        <v>467500</v>
+        <v>536400</v>
       </c>
       <c r="H21" s="3">
-        <v>429000</v>
+        <v>468500</v>
       </c>
       <c r="I21" s="3">
-        <v>660900</v>
+        <v>429900</v>
       </c>
       <c r="J21" s="3">
+        <v>662400</v>
+      </c>
+      <c r="K21" s="3">
         <v>440200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>440600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>373400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>490000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>356300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>714700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>333700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>427400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>388300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>791500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>327300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37000</v>
+        <v>76400</v>
       </c>
       <c r="E22" s="3">
-        <v>75700</v>
+        <v>37100</v>
       </c>
       <c r="F22" s="3">
-        <v>84000</v>
+        <v>75800</v>
       </c>
       <c r="G22" s="3">
-        <v>68200</v>
+        <v>84200</v>
       </c>
       <c r="H22" s="3">
-        <v>57100</v>
+        <v>68400</v>
       </c>
       <c r="I22" s="3">
-        <v>56600</v>
+        <v>57300</v>
       </c>
       <c r="J22" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K22" s="3">
         <v>47900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38200</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>40300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>112000</v>
+        <v>123700</v>
       </c>
       <c r="E23" s="3">
-        <v>125000</v>
+        <v>112300</v>
       </c>
       <c r="F23" s="3">
-        <v>72500</v>
+        <v>125300</v>
       </c>
       <c r="G23" s="3">
-        <v>59100</v>
+        <v>72600</v>
       </c>
       <c r="H23" s="3">
-        <v>90000</v>
+        <v>59200</v>
       </c>
       <c r="I23" s="3">
-        <v>315100</v>
+        <v>90200</v>
       </c>
       <c r="J23" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K23" s="3">
         <v>109600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>182000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>125800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>187500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>73300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>521300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28900</v>
+        <v>-2700</v>
       </c>
       <c r="E24" s="3">
-        <v>16600</v>
+        <v>29000</v>
       </c>
       <c r="F24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-17700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
-        <v>110700</v>
-      </c>
       <c r="J24" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-90300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-32100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83100</v>
+        <v>126400</v>
       </c>
       <c r="E26" s="3">
-        <v>108400</v>
+        <v>83200</v>
       </c>
       <c r="F26" s="3">
-        <v>90200</v>
+        <v>108600</v>
       </c>
       <c r="G26" s="3">
-        <v>56300</v>
+        <v>90400</v>
       </c>
       <c r="H26" s="3">
-        <v>81600</v>
+        <v>56400</v>
       </c>
       <c r="I26" s="3">
-        <v>204500</v>
+        <v>81800</v>
       </c>
       <c r="J26" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K26" s="3">
         <v>199900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>130200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>198300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>86800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>169600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>105400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>358100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83100</v>
+        <v>126400</v>
       </c>
       <c r="E27" s="3">
-        <v>108400</v>
+        <v>83200</v>
       </c>
       <c r="F27" s="3">
-        <v>90200</v>
+        <v>108600</v>
       </c>
       <c r="G27" s="3">
-        <v>56300</v>
+        <v>90400</v>
       </c>
       <c r="H27" s="3">
-        <v>81600</v>
+        <v>56400</v>
       </c>
       <c r="I27" s="3">
-        <v>204500</v>
+        <v>81800</v>
       </c>
       <c r="J27" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K27" s="3">
         <v>199900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>130200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>198300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>86800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>169600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>105400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>358100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5100</v>
-      </c>
       <c r="F32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>47500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>56900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-179600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83100</v>
+        <v>126400</v>
       </c>
       <c r="E33" s="3">
-        <v>108400</v>
+        <v>83200</v>
       </c>
       <c r="F33" s="3">
-        <v>90200</v>
+        <v>108600</v>
       </c>
       <c r="G33" s="3">
-        <v>56300</v>
+        <v>90400</v>
       </c>
       <c r="H33" s="3">
-        <v>81600</v>
+        <v>56400</v>
       </c>
       <c r="I33" s="3">
-        <v>204500</v>
+        <v>81800</v>
       </c>
       <c r="J33" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K33" s="3">
         <v>199900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>198300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>86800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>169600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>358100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83100</v>
+        <v>126400</v>
       </c>
       <c r="E35" s="3">
-        <v>108400</v>
+        <v>83200</v>
       </c>
       <c r="F35" s="3">
-        <v>90200</v>
+        <v>108600</v>
       </c>
       <c r="G35" s="3">
-        <v>56300</v>
+        <v>90400</v>
       </c>
       <c r="H35" s="3">
-        <v>81600</v>
+        <v>56400</v>
       </c>
       <c r="I35" s="3">
-        <v>204500</v>
+        <v>81800</v>
       </c>
       <c r="J35" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K35" s="3">
         <v>199900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>198300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>86800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>169600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>358100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>716000</v>
+        <v>619000</v>
       </c>
       <c r="E41" s="3">
-        <v>513300</v>
+        <v>717600</v>
       </c>
       <c r="F41" s="3">
-        <v>462300</v>
+        <v>514400</v>
       </c>
       <c r="G41" s="3">
-        <v>241400</v>
+        <v>463300</v>
       </c>
       <c r="H41" s="3">
-        <v>806200</v>
+        <v>241900</v>
       </c>
       <c r="I41" s="3">
-        <v>1053000</v>
+        <v>807900</v>
       </c>
       <c r="J41" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="K41" s="3">
         <v>819200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>726000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>508200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>504000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>413900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>605800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>284000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>422000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>164300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>118100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65600</v>
+        <v>54800</v>
       </c>
       <c r="E42" s="3">
-        <v>441200</v>
+        <v>65700</v>
       </c>
       <c r="F42" s="3">
-        <v>283400</v>
+        <v>442200</v>
       </c>
       <c r="G42" s="3">
-        <v>219100</v>
+        <v>284000</v>
       </c>
       <c r="H42" s="3">
-        <v>820300</v>
+        <v>219500</v>
       </c>
       <c r="I42" s="3">
-        <v>920000</v>
+        <v>822100</v>
       </c>
       <c r="J42" s="3">
+        <v>922000</v>
+      </c>
+      <c r="K42" s="3">
         <v>665600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>653600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>299700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>405200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>294700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>120900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>140900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>921300</v>
+        <v>904900</v>
       </c>
       <c r="E43" s="3">
-        <v>929300</v>
+        <v>923400</v>
       </c>
       <c r="F43" s="3">
-        <v>889700</v>
+        <v>931300</v>
       </c>
       <c r="G43" s="3">
-        <v>963500</v>
+        <v>891600</v>
       </c>
       <c r="H43" s="3">
-        <v>880000</v>
+        <v>965600</v>
       </c>
       <c r="I43" s="3">
-        <v>953300</v>
+        <v>881900</v>
       </c>
       <c r="J43" s="3">
+        <v>955400</v>
+      </c>
+      <c r="K43" s="3">
         <v>875900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>867400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>843400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>948600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>956400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>849600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>835500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>923500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>785800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>661200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>670700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60600</v>
+        <v>75600</v>
       </c>
       <c r="E44" s="3">
-        <v>47600</v>
+        <v>60800</v>
       </c>
       <c r="F44" s="3">
-        <v>56000</v>
+        <v>47700</v>
       </c>
       <c r="G44" s="3">
-        <v>56400</v>
+        <v>56100</v>
       </c>
       <c r="H44" s="3">
-        <v>44800</v>
+        <v>56500</v>
       </c>
       <c r="I44" s="3">
-        <v>40800</v>
+        <v>44900</v>
       </c>
       <c r="J44" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K44" s="3">
         <v>46600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>56300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>37800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>40200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>231000</v>
+        <v>218900</v>
       </c>
       <c r="E45" s="3">
-        <v>156100</v>
+        <v>231500</v>
       </c>
       <c r="F45" s="3">
-        <v>189900</v>
+        <v>156400</v>
       </c>
       <c r="G45" s="3">
-        <v>281000</v>
+        <v>190300</v>
       </c>
       <c r="H45" s="3">
-        <v>188200</v>
+        <v>281700</v>
       </c>
       <c r="I45" s="3">
-        <v>134000</v>
+        <v>188600</v>
       </c>
       <c r="J45" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K45" s="3">
         <v>132600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>170200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>164900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>108500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>121800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>206800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1994500</v>
+        <v>1873200</v>
       </c>
       <c r="E46" s="3">
-        <v>2087400</v>
+        <v>1998900</v>
       </c>
       <c r="F46" s="3">
-        <v>1881300</v>
+        <v>2092000</v>
       </c>
       <c r="G46" s="3">
-        <v>1761500</v>
+        <v>1885400</v>
       </c>
       <c r="H46" s="3">
-        <v>2739300</v>
+        <v>1765300</v>
       </c>
       <c r="I46" s="3">
-        <v>3101200</v>
+        <v>2745300</v>
       </c>
       <c r="J46" s="3">
+        <v>3107900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2539900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2460900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1879800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2037500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1870100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1647200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1283000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1561500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1258200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1056500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1229800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>649700</v>
+        <v>724200</v>
       </c>
       <c r="E47" s="3">
-        <v>645500</v>
+        <v>651100</v>
       </c>
       <c r="F47" s="3">
-        <v>695400</v>
+        <v>646900</v>
       </c>
       <c r="G47" s="3">
-        <v>687000</v>
+        <v>696900</v>
       </c>
       <c r="H47" s="3">
-        <v>684100</v>
+        <v>688500</v>
       </c>
       <c r="I47" s="3">
-        <v>691900</v>
+        <v>685600</v>
       </c>
       <c r="J47" s="3">
+        <v>693400</v>
+      </c>
+      <c r="K47" s="3">
         <v>411600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>367500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>444200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>410400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>665000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>603700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>609100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>786100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>766800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>294700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4698100</v>
+        <v>4659500</v>
       </c>
       <c r="E48" s="3">
-        <v>4564000</v>
+        <v>4708400</v>
       </c>
       <c r="F48" s="3">
-        <v>4652700</v>
+        <v>4573900</v>
       </c>
       <c r="G48" s="3">
-        <v>4762500</v>
+        <v>4662900</v>
       </c>
       <c r="H48" s="3">
-        <v>3881800</v>
+        <v>4772900</v>
       </c>
       <c r="I48" s="3">
-        <v>3687300</v>
+        <v>3890300</v>
       </c>
       <c r="J48" s="3">
+        <v>3695400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3515000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3373600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3450400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3542300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3380900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3415200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3190900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3253000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3129600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2907800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2970000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3290100</v>
+        <v>3239600</v>
       </c>
       <c r="E49" s="3">
-        <v>3306300</v>
+        <v>3297300</v>
       </c>
       <c r="F49" s="3">
-        <v>3212200</v>
+        <v>3313500</v>
       </c>
       <c r="G49" s="3">
-        <v>3171000</v>
+        <v>3219200</v>
       </c>
       <c r="H49" s="3">
-        <v>2135000</v>
+        <v>3178000</v>
       </c>
       <c r="I49" s="3">
-        <v>2131800</v>
+        <v>2139600</v>
       </c>
       <c r="J49" s="3">
+        <v>2136500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1459200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1444800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1650300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1766600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1755400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1826000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1703000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1785700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1846400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1791600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1947200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>765400</v>
+        <v>747400</v>
       </c>
       <c r="E52" s="3">
-        <v>757500</v>
+        <v>767000</v>
       </c>
       <c r="F52" s="3">
-        <v>572600</v>
+        <v>759200</v>
       </c>
       <c r="G52" s="3">
-        <v>555400</v>
+        <v>573800</v>
       </c>
       <c r="H52" s="3">
-        <v>433700</v>
+        <v>556600</v>
       </c>
       <c r="I52" s="3">
-        <v>421400</v>
+        <v>434600</v>
       </c>
       <c r="J52" s="3">
+        <v>422300</v>
+      </c>
+      <c r="K52" s="3">
         <v>931700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>878600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>344500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>361100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>333500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>295600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>270900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>243100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>278500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>276200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>448900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11397800</v>
+        <v>11243800</v>
       </c>
       <c r="E54" s="3">
-        <v>11360600</v>
+        <v>11422700</v>
       </c>
       <c r="F54" s="3">
-        <v>11014100</v>
+        <v>11385500</v>
       </c>
       <c r="G54" s="3">
-        <v>10937400</v>
+        <v>11038200</v>
       </c>
       <c r="H54" s="3">
-        <v>9873900</v>
+        <v>10961300</v>
       </c>
       <c r="I54" s="3">
-        <v>10033600</v>
+        <v>9895500</v>
       </c>
       <c r="J54" s="3">
+        <v>10055500</v>
+      </c>
+      <c r="K54" s="3">
         <v>8857300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8492200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7692600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8151800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7750300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7849100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7051500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7452400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7298800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6798900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6890500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>778000</v>
+        <v>736900</v>
       </c>
       <c r="E57" s="3">
-        <v>853400</v>
+        <v>779700</v>
       </c>
       <c r="F57" s="3">
-        <v>835300</v>
+        <v>855200</v>
       </c>
       <c r="G57" s="3">
-        <v>822400</v>
+        <v>837100</v>
       </c>
       <c r="H57" s="3">
-        <v>606200</v>
+        <v>824200</v>
       </c>
       <c r="I57" s="3">
-        <v>658100</v>
+        <v>607500</v>
       </c>
       <c r="J57" s="3">
+        <v>659500</v>
+      </c>
+      <c r="K57" s="3">
         <v>534400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>501500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>497900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>612300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>423900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>407700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>470400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>724600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>548300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>512000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>707700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>782700</v>
+        <v>863200</v>
       </c>
       <c r="E58" s="3">
-        <v>709400</v>
+        <v>784400</v>
       </c>
       <c r="F58" s="3">
-        <v>403100</v>
+        <v>710900</v>
       </c>
       <c r="G58" s="3">
-        <v>391900</v>
+        <v>404000</v>
       </c>
       <c r="H58" s="3">
-        <v>271700</v>
+        <v>392800</v>
       </c>
       <c r="I58" s="3">
-        <v>364200</v>
+        <v>272300</v>
       </c>
       <c r="J58" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K58" s="3">
         <v>359000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>509600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>630200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>537000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>543200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>513900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>363300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>416900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>432400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>233000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>249900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1131700</v>
+        <v>1076500</v>
       </c>
       <c r="E59" s="3">
-        <v>1079200</v>
+        <v>1134200</v>
       </c>
       <c r="F59" s="3">
-        <v>841400</v>
+        <v>1081600</v>
       </c>
       <c r="G59" s="3">
-        <v>734100</v>
+        <v>843200</v>
       </c>
       <c r="H59" s="3">
-        <v>881900</v>
+        <v>735700</v>
       </c>
       <c r="I59" s="3">
-        <v>1114900</v>
+        <v>883800</v>
       </c>
       <c r="J59" s="3">
+        <v>1117300</v>
+      </c>
+      <c r="K59" s="3">
         <v>482200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>462100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>350500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>475400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>332200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>307800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>229800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>357800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>383300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>256100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>261700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2692400</v>
+        <v>2676600</v>
       </c>
       <c r="E60" s="3">
-        <v>2642000</v>
+        <v>2698300</v>
       </c>
       <c r="F60" s="3">
-        <v>2079700</v>
+        <v>2647700</v>
       </c>
       <c r="G60" s="3">
-        <v>1948400</v>
+        <v>2084300</v>
       </c>
       <c r="H60" s="3">
-        <v>1759800</v>
+        <v>1952600</v>
       </c>
       <c r="I60" s="3">
-        <v>2137200</v>
+        <v>1763600</v>
       </c>
       <c r="J60" s="3">
+        <v>2141800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1375500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1473300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1478600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1624700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1299200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1229400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1063500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1499300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1364000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1001100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1219300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2872200</v>
+        <v>2747900</v>
       </c>
       <c r="E61" s="3">
-        <v>2875900</v>
+        <v>2878500</v>
       </c>
       <c r="F61" s="3">
-        <v>3104200</v>
+        <v>2882200</v>
       </c>
       <c r="G61" s="3">
-        <v>3131300</v>
+        <v>3111000</v>
       </c>
       <c r="H61" s="3">
-        <v>2381000</v>
+        <v>3138100</v>
       </c>
       <c r="I61" s="3">
-        <v>2235700</v>
+        <v>2386200</v>
       </c>
       <c r="J61" s="3">
+        <v>2240600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2043100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1939900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1417100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1561600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1494800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1638000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1534300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1395000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1393500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1461300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1503800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>754700</v>
+        <v>707300</v>
       </c>
       <c r="E62" s="3">
-        <v>727800</v>
+        <v>756400</v>
       </c>
       <c r="F62" s="3">
-        <v>735600</v>
+        <v>729300</v>
       </c>
       <c r="G62" s="3">
-        <v>756000</v>
+        <v>737200</v>
       </c>
       <c r="H62" s="3">
-        <v>630000</v>
+        <v>757600</v>
       </c>
       <c r="I62" s="3">
-        <v>604200</v>
+        <v>631400</v>
       </c>
       <c r="J62" s="3">
+        <v>605500</v>
+      </c>
+      <c r="K62" s="3">
         <v>475800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>475600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>407100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>428600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>427700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>479400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>421400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>415000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>459000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>451600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>440000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6319400</v>
+        <v>6131800</v>
       </c>
       <c r="E66" s="3">
-        <v>6245600</v>
+        <v>6333200</v>
       </c>
       <c r="F66" s="3">
-        <v>5919600</v>
+        <v>6259300</v>
       </c>
       <c r="G66" s="3">
-        <v>5835700</v>
+        <v>5932500</v>
       </c>
       <c r="H66" s="3">
-        <v>4770800</v>
+        <v>5848400</v>
       </c>
       <c r="I66" s="3">
-        <v>4977000</v>
+        <v>4781300</v>
       </c>
       <c r="J66" s="3">
+        <v>4987900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3894400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3888700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3302800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3614900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3221800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3346700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3019200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3309300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3216600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2914000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3163100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2293500</v>
+        <v>2321100</v>
       </c>
       <c r="E72" s="3">
-        <v>2330200</v>
+        <v>2298600</v>
       </c>
       <c r="F72" s="3">
-        <v>2310100</v>
+        <v>2335300</v>
       </c>
       <c r="G72" s="3">
-        <v>2323000</v>
+        <v>2315200</v>
       </c>
       <c r="H72" s="3">
-        <v>2319200</v>
+        <v>2328100</v>
       </c>
       <c r="I72" s="3">
-        <v>2272700</v>
+        <v>2324300</v>
       </c>
       <c r="J72" s="3">
+        <v>2277700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2179300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1930100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1803500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1831900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1835100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2161300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2204900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2251400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2160900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2071600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1811200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5078400</v>
+        <v>5112000</v>
       </c>
       <c r="E76" s="3">
-        <v>5115000</v>
+        <v>5089500</v>
       </c>
       <c r="F76" s="3">
-        <v>5094600</v>
+        <v>5126200</v>
       </c>
       <c r="G76" s="3">
-        <v>5101800</v>
+        <v>5105700</v>
       </c>
       <c r="H76" s="3">
-        <v>5103100</v>
+        <v>5112900</v>
       </c>
       <c r="I76" s="3">
-        <v>5056600</v>
+        <v>5114200</v>
       </c>
       <c r="J76" s="3">
+        <v>5067600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4962900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4603400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4389800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4536900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4528500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4502400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4032300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4143200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4082200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3884900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3727500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83100</v>
+        <v>126400</v>
       </c>
       <c r="E81" s="3">
-        <v>108400</v>
+        <v>83200</v>
       </c>
       <c r="F81" s="3">
-        <v>90200</v>
+        <v>108600</v>
       </c>
       <c r="G81" s="3">
-        <v>56300</v>
+        <v>90400</v>
       </c>
       <c r="H81" s="3">
-        <v>81600</v>
+        <v>56400</v>
       </c>
       <c r="I81" s="3">
-        <v>204500</v>
+        <v>81800</v>
       </c>
       <c r="J81" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K81" s="3">
         <v>199900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>198300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>86800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>169600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>358100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>357900</v>
+        <v>370300</v>
       </c>
       <c r="E83" s="3">
-        <v>374300</v>
+        <v>358700</v>
       </c>
       <c r="F83" s="3">
-        <v>378700</v>
+        <v>375100</v>
       </c>
       <c r="G83" s="3">
-        <v>340200</v>
+        <v>379500</v>
       </c>
       <c r="H83" s="3">
-        <v>281800</v>
+        <v>341000</v>
       </c>
       <c r="I83" s="3">
-        <v>289200</v>
+        <v>282400</v>
       </c>
       <c r="J83" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K83" s="3">
         <v>282800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>275700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>267100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>269800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>270800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>543500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>251500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>195800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>269500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>229800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>249700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>397800</v>
+        <v>426300</v>
       </c>
       <c r="E89" s="3">
-        <v>705300</v>
+        <v>398700</v>
       </c>
       <c r="F89" s="3">
-        <v>699400</v>
+        <v>706900</v>
       </c>
       <c r="G89" s="3">
-        <v>268800</v>
+        <v>700900</v>
       </c>
       <c r="H89" s="3">
-        <v>225500</v>
+        <v>269400</v>
       </c>
       <c r="I89" s="3">
-        <v>629000</v>
+        <v>226000</v>
       </c>
       <c r="J89" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K89" s="3">
         <v>558400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>432300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>364700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>723800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>426300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>549100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>666100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>394600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>187500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>55400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-925700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1288500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1375200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-977600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1049600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1328000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2157400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-896500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-175400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-247700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-286500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-165600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-310800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-161400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-246500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-173300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-167300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-121700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>117400</v>
+        <v>-168900</v>
       </c>
       <c r="E94" s="3">
-        <v>-444100</v>
+        <v>117700</v>
       </c>
       <c r="F94" s="3">
-        <v>-260000</v>
+        <v>-445100</v>
       </c>
       <c r="G94" s="3">
-        <v>-864500</v>
+        <v>-293100</v>
       </c>
       <c r="H94" s="3">
-        <v>-167400</v>
+        <v>-833900</v>
       </c>
       <c r="I94" s="3">
-        <v>-469600</v>
+        <v>-167800</v>
       </c>
       <c r="J94" s="3">
+        <v>-470600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-166300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-518500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-159800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-395400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-408500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-231700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-222900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-226400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-121600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-114600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131900</v>
+        <v>-164700</v>
       </c>
       <c r="E96" s="3">
-        <v>-53500</v>
+        <v>-132200</v>
       </c>
       <c r="F96" s="3">
         <v>-53600</v>
       </c>
       <c r="G96" s="3">
-        <v>-38700</v>
+        <v>-53700</v>
       </c>
       <c r="H96" s="3">
-        <v>-95700</v>
+        <v>-38800</v>
       </c>
       <c r="I96" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-42700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-59800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-91000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-108700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-112000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-101300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-64200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-312600</v>
+        <v>-355900</v>
       </c>
       <c r="E100" s="3">
-        <v>-210200</v>
+        <v>-313200</v>
       </c>
       <c r="F100" s="3">
-        <v>-218400</v>
+        <v>-210600</v>
       </c>
       <c r="G100" s="3">
-        <v>30900</v>
+        <v>-218900</v>
       </c>
       <c r="H100" s="3">
-        <v>-304900</v>
+        <v>31000</v>
       </c>
       <c r="I100" s="3">
-        <v>74400</v>
+        <v>-305600</v>
       </c>
       <c r="J100" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-328000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>286200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-178500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-240200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-202700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-161800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-160300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-183000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-129100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>29200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>202700</v>
+        <v>-98500</v>
       </c>
       <c r="E102" s="3">
-        <v>51000</v>
+        <v>203100</v>
       </c>
       <c r="F102" s="3">
-        <v>220900</v>
+        <v>51100</v>
       </c>
       <c r="G102" s="3">
-        <v>-564800</v>
+        <v>221400</v>
       </c>
       <c r="H102" s="3">
-        <v>-246900</v>
+        <v>-566000</v>
       </c>
       <c r="I102" s="3">
-        <v>233800</v>
+        <v>-247400</v>
       </c>
       <c r="J102" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K102" s="3">
         <v>64100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>199900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-184800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>155600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-123900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>260200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-43900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TIMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1183400</v>
+        <v>1245200</v>
       </c>
       <c r="E8" s="3">
-        <v>1138400</v>
+        <v>1205700</v>
       </c>
       <c r="F8" s="3">
-        <v>1175600</v>
+        <v>1159800</v>
       </c>
       <c r="G8" s="3">
-        <v>1132600</v>
+        <v>1197700</v>
       </c>
       <c r="H8" s="3">
-        <v>1083500</v>
+        <v>1153800</v>
       </c>
       <c r="I8" s="3">
-        <v>954100</v>
+        <v>1103800</v>
       </c>
       <c r="J8" s="3">
+        <v>972100</v>
+      </c>
+      <c r="K8" s="3">
         <v>968700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>908700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>853300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>811900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>915500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>854600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1616400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>752500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>847100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>813600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>754800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>784200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>834100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>739500</v>
+        <v>734000</v>
       </c>
       <c r="E9" s="3">
-        <v>733500</v>
+        <v>753400</v>
       </c>
       <c r="F9" s="3">
-        <v>739300</v>
+        <v>747300</v>
       </c>
       <c r="G9" s="3">
-        <v>730300</v>
+        <v>753200</v>
       </c>
       <c r="H9" s="3">
-        <v>702000</v>
+        <v>744100</v>
       </c>
       <c r="I9" s="3">
-        <v>600200</v>
+        <v>715100</v>
       </c>
       <c r="J9" s="3">
+        <v>611500</v>
+      </c>
+      <c r="K9" s="3">
         <v>563900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>546100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>522400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>499800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>414300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>399500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1122400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>350200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>366300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>329200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>366300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>367900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>444000</v>
+        <v>511100</v>
       </c>
       <c r="E10" s="3">
-        <v>404900</v>
+        <v>452300</v>
       </c>
       <c r="F10" s="3">
-        <v>436300</v>
+        <v>412500</v>
       </c>
       <c r="G10" s="3">
-        <v>402200</v>
+        <v>444400</v>
       </c>
       <c r="H10" s="3">
-        <v>381500</v>
+        <v>409800</v>
       </c>
       <c r="I10" s="3">
-        <v>353900</v>
+        <v>388700</v>
       </c>
       <c r="J10" s="3">
+        <v>360600</v>
+      </c>
+      <c r="K10" s="3">
         <v>404800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>362500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>331000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>312100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>501200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>455100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>494000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>402400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>539800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>447200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>425600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>417900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>466200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9600</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="3">
-        <v>14900</v>
+        <v>9800</v>
       </c>
       <c r="F14" s="3">
-        <v>7800</v>
+        <v>15200</v>
       </c>
       <c r="G14" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="H14" s="3">
-        <v>4700</v>
+        <v>7400</v>
       </c>
       <c r="I14" s="3">
-        <v>9800</v>
+        <v>4800</v>
       </c>
       <c r="J14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>40300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37800</v>
+        <v>39200</v>
       </c>
       <c r="E15" s="3">
-        <v>36000</v>
+        <v>38500</v>
       </c>
       <c r="F15" s="3">
-        <v>36800</v>
+        <v>36700</v>
       </c>
       <c r="G15" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="H15" s="3">
-        <v>37700</v>
+        <v>38700</v>
       </c>
       <c r="I15" s="3">
-        <v>39500</v>
+        <v>38500</v>
       </c>
       <c r="J15" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K15" s="3">
         <v>41000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43800</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>44800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>45900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>973800</v>
+        <v>994500</v>
       </c>
       <c r="E17" s="3">
-        <v>981100</v>
+        <v>992000</v>
       </c>
       <c r="F17" s="3">
-        <v>979600</v>
+        <v>999500</v>
       </c>
       <c r="G17" s="3">
-        <v>978800</v>
+        <v>998000</v>
       </c>
       <c r="H17" s="3">
-        <v>935700</v>
+        <v>997200</v>
       </c>
       <c r="I17" s="3">
-        <v>813900</v>
+        <v>953300</v>
       </c>
       <c r="J17" s="3">
+        <v>829200</v>
+      </c>
+      <c r="K17" s="3">
         <v>616500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>756600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>724900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>701100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>724800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>721600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1388200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>660600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>616100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>690200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>372700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>683600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>209700</v>
+        <v>250600</v>
       </c>
       <c r="E18" s="3">
-        <v>157300</v>
+        <v>213600</v>
       </c>
       <c r="F18" s="3">
-        <v>196000</v>
+        <v>160300</v>
       </c>
       <c r="G18" s="3">
-        <v>153800</v>
+        <v>199700</v>
       </c>
       <c r="H18" s="3">
-        <v>147800</v>
+        <v>156700</v>
       </c>
       <c r="I18" s="3">
-        <v>140300</v>
+        <v>150600</v>
       </c>
       <c r="J18" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K18" s="3">
         <v>352200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>110900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>190700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>133000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>228100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>231000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>123400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>382100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9500</v>
+        <v>-28400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8000</v>
+        <v>-9700</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>-8200</v>
       </c>
       <c r="G20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-20200</v>
-      </c>
       <c r="I20" s="3">
-        <v>7200</v>
+        <v>-20600</v>
       </c>
       <c r="J20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K20" s="3">
         <v>20300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-47500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>179600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>570400</v>
+        <v>583200</v>
       </c>
       <c r="E21" s="3">
-        <v>508000</v>
+        <v>581200</v>
       </c>
       <c r="F21" s="3">
-        <v>576200</v>
+        <v>517500</v>
       </c>
       <c r="G21" s="3">
-        <v>536400</v>
+        <v>587000</v>
       </c>
       <c r="H21" s="3">
-        <v>468500</v>
+        <v>546400</v>
       </c>
       <c r="I21" s="3">
-        <v>429900</v>
+        <v>477300</v>
       </c>
       <c r="J21" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K21" s="3">
         <v>662400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>440200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>440600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>373400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>490000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>356300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>714700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>333700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>427400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>388300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>791500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>327300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76400</v>
+        <v>55100</v>
       </c>
       <c r="E22" s="3">
-        <v>37100</v>
+        <v>77900</v>
       </c>
       <c r="F22" s="3">
-        <v>75800</v>
+        <v>37800</v>
       </c>
       <c r="G22" s="3">
-        <v>84200</v>
+        <v>77200</v>
       </c>
       <c r="H22" s="3">
-        <v>68400</v>
+        <v>85800</v>
       </c>
       <c r="I22" s="3">
-        <v>57300</v>
+        <v>69600</v>
       </c>
       <c r="J22" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K22" s="3">
         <v>56700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38200</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>40300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>123700</v>
+        <v>167100</v>
       </c>
       <c r="E23" s="3">
-        <v>112300</v>
+        <v>126100</v>
       </c>
       <c r="F23" s="3">
-        <v>125300</v>
+        <v>114400</v>
       </c>
       <c r="G23" s="3">
-        <v>72600</v>
+        <v>127700</v>
       </c>
       <c r="H23" s="3">
-        <v>59200</v>
+        <v>74000</v>
       </c>
       <c r="I23" s="3">
-        <v>90200</v>
+        <v>60300</v>
       </c>
       <c r="J23" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K23" s="3">
         <v>315800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>182000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>187500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>73300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>521300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2700</v>
+        <v>19900</v>
       </c>
       <c r="E24" s="3">
-        <v>29000</v>
+        <v>-2800</v>
       </c>
       <c r="F24" s="3">
-        <v>16700</v>
+        <v>29500</v>
       </c>
       <c r="G24" s="3">
-        <v>-17700</v>
+        <v>17000</v>
       </c>
       <c r="H24" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
-        <v>8400</v>
-      </c>
       <c r="J24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K24" s="3">
         <v>110900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-90300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-32100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>163300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>126400</v>
+        <v>147200</v>
       </c>
       <c r="E26" s="3">
-        <v>83200</v>
+        <v>128800</v>
       </c>
       <c r="F26" s="3">
-        <v>108600</v>
+        <v>84800</v>
       </c>
       <c r="G26" s="3">
-        <v>90400</v>
+        <v>110700</v>
       </c>
       <c r="H26" s="3">
-        <v>56400</v>
+        <v>92100</v>
       </c>
       <c r="I26" s="3">
-        <v>81800</v>
+        <v>57500</v>
       </c>
       <c r="J26" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K26" s="3">
         <v>204900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>130200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>198300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>86800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>169600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>105400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>358100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>126400</v>
+        <v>147200</v>
       </c>
       <c r="E27" s="3">
-        <v>83200</v>
+        <v>128800</v>
       </c>
       <c r="F27" s="3">
-        <v>108600</v>
+        <v>84800</v>
       </c>
       <c r="G27" s="3">
-        <v>90400</v>
+        <v>110700</v>
       </c>
       <c r="H27" s="3">
-        <v>56400</v>
+        <v>92100</v>
       </c>
       <c r="I27" s="3">
-        <v>81800</v>
+        <v>57500</v>
       </c>
       <c r="J27" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K27" s="3">
         <v>204900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>130200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>198300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>86800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>169600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>105400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>358100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9500</v>
+        <v>28400</v>
       </c>
       <c r="E32" s="3">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>8200</v>
       </c>
       <c r="G32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
-        <v>20200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-7200</v>
+        <v>20600</v>
       </c>
       <c r="J32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>47500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>56900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-179600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126400</v>
+        <v>147200</v>
       </c>
       <c r="E33" s="3">
-        <v>83200</v>
+        <v>128800</v>
       </c>
       <c r="F33" s="3">
-        <v>108600</v>
+        <v>84800</v>
       </c>
       <c r="G33" s="3">
-        <v>90400</v>
+        <v>110700</v>
       </c>
       <c r="H33" s="3">
-        <v>56400</v>
+        <v>92100</v>
       </c>
       <c r="I33" s="3">
-        <v>81800</v>
+        <v>57500</v>
       </c>
       <c r="J33" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K33" s="3">
         <v>204900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>130200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>198300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>86800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>169600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>105400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>358100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126400</v>
+        <v>147200</v>
       </c>
       <c r="E35" s="3">
-        <v>83200</v>
+        <v>128800</v>
       </c>
       <c r="F35" s="3">
-        <v>108600</v>
+        <v>84800</v>
       </c>
       <c r="G35" s="3">
-        <v>90400</v>
+        <v>110700</v>
       </c>
       <c r="H35" s="3">
-        <v>56400</v>
+        <v>92100</v>
       </c>
       <c r="I35" s="3">
-        <v>81800</v>
+        <v>57500</v>
       </c>
       <c r="J35" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K35" s="3">
         <v>204900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>130200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>198300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>86800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>169600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>105400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>358100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>619000</v>
+        <v>742100</v>
       </c>
       <c r="E41" s="3">
-        <v>717600</v>
+        <v>630700</v>
       </c>
       <c r="F41" s="3">
-        <v>514400</v>
+        <v>731000</v>
       </c>
       <c r="G41" s="3">
-        <v>463300</v>
+        <v>524100</v>
       </c>
       <c r="H41" s="3">
-        <v>241900</v>
+        <v>472000</v>
       </c>
       <c r="I41" s="3">
-        <v>807900</v>
+        <v>246500</v>
       </c>
       <c r="J41" s="3">
+        <v>823100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1055300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>819200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>726000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>508200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>504000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>413900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>605800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>284000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>422000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>164300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>118100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>171200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54800</v>
+        <v>172200</v>
       </c>
       <c r="E42" s="3">
-        <v>65700</v>
+        <v>55900</v>
       </c>
       <c r="F42" s="3">
-        <v>442200</v>
+        <v>66900</v>
       </c>
       <c r="G42" s="3">
-        <v>284000</v>
+        <v>450500</v>
       </c>
       <c r="H42" s="3">
-        <v>219500</v>
+        <v>289400</v>
       </c>
       <c r="I42" s="3">
-        <v>822100</v>
+        <v>223700</v>
       </c>
       <c r="J42" s="3">
+        <v>837500</v>
+      </c>
+      <c r="K42" s="3">
         <v>922000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>665600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>653600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>299700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>405200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>294700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>120900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>87400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>140900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>904900</v>
+        <v>1024600</v>
       </c>
       <c r="E43" s="3">
-        <v>923400</v>
+        <v>921900</v>
       </c>
       <c r="F43" s="3">
-        <v>931300</v>
+        <v>940700</v>
       </c>
       <c r="G43" s="3">
-        <v>891600</v>
+        <v>948800</v>
       </c>
       <c r="H43" s="3">
-        <v>965600</v>
+        <v>908400</v>
       </c>
       <c r="I43" s="3">
-        <v>881900</v>
+        <v>983800</v>
       </c>
       <c r="J43" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K43" s="3">
         <v>955400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>875900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>867400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>843400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>948600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>956400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>849600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>835500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>923500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>785800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>661200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>670700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>648700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75600</v>
+        <v>85400</v>
       </c>
       <c r="E44" s="3">
-        <v>60800</v>
+        <v>77000</v>
       </c>
       <c r="F44" s="3">
-        <v>47700</v>
+        <v>61900</v>
       </c>
       <c r="G44" s="3">
-        <v>56100</v>
+        <v>48600</v>
       </c>
       <c r="H44" s="3">
-        <v>56500</v>
+        <v>57200</v>
       </c>
       <c r="I44" s="3">
-        <v>44900</v>
+        <v>57600</v>
       </c>
       <c r="J44" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K44" s="3">
         <v>40900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>56300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>40200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>218900</v>
+        <v>204100</v>
       </c>
       <c r="E45" s="3">
-        <v>231500</v>
+        <v>223000</v>
       </c>
       <c r="F45" s="3">
-        <v>156400</v>
+        <v>235800</v>
       </c>
       <c r="G45" s="3">
-        <v>190300</v>
+        <v>159300</v>
       </c>
       <c r="H45" s="3">
-        <v>281700</v>
+        <v>193900</v>
       </c>
       <c r="I45" s="3">
-        <v>188600</v>
+        <v>286900</v>
       </c>
       <c r="J45" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K45" s="3">
         <v>134300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>132600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>172100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>164900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>108500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>121800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>152000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>206800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>91300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1873200</v>
+        <v>2228400</v>
       </c>
       <c r="E46" s="3">
-        <v>1998900</v>
+        <v>1908400</v>
       </c>
       <c r="F46" s="3">
-        <v>2092000</v>
+        <v>2036400</v>
       </c>
       <c r="G46" s="3">
-        <v>1885400</v>
+        <v>2131200</v>
       </c>
       <c r="H46" s="3">
-        <v>1765300</v>
+        <v>1920800</v>
       </c>
       <c r="I46" s="3">
-        <v>2745300</v>
+        <v>1798500</v>
       </c>
       <c r="J46" s="3">
+        <v>2796900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3107900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2539900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2460900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1879800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2037500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1870100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1647200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1283000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1561500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1258200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1056500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1229800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1122400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>724200</v>
+        <v>590700</v>
       </c>
       <c r="E47" s="3">
-        <v>651100</v>
+        <v>737800</v>
       </c>
       <c r="F47" s="3">
-        <v>646900</v>
+        <v>663400</v>
       </c>
       <c r="G47" s="3">
-        <v>696900</v>
+        <v>659000</v>
       </c>
       <c r="H47" s="3">
-        <v>688500</v>
+        <v>710000</v>
       </c>
       <c r="I47" s="3">
-        <v>685600</v>
+        <v>701400</v>
       </c>
       <c r="J47" s="3">
+        <v>698500</v>
+      </c>
+      <c r="K47" s="3">
         <v>693400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>411600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>367500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>444200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>410400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>665000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>603700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>609100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>786100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>766800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>294700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4659500</v>
+        <v>4652700</v>
       </c>
       <c r="E48" s="3">
-        <v>4708400</v>
+        <v>4746900</v>
       </c>
       <c r="F48" s="3">
-        <v>4573900</v>
+        <v>4796800</v>
       </c>
       <c r="G48" s="3">
-        <v>4662900</v>
+        <v>4659800</v>
       </c>
       <c r="H48" s="3">
-        <v>4772900</v>
+        <v>4750400</v>
       </c>
       <c r="I48" s="3">
-        <v>3890300</v>
+        <v>4862500</v>
       </c>
       <c r="J48" s="3">
+        <v>3963300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3695400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3515000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3373600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3450400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3542300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3380900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3415200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3190900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3253000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3129600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2907800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2970000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2096500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3239600</v>
+        <v>3243400</v>
       </c>
       <c r="E49" s="3">
-        <v>3297300</v>
+        <v>3300400</v>
       </c>
       <c r="F49" s="3">
-        <v>3313500</v>
+        <v>3359200</v>
       </c>
       <c r="G49" s="3">
-        <v>3219200</v>
+        <v>3375700</v>
       </c>
       <c r="H49" s="3">
-        <v>3178000</v>
+        <v>3279700</v>
       </c>
       <c r="I49" s="3">
-        <v>2139600</v>
+        <v>3237600</v>
       </c>
       <c r="J49" s="3">
+        <v>2179800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2136500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1459200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1444800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1650300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1766600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1755400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1826000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1703000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1785700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1846400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1791600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1947200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1998900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>747400</v>
+        <v>794600</v>
       </c>
       <c r="E52" s="3">
-        <v>767000</v>
+        <v>761400</v>
       </c>
       <c r="F52" s="3">
-        <v>759200</v>
+        <v>781400</v>
       </c>
       <c r="G52" s="3">
-        <v>573800</v>
+        <v>773400</v>
       </c>
       <c r="H52" s="3">
-        <v>556600</v>
+        <v>584600</v>
       </c>
       <c r="I52" s="3">
-        <v>434600</v>
+        <v>567000</v>
       </c>
       <c r="J52" s="3">
+        <v>442800</v>
+      </c>
+      <c r="K52" s="3">
         <v>422300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>931700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>878600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>344500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>361100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>333500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>295600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>270900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>243100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>278500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>276200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>448900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11243800</v>
+        <v>11509700</v>
       </c>
       <c r="E54" s="3">
-        <v>11422700</v>
+        <v>11455000</v>
       </c>
       <c r="F54" s="3">
-        <v>11385500</v>
+        <v>11637200</v>
       </c>
       <c r="G54" s="3">
-        <v>11038200</v>
+        <v>11599300</v>
       </c>
       <c r="H54" s="3">
-        <v>10961300</v>
+        <v>11245500</v>
       </c>
       <c r="I54" s="3">
-        <v>9895500</v>
+        <v>11167100</v>
       </c>
       <c r="J54" s="3">
+        <v>10081300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10055500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8857300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8492200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7692600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8151800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7750300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7849100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7051500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7452400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7298800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6798900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6890500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5980300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>736900</v>
+        <v>792500</v>
       </c>
       <c r="E57" s="3">
-        <v>779700</v>
+        <v>750700</v>
       </c>
       <c r="F57" s="3">
-        <v>855200</v>
+        <v>794400</v>
       </c>
       <c r="G57" s="3">
-        <v>837100</v>
+        <v>871300</v>
       </c>
       <c r="H57" s="3">
-        <v>824200</v>
+        <v>852800</v>
       </c>
       <c r="I57" s="3">
-        <v>607500</v>
+        <v>839700</v>
       </c>
       <c r="J57" s="3">
+        <v>618900</v>
+      </c>
+      <c r="K57" s="3">
         <v>659500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>501500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>497900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>612300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>423900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>407700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>470400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>724600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>548300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>512000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>707700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>809000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>863200</v>
+        <v>861600</v>
       </c>
       <c r="E58" s="3">
-        <v>784400</v>
+        <v>879400</v>
       </c>
       <c r="F58" s="3">
-        <v>710900</v>
+        <v>799100</v>
       </c>
       <c r="G58" s="3">
-        <v>404000</v>
+        <v>724300</v>
       </c>
       <c r="H58" s="3">
-        <v>392800</v>
+        <v>411500</v>
       </c>
       <c r="I58" s="3">
-        <v>272300</v>
+        <v>400200</v>
       </c>
       <c r="J58" s="3">
+        <v>277400</v>
+      </c>
+      <c r="K58" s="3">
         <v>365000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>359000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>509600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>630200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>537000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>543200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>513900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>363300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>416900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>432400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>233000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>249900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1076500</v>
+        <v>1166900</v>
       </c>
       <c r="E59" s="3">
-        <v>1134200</v>
+        <v>1096700</v>
       </c>
       <c r="F59" s="3">
-        <v>1081600</v>
+        <v>1155500</v>
       </c>
       <c r="G59" s="3">
-        <v>843200</v>
+        <v>1101900</v>
       </c>
       <c r="H59" s="3">
-        <v>735700</v>
+        <v>859100</v>
       </c>
       <c r="I59" s="3">
-        <v>883800</v>
+        <v>749500</v>
       </c>
       <c r="J59" s="3">
+        <v>900400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1117300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>482200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>462100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>350500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>475400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>332200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>307800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>229800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>357800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>383300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>256100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>261700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>345900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2676600</v>
+        <v>2821000</v>
       </c>
       <c r="E60" s="3">
-        <v>2698300</v>
+        <v>2726900</v>
       </c>
       <c r="F60" s="3">
-        <v>2647700</v>
+        <v>2749000</v>
       </c>
       <c r="G60" s="3">
-        <v>2084300</v>
+        <v>2697500</v>
       </c>
       <c r="H60" s="3">
-        <v>1952600</v>
+        <v>2123400</v>
       </c>
       <c r="I60" s="3">
-        <v>1763600</v>
+        <v>1989300</v>
       </c>
       <c r="J60" s="3">
+        <v>1796700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2141800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1375500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1473300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1478600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1624700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1299200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1229400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1063500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1499300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1364000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1001100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1219300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2747900</v>
+        <v>2725200</v>
       </c>
       <c r="E61" s="3">
-        <v>2878500</v>
+        <v>2799500</v>
       </c>
       <c r="F61" s="3">
-        <v>2882200</v>
+        <v>2932500</v>
       </c>
       <c r="G61" s="3">
-        <v>3111000</v>
+        <v>2936300</v>
       </c>
       <c r="H61" s="3">
-        <v>3138100</v>
+        <v>3169400</v>
       </c>
       <c r="I61" s="3">
-        <v>2386200</v>
+        <v>3197100</v>
       </c>
       <c r="J61" s="3">
+        <v>2431100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2240600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2043100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1939900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1417100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1561600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1494800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1638000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1534300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1395000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1393500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1461300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1503800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>505100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>707300</v>
+        <v>704800</v>
       </c>
       <c r="E62" s="3">
-        <v>756400</v>
+        <v>720500</v>
       </c>
       <c r="F62" s="3">
-        <v>729300</v>
+        <v>770600</v>
       </c>
       <c r="G62" s="3">
-        <v>737200</v>
+        <v>743000</v>
       </c>
       <c r="H62" s="3">
-        <v>757600</v>
+        <v>751000</v>
       </c>
       <c r="I62" s="3">
-        <v>631400</v>
+        <v>771800</v>
       </c>
       <c r="J62" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K62" s="3">
         <v>605500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>475800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>475600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>407100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>428600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>427700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>479400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>421400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>415000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>459000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>451600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>440000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>446900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6131800</v>
+        <v>6250900</v>
       </c>
       <c r="E66" s="3">
-        <v>6333200</v>
+        <v>6246900</v>
       </c>
       <c r="F66" s="3">
-        <v>6259300</v>
+        <v>6452100</v>
       </c>
       <c r="G66" s="3">
-        <v>5932500</v>
+        <v>6376800</v>
       </c>
       <c r="H66" s="3">
-        <v>5848400</v>
+        <v>6043900</v>
       </c>
       <c r="I66" s="3">
-        <v>4781300</v>
+        <v>5958200</v>
       </c>
       <c r="J66" s="3">
+        <v>4871000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4987900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3894400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3888700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3302800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3614900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3221800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3346700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3019200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3309300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3216600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2914000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3163100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2276100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2321100</v>
+        <v>2416000</v>
       </c>
       <c r="E72" s="3">
-        <v>2298600</v>
+        <v>2364700</v>
       </c>
       <c r="F72" s="3">
-        <v>2335300</v>
+        <v>2341700</v>
       </c>
       <c r="G72" s="3">
-        <v>2315200</v>
+        <v>2379100</v>
       </c>
       <c r="H72" s="3">
-        <v>2328100</v>
+        <v>2358600</v>
       </c>
       <c r="I72" s="3">
-        <v>2324300</v>
+        <v>2371800</v>
       </c>
       <c r="J72" s="3">
+        <v>2368000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2277700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2179300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1930100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1803500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1831900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1835100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2161300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2204900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2251400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2160900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2071600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1811200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1788100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5112000</v>
+        <v>5258800</v>
       </c>
       <c r="E76" s="3">
-        <v>5089500</v>
+        <v>5208000</v>
       </c>
       <c r="F76" s="3">
-        <v>5126200</v>
+        <v>5185100</v>
       </c>
       <c r="G76" s="3">
-        <v>5105700</v>
+        <v>5222500</v>
       </c>
       <c r="H76" s="3">
-        <v>5112900</v>
+        <v>5201600</v>
       </c>
       <c r="I76" s="3">
-        <v>5114200</v>
+        <v>5208900</v>
       </c>
       <c r="J76" s="3">
+        <v>5210200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5067600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4962900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4603400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4389800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4536900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4528500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4502400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4032300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4143200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4082200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3884900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3727500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3704200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126400</v>
+        <v>147200</v>
       </c>
       <c r="E81" s="3">
-        <v>83200</v>
+        <v>128800</v>
       </c>
       <c r="F81" s="3">
-        <v>108600</v>
+        <v>84800</v>
       </c>
       <c r="G81" s="3">
-        <v>90400</v>
+        <v>110700</v>
       </c>
       <c r="H81" s="3">
-        <v>56400</v>
+        <v>92100</v>
       </c>
       <c r="I81" s="3">
-        <v>81800</v>
+        <v>57500</v>
       </c>
       <c r="J81" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K81" s="3">
         <v>204900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>130200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>198300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>86800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>169600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>105400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>358100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>370300</v>
+        <v>361000</v>
       </c>
       <c r="E83" s="3">
-        <v>358700</v>
+        <v>377200</v>
       </c>
       <c r="F83" s="3">
-        <v>375100</v>
+        <v>365400</v>
       </c>
       <c r="G83" s="3">
-        <v>379500</v>
+        <v>382100</v>
       </c>
       <c r="H83" s="3">
-        <v>341000</v>
+        <v>386600</v>
       </c>
       <c r="I83" s="3">
-        <v>282400</v>
+        <v>347400</v>
       </c>
       <c r="J83" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K83" s="3">
         <v>289800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>282800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>275700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>267100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>269800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>270800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>543500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>251500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>195800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>269500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>229800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>249700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>190500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>716500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>434300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>406200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>720100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>714100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>274500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>630400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>558400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>432300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>364700</v>
+      </c>
+      <c r="O89" s="3">
+        <v>723800</v>
+      </c>
+      <c r="P89" s="3">
         <v>426300</v>
       </c>
-      <c r="E89" s="3">
-        <v>398700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>706900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>700900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>269400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>226000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>630400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>558400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>432300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>364700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>723800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>426300</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>549100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>666100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>394600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>187500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>55400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>546400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-998200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-925700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1288500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1375200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-977600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1049600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1328000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2157400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-896500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-175400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-247700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-286500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-165600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-310800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-161400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-246500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-173300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-167300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-121700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-256800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-168900</v>
+        <v>-317600</v>
       </c>
       <c r="E94" s="3">
-        <v>117700</v>
+        <v>-172100</v>
       </c>
       <c r="F94" s="3">
-        <v>-445100</v>
+        <v>119900</v>
       </c>
       <c r="G94" s="3">
-        <v>-293100</v>
+        <v>-453500</v>
       </c>
       <c r="H94" s="3">
-        <v>-833900</v>
+        <v>-298600</v>
       </c>
       <c r="I94" s="3">
-        <v>-167800</v>
+        <v>-849600</v>
       </c>
       <c r="J94" s="3">
+        <v>-170900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-470600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-518500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-159800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-395400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-408500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-231700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-222900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-226400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-121600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-114600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-291500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-164700</v>
+        <v>-58700</v>
       </c>
       <c r="E96" s="3">
-        <v>-132200</v>
+        <v>-167800</v>
       </c>
       <c r="F96" s="3">
-        <v>-53600</v>
+        <v>-134700</v>
       </c>
       <c r="G96" s="3">
-        <v>-53700</v>
+        <v>-54700</v>
       </c>
       <c r="H96" s="3">
-        <v>-38800</v>
+        <v>-54700</v>
       </c>
       <c r="I96" s="3">
-        <v>-95900</v>
+        <v>-39500</v>
       </c>
       <c r="J96" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-42700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-59800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-91000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-108700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-101300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-64200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-355900</v>
+        <v>-287500</v>
       </c>
       <c r="E100" s="3">
-        <v>-313200</v>
+        <v>-362600</v>
       </c>
       <c r="F100" s="3">
-        <v>-210600</v>
+        <v>-319100</v>
       </c>
       <c r="G100" s="3">
-        <v>-218900</v>
+        <v>-214600</v>
       </c>
       <c r="H100" s="3">
-        <v>31000</v>
+        <v>-223000</v>
       </c>
       <c r="I100" s="3">
-        <v>-305600</v>
+        <v>31500</v>
       </c>
       <c r="J100" s="3">
+        <v>-311300</v>
+      </c>
+      <c r="K100" s="3">
         <v>74500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-328000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>286200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-178500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-240200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-202700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-161800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-160300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-183000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-129100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-109800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>29200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-175900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-98500</v>
+        <v>111400</v>
       </c>
       <c r="E102" s="3">
-        <v>203100</v>
+        <v>-100400</v>
       </c>
       <c r="F102" s="3">
-        <v>51100</v>
+        <v>206900</v>
       </c>
       <c r="G102" s="3">
-        <v>221400</v>
+        <v>52100</v>
       </c>
       <c r="H102" s="3">
-        <v>-566000</v>
+        <v>225600</v>
       </c>
       <c r="I102" s="3">
-        <v>-247400</v>
+        <v>-576600</v>
       </c>
       <c r="J102" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="K102" s="3">
         <v>234300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>199900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-184800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-123900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>260200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-43900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-30000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79000</v>
       </c>
     </row>
